--- a/SourceVHubDataTests_template.xlsx
+++ b/SourceVHubDataTests_template.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.hamblin\Documents\Hubby\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiltonGuestShare\Hubby_bak\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="104">
   <si>
     <t>Programme</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>Test Definitions</t>
-  </si>
-  <si>
-    <t>*Header row for Test Definitions MUST be in row 26, Test definitions begin from row 28 (inclusive). EXAMPLEs will not be run</t>
   </si>
   <si>
     <t>Example</t>
@@ -345,11 +342,29 @@
 - POSIX standard date formats will be checked automatically (YYYY/MM/DD, YYYY-MM-DD)
 - if no value is specified then all fileds will be compared as text fields</t>
   </si>
+  <si>
+    <t>SourceDataHeaderValues</t>
+  </si>
+  <si>
+    <t>TRUE or FALSE</t>
+  </si>
+  <si>
+    <t>HubDataHeaderValues</t>
+  </si>
+  <si>
+    <t>HeaderValues</t>
+  </si>
+  <si>
+    <t>If TRUE the header row will be treated as a metric value rather than a standard column.</t>
+  </si>
+  <si>
+    <t>*Header row for Test Definitions MUST be in row 27, Test definitions begin from row 28 (inclusive). EXAMPLEs will not be run</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -538,18 +553,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -563,25 +597,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -867,34 +886,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="8" width="32.140625" customWidth="1"/>
     <col min="9" max="9" width="40.7109375" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.42578125" customWidth="1"/>
     <col min="11" max="11" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.85546875" customWidth="1"/>
-    <col min="15" max="15" width="34.42578125" customWidth="1"/>
-    <col min="16" max="16" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.7109375" customWidth="1"/>
+    <col min="14" max="14" width="41.140625" customWidth="1"/>
+    <col min="15" max="15" width="57.140625" customWidth="1"/>
+    <col min="16" max="16" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="9" t="s">
         <v>72</v>
       </c>
@@ -915,8 +935,10 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>79</v>
       </c>
@@ -937,8 +959,10 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -959,19 +983,21 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="4" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -981,8 +1007,10 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -1003,8 +1031,10 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>82</v>
       </c>
@@ -1025,25 +1055,27 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -1053,19 +1085,21 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -1075,25 +1109,27 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -1103,25 +1139,27 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -1131,25 +1169,27 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -1159,25 +1199,27 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -1187,25 +1229,27 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -1215,25 +1259,27 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-    </row>
-    <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -1243,25 +1289,27 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-    </row>
-    <row r="15" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="E15" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -1271,19 +1319,21 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -1293,25 +1343,27 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-    </row>
-    <row r="17" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="E17" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -1321,25 +1373,27 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-    </row>
-    <row r="18" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="E18" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -1349,25 +1403,27 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-    </row>
-    <row r="19" spans="1:18" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="33"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
+      <c r="E19" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -1377,25 +1433,27 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-    </row>
-    <row r="20" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+    </row>
+    <row r="20" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="16">
         <v>1</v>
       </c>
-      <c r="E20" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
+      <c r="E20" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -1405,25 +1463,27 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-    </row>
-    <row r="21" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -1433,25 +1493,27 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-    </row>
-    <row r="22" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="36"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -1461,19 +1523,27 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1483,19 +1553,21 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
-    </row>
-    <row r="24" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1505,19 +1577,21 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1527,339 +1601,370 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
-    </row>
-    <row r="26" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="S27" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="T27" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="4" t="s">
+      <c r="G28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="N28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="P28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="Q28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="R28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="S28" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="T28" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <v>10</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F29" s="2">
         <v>1000</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="L29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T29" s="21"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1203</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="P30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q30" s="2">
         <v>5</v>
       </c>
-      <c r="F29" s="2">
-        <v>1203</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="2">
-        <v>2</v>
-      </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P29" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="R30" s="3"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="21"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="2">
         <v>10</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F31" s="2">
         <v>10000</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2">
-        <v>456</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2">
-        <v>500</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="2">
-        <v>30</v>
-      </c>
-      <c r="F31" s="2">
-        <v>30000</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L31" s="2" t="s">
+      <c r="K31" s="2"/>
+      <c r="L31" s="2">
+        <v>456</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2">
+        <v>500</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T31" s="21"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="2">
+        <v>30</v>
+      </c>
+      <c r="F32" s="2">
+        <v>30000</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2" t="s">
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="P32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2" t="s">
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R31" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
+    <mergeCell ref="E23:I23"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:I26"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="E17:I17"/>
     <mergeCell ref="A8:B8"/>
@@ -1872,6 +1977,22 @@
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SourceVHubDataTests_template.xlsx
+++ b/SourceVHubDataTests_template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HiltonGuestShare\Hubby_bak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.hamblin\Documents\Hubby\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Definitions" sheetId="1" r:id="rId1"/>
+    <sheet name="Command Line" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="120">
   <si>
     <t>Programme</t>
   </si>
@@ -360,11 +361,62 @@
   <si>
     <t>*Header row for Test Definitions MUST be in row 27, Test definitions begin from row 28 (inclusive). EXAMPLEs will not be run</t>
   </si>
+  <si>
+    <t>Source Data V Hub Data - Command Line Tests</t>
+  </si>
+  <si>
+    <t>This sheet builds out the command line arguments required to run each of the Test Definitions on the previous page.</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Rscript Destination</t>
+  </si>
+  <si>
+    <t>If the Rscript Path is not a mapped enviroment variable change this to the file path for the Rscript file
+Leave Blank if environment variable is mapped</t>
+  </si>
+  <si>
+    <t>Verbose</t>
+  </si>
+  <si>
+    <t>Command Line Calls</t>
+  </si>
+  <si>
+    <t>Programe</t>
+  </si>
+  <si>
+    <t>Command Line</t>
+  </si>
+  <si>
+    <t>Testdata.R Destintation</t>
+  </si>
+  <si>
+    <t>Destination to the R file. 
+If you are CD'd to the location of the R file then this can be left blank</t>
+  </si>
+  <si>
+    <t>CMD specifics</t>
+  </si>
+  <si>
+    <t>*Insert/Drag down rows above as necessary</t>
+  </si>
+  <si>
+    <t>Command line is built up as follows:
+{Rscript Destination}Rscript         {Testdatas.r Destination}testdatas.r         -r{v is added if verbose is set to 1}        {args from Test Definition sheet e.g TestName="12345566"...}</t>
+  </si>
+  <si>
+    <t>Either 1 or 0, whether you want extra information to be printed to the console with each test run</t>
+  </si>
+  <si>
+    <t>Alter the Values below to change how the command line statements are built up</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -511,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -557,12 +609,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -570,6 +623,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -603,7 +659,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,9 +956,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -987,17 +1053,17 @@
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -1059,23 +1125,23 @@
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -1089,17 +1155,17 @@
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -1113,23 +1179,23 @@
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -1143,23 +1209,23 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -1173,23 +1239,23 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -1203,23 +1269,23 @@
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -1233,23 +1299,23 @@
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -1263,23 +1329,23 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -1293,23 +1359,23 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:20" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -1323,17 +1389,17 @@
       <c r="T15" s="10"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="34"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -1347,23 +1413,23 @@
       <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -1377,23 +1443,23 @@
       <c r="T17" s="10"/>
     </row>
     <row r="18" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -1407,23 +1473,23 @@
       <c r="T18" s="10"/>
     </row>
     <row r="19" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -1437,23 +1503,23 @@
       <c r="T19" s="10"/>
     </row>
     <row r="20" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="16">
         <v>1</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -1467,23 +1533,23 @@
       <c r="T20" s="10"/>
     </row>
     <row r="21" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -1497,23 +1563,23 @@
       <c r="T21" s="10"/>
     </row>
     <row r="22" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -1537,13 +1603,13 @@
       <c r="D23" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1605,17 +1671,17 @@
       <c r="T25" s="10"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1997,4 +2063,1514 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M44"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>IF('Test Definitions'!A29&lt;&gt;"",'Test Definitions'!A29,"")</f>
+        <v>Example</v>
+      </c>
+      <c r="B18" t="str">
+        <f>IF('Test Definitions'!B29&lt;&gt;"",'Test Definitions'!B29,"")</f>
+        <v>INTL</v>
+      </c>
+      <c r="C18" t="str">
+        <f>IF('Test Definitions'!C29&lt;&gt;"",'Test Definitions'!C29,"")</f>
+        <v>EXAMPLE - SQL file to Local file</v>
+      </c>
+      <c r="D18" t="str">
+        <f>IF('Test Definitions'!D29&lt;&gt;"",'Test Definitions'!D29,"")</f>
+        <v>Paid Search Cost</v>
+      </c>
+      <c r="E18" t="str">
+        <f>IF(B18&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B29, """"),""),
+IF('Test Definitions'!C29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C29, """"), ""),
+IF('Test Definitions'!D29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D29, """"), ""),
+IF('Test Definitions'!E29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E29, """"), ""),
+IF('Test Definitions'!F29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F29, """"), ""),
+IF('Test Definitions'!G29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G29, """"), ""),
+IF('Test Definitions'!H29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H29, """"), ""),
+IF('Test Definitions'!I29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I29, """"), ""),
+IF('Test Definitions'!J29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J29, """"), ""),
+IF('Test Definitions'!K29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K29, """"), ""),
+IF('Test Definitions'!L29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L29, """"), ""),
+IF('Test Definitions'!M29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M29, """"), ""),
+IF('Test Definitions'!N29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N29, """"), ""),
+IF('Test Definitions'!O29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O29, """"), ""),
+IF('Test Definitions'!P29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P29, """"), ""),
+IF('Test Definitions'!Q29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q29, """"), ""),
+IF('Test Definitions'!R29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R29, """"), ""),
+IF('Test Definitions'!S29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S29, """"), ""),
+IF('Test Definitions'!T29&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T29, """"), ""),
+),"\","/"),"")</f>
+        <v>Rscript testdatas.r -rv Programme="INTL" TestName="EXAMPLE - SQL file to Local file" ComparisonMetric="Paid Search Cost" Threshold="10" MinimumThreshold="1000" IgnoredValues="YESTERDAY(%d%m%Y)" ExepectedDateFormats="%d-%m-%Y %H:%M|%Y%m%d" SourceDataConnectionString="server=servername;database=dbname;uid=username;pwd=password" SourceDataFileName="SQLfiletolocalfile.sql" SourceDataHeaderRowIdentifier="Date" SourceDataEndRowIdentifier="Totals:" SourceDataColumnsToInclude="1,2,3" HubDataConnectionString="C:/data/imports/" HubDataFileName="HubDatas.csv" HubDataColumnsToInclude="2,7"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>IF('Test Definitions'!A30&lt;&gt;"",'Test Definitions'!A30,"")</f>
+        <v>Example</v>
+      </c>
+      <c r="B19" t="str">
+        <f>IF('Test Definitions'!B30&lt;&gt;"",'Test Definitions'!B30,"")</f>
+        <v>US</v>
+      </c>
+      <c r="C19" t="str">
+        <f>IF('Test Definitions'!C30&lt;&gt;"",'Test Definitions'!C30,"")</f>
+        <v>EXAMPLE - FTP file compared to SQL file</v>
+      </c>
+      <c r="D19" t="str">
+        <f>IF('Test Definitions'!D30&lt;&gt;"",'Test Definitions'!D30,"")</f>
+        <v>Revenue</v>
+      </c>
+      <c r="E19" t="str">
+        <f>IF(B19&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B30, """"),""),
+IF('Test Definitions'!C30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C30, """"), ""),
+IF('Test Definitions'!D30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D30, """"), ""),
+IF('Test Definitions'!E30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E30, """"), ""),
+IF('Test Definitions'!F30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F30, """"), ""),
+IF('Test Definitions'!G30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G30, """"), ""),
+IF('Test Definitions'!H30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H30, """"), ""),
+IF('Test Definitions'!I30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I30, """"), ""),
+IF('Test Definitions'!J30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J30, """"), ""),
+IF('Test Definitions'!K30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K30, """"), ""),
+IF('Test Definitions'!L30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L30, """"), ""),
+IF('Test Definitions'!M30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M30, """"), ""),
+IF('Test Definitions'!N30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N30, """"), ""),
+IF('Test Definitions'!O30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O30, """"), ""),
+IF('Test Definitions'!P30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P30, """"), ""),
+IF('Test Definitions'!Q30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q30, """"), ""),
+IF('Test Definitions'!R30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R30, """"), ""),
+IF('Test Definitions'!S30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S30, """"), ""),
+IF('Test Definitions'!T30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T30, """"), ""),
+),"\","/"),"")</f>
+        <v>Rscript testdatas.r -rv Programme="US" TestName="EXAMPLE - FTP file compared to SQL file" ComparisonMetric="Revenue" Threshold="5" MinimumThreshold="1203" IgnoredValues="YESTERDAY" SourceDataConnectionString="sftp://ftp.filetransfer.com/file/path/,username:userpass" SourceDataFileName="4656_/d{4}.csv" SourceDataHeaderRowIdentifier="2" HubDataConnectionString="server=servername;database=dbname;uid=username;pwd=password" HubDataFileName="C:/SQL/ExampleFTPfilecomparetoSQLfile.sql" HubDataHeaderRowIdentifier="5"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>IF('Test Definitions'!A31&lt;&gt;"",'Test Definitions'!A31,"")</f>
+        <v>Example</v>
+      </c>
+      <c r="B20" t="str">
+        <f>IF('Test Definitions'!B31&lt;&gt;"",'Test Definitions'!B31,"")</f>
+        <v>INTL</v>
+      </c>
+      <c r="C20" t="str">
+        <f>IF('Test Definitions'!C31&lt;&gt;"",'Test Definitions'!C31,"")</f>
+        <v>EXAMPLE - Local File compared to SQL file</v>
+      </c>
+      <c r="D20" t="str">
+        <f>IF('Test Definitions'!D31&lt;&gt;"",'Test Definitions'!D31,"")</f>
+        <v>Landings</v>
+      </c>
+      <c r="E20" t="str">
+        <f>IF(B20&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B31, """"),""),
+IF('Test Definitions'!C31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C31, """"), ""),
+IF('Test Definitions'!D31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D31, """"), ""),
+IF('Test Definitions'!E31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E31, """"), ""),
+IF('Test Definitions'!F31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F31, """"), ""),
+IF('Test Definitions'!G31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G31, """"), ""),
+IF('Test Definitions'!H31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H31, """"), ""),
+IF('Test Definitions'!I31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I31, """"), ""),
+IF('Test Definitions'!J31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J31, """"), ""),
+IF('Test Definitions'!K31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K31, """"), ""),
+IF('Test Definitions'!L31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L31, """"), ""),
+IF('Test Definitions'!M31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M31, """"), ""),
+IF('Test Definitions'!N31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N31, """"), ""),
+IF('Test Definitions'!O31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O31, """"), ""),
+IF('Test Definitions'!P31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P31, """"), ""),
+IF('Test Definitions'!Q31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q31, """"), ""),
+IF('Test Definitions'!R31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R31, """"), ""),
+IF('Test Definitions'!S31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S31, """"), ""),
+IF('Test Definitions'!T31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T31, """"), ""),
+),"\","/"),"")</f>
+        <v>Rscript testdatas.r -rv Programme="INTL" TestName="EXAMPLE - Local File compared to SQL file" ComparisonMetric="Landings" Threshold="10" MinimumThreshold="10000" IgnoredValues="Baidu - APAC,YESTERDAY" ExepectedDateFormats="%Y-%m-%d" SourceDataConnectionString="C:/data/imports/" SourceDataFileName="CadenceOutputDatas_/d{12}.csv" SourceDataEndRowIdentifier="456" SourceDataColumnsToInclude="2,4" HubDataConnectionString="server=servername;database=dbname;uid=username;pwd=password" HubDataFileName="C:/SQL/ExampleSQLFile.sql" HubDataEndRowIdentifier="500" HubDataColumnsToInclude="3,4"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>IF('Test Definitions'!A32&lt;&gt;"",'Test Definitions'!A32,"")</f>
+        <v>Example</v>
+      </c>
+      <c r="B21" t="str">
+        <f>IF('Test Definitions'!B32&lt;&gt;"",'Test Definitions'!B32,"")</f>
+        <v>US</v>
+      </c>
+      <c r="C21" t="str">
+        <f>IF('Test Definitions'!C32&lt;&gt;"",'Test Definitions'!C32,"")</f>
+        <v>EXAMPLE - Local File compared to FTP</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF('Test Definitions'!D32&lt;&gt;"",'Test Definitions'!D32,"")</f>
+        <v>Impressions</v>
+      </c>
+      <c r="E21" t="str">
+        <f>IF(B21&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B32, """"),""),
+IF('Test Definitions'!C32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C32, """"), ""),
+IF('Test Definitions'!D32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D32, """"), ""),
+IF('Test Definitions'!E32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E32, """"), ""),
+IF('Test Definitions'!F32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F32, """"), ""),
+IF('Test Definitions'!G32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G32, """"), ""),
+IF('Test Definitions'!H32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H32, """"), ""),
+IF('Test Definitions'!I32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I32, """"), ""),
+IF('Test Definitions'!J32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J32, """"), ""),
+IF('Test Definitions'!K32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K32, """"), ""),
+IF('Test Definitions'!L32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L32, """"), ""),
+IF('Test Definitions'!M32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M32, """"), ""),
+IF('Test Definitions'!N32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N32, """"), ""),
+IF('Test Definitions'!O32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O32, """"), ""),
+IF('Test Definitions'!P32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P32, """"), ""),
+IF('Test Definitions'!Q32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q32, """"), ""),
+IF('Test Definitions'!R32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R32, """"), ""),
+IF('Test Definitions'!S32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S32, """"), ""),
+IF('Test Definitions'!T32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T32, """"), ""),
+),"\","/"),"")</f>
+        <v>Rscript testdatas.r -rv Programme="US" TestName="EXAMPLE - Local File compared to FTP" ComparisonMetric="Impressions" Threshold="30" MinimumThreshold="30000" IgnoredValues="Baidu - APAC,Bing - US" SourceDataConnectionString="C:/data/imports/" SourceDataFileName="CadenceOutputDatas_/d{12}.csv" SourceDataHeaderRowIdentifier="Date" SourceDataEndRowIdentifier="Grand Total:" HubDataConnectionString="sftp://ftp.filetransfer.com/file/path/,username:userpass" HubDataFileName="4656_/d{4}.csv" HubDataEndRowIdentifier="Grand Total:"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>IF('Test Definitions'!A33&lt;&gt;"",'Test Definitions'!A33,"")</f>
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <f>IF('Test Definitions'!B33&lt;&gt;"",'Test Definitions'!B33,"")</f>
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <f>IF('Test Definitions'!C33&lt;&gt;"",'Test Definitions'!C33,"")</f>
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <f>IF('Test Definitions'!D33&lt;&gt;"",'Test Definitions'!D33,"")</f>
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <f>IF(B22&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B33, """"),""),
+IF('Test Definitions'!C33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C33, """"), ""),
+IF('Test Definitions'!D33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D33, """"), ""),
+IF('Test Definitions'!E33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E33, """"), ""),
+IF('Test Definitions'!F33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F33, """"), ""),
+IF('Test Definitions'!G33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G33, """"), ""),
+IF('Test Definitions'!H33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H33, """"), ""),
+IF('Test Definitions'!I33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I33, """"), ""),
+IF('Test Definitions'!J33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J33, """"), ""),
+IF('Test Definitions'!K33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K33, """"), ""),
+IF('Test Definitions'!L33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L33, """"), ""),
+IF('Test Definitions'!M33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M33, """"), ""),
+IF('Test Definitions'!N33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N33, """"), ""),
+IF('Test Definitions'!O33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O33, """"), ""),
+IF('Test Definitions'!P33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P33, """"), ""),
+IF('Test Definitions'!Q33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q33, """"), ""),
+IF('Test Definitions'!R33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R33, """"), ""),
+IF('Test Definitions'!S33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S33, """"), ""),
+IF('Test Definitions'!T33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T33, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>IF('Test Definitions'!A34&lt;&gt;"",'Test Definitions'!A34,"")</f>
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <f>IF('Test Definitions'!B34&lt;&gt;"",'Test Definitions'!B34,"")</f>
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <f>IF('Test Definitions'!C34&lt;&gt;"",'Test Definitions'!C34,"")</f>
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <f>IF('Test Definitions'!D34&lt;&gt;"",'Test Definitions'!D34,"")</f>
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <f>IF(B23&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B34, """"),""),
+IF('Test Definitions'!C34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C34, """"), ""),
+IF('Test Definitions'!D34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D34, """"), ""),
+IF('Test Definitions'!E34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E34, """"), ""),
+IF('Test Definitions'!F34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F34, """"), ""),
+IF('Test Definitions'!G34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G34, """"), ""),
+IF('Test Definitions'!H34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H34, """"), ""),
+IF('Test Definitions'!I34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I34, """"), ""),
+IF('Test Definitions'!J34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J34, """"), ""),
+IF('Test Definitions'!K34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K34, """"), ""),
+IF('Test Definitions'!L34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L34, """"), ""),
+IF('Test Definitions'!M34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M34, """"), ""),
+IF('Test Definitions'!N34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N34, """"), ""),
+IF('Test Definitions'!O34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O34, """"), ""),
+IF('Test Definitions'!P34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P34, """"), ""),
+IF('Test Definitions'!Q34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q34, """"), ""),
+IF('Test Definitions'!R34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R34, """"), ""),
+IF('Test Definitions'!S34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S34, """"), ""),
+IF('Test Definitions'!T34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T34, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>IF('Test Definitions'!A35&lt;&gt;"",'Test Definitions'!A35,"")</f>
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <f>IF('Test Definitions'!B35&lt;&gt;"",'Test Definitions'!B35,"")</f>
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <f>IF('Test Definitions'!C35&lt;&gt;"",'Test Definitions'!C35,"")</f>
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <f>IF('Test Definitions'!D35&lt;&gt;"",'Test Definitions'!D35,"")</f>
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <f>IF(B24&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B35, """"),""),
+IF('Test Definitions'!C35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C35, """"), ""),
+IF('Test Definitions'!D35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D35, """"), ""),
+IF('Test Definitions'!E35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E35, """"), ""),
+IF('Test Definitions'!F35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F35, """"), ""),
+IF('Test Definitions'!G35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G35, """"), ""),
+IF('Test Definitions'!H35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H35, """"), ""),
+IF('Test Definitions'!I35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I35, """"), ""),
+IF('Test Definitions'!J35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J35, """"), ""),
+IF('Test Definitions'!K35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K35, """"), ""),
+IF('Test Definitions'!L35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L35, """"), ""),
+IF('Test Definitions'!M35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M35, """"), ""),
+IF('Test Definitions'!N35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N35, """"), ""),
+IF('Test Definitions'!O35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O35, """"), ""),
+IF('Test Definitions'!P35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P35, """"), ""),
+IF('Test Definitions'!Q35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q35, """"), ""),
+IF('Test Definitions'!R35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R35, """"), ""),
+IF('Test Definitions'!S35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S35, """"), ""),
+IF('Test Definitions'!T35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T35, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>IF('Test Definitions'!A36&lt;&gt;"",'Test Definitions'!A36,"")</f>
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <f>IF('Test Definitions'!B36&lt;&gt;"",'Test Definitions'!B36,"")</f>
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <f>IF('Test Definitions'!C36&lt;&gt;"",'Test Definitions'!C36,"")</f>
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <f>IF('Test Definitions'!D36&lt;&gt;"",'Test Definitions'!D36,"")</f>
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <f>IF(B25&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B36, """"),""),
+IF('Test Definitions'!C36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C36, """"), ""),
+IF('Test Definitions'!D36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D36, """"), ""),
+IF('Test Definitions'!E36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E36, """"), ""),
+IF('Test Definitions'!F36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F36, """"), ""),
+IF('Test Definitions'!G36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G36, """"), ""),
+IF('Test Definitions'!H36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H36, """"), ""),
+IF('Test Definitions'!I36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I36, """"), ""),
+IF('Test Definitions'!J36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J36, """"), ""),
+IF('Test Definitions'!K36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K36, """"), ""),
+IF('Test Definitions'!L36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L36, """"), ""),
+IF('Test Definitions'!M36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M36, """"), ""),
+IF('Test Definitions'!N36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N36, """"), ""),
+IF('Test Definitions'!O36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O36, """"), ""),
+IF('Test Definitions'!P36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P36, """"), ""),
+IF('Test Definitions'!Q36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q36, """"), ""),
+IF('Test Definitions'!R36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R36, """"), ""),
+IF('Test Definitions'!S36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S36, """"), ""),
+IF('Test Definitions'!T36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T36, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>IF('Test Definitions'!A37&lt;&gt;"",'Test Definitions'!A37,"")</f>
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <f>IF('Test Definitions'!B37&lt;&gt;"",'Test Definitions'!B37,"")</f>
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <f>IF('Test Definitions'!C37&lt;&gt;"",'Test Definitions'!C37,"")</f>
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <f>IF('Test Definitions'!D37&lt;&gt;"",'Test Definitions'!D37,"")</f>
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <f>IF(B26&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B37, """"),""),
+IF('Test Definitions'!C37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C37, """"), ""),
+IF('Test Definitions'!D37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D37, """"), ""),
+IF('Test Definitions'!E37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E37, """"), ""),
+IF('Test Definitions'!F37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F37, """"), ""),
+IF('Test Definitions'!G37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G37, """"), ""),
+IF('Test Definitions'!H37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H37, """"), ""),
+IF('Test Definitions'!I37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I37, """"), ""),
+IF('Test Definitions'!J37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J37, """"), ""),
+IF('Test Definitions'!K37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K37, """"), ""),
+IF('Test Definitions'!L37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L37, """"), ""),
+IF('Test Definitions'!M37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M37, """"), ""),
+IF('Test Definitions'!N37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N37, """"), ""),
+IF('Test Definitions'!O37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O37, """"), ""),
+IF('Test Definitions'!P37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P37, """"), ""),
+IF('Test Definitions'!Q37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q37, """"), ""),
+IF('Test Definitions'!R37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R37, """"), ""),
+IF('Test Definitions'!S37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S37, """"), ""),
+IF('Test Definitions'!T37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T37, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>IF('Test Definitions'!A38&lt;&gt;"",'Test Definitions'!A38,"")</f>
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <f>IF('Test Definitions'!B38&lt;&gt;"",'Test Definitions'!B38,"")</f>
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <f>IF('Test Definitions'!C38&lt;&gt;"",'Test Definitions'!C38,"")</f>
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <f>IF('Test Definitions'!D38&lt;&gt;"",'Test Definitions'!D38,"")</f>
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <f>IF(B27&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B38, """"),""),
+IF('Test Definitions'!C38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C38, """"), ""),
+IF('Test Definitions'!D38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D38, """"), ""),
+IF('Test Definitions'!E38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E38, """"), ""),
+IF('Test Definitions'!F38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F38, """"), ""),
+IF('Test Definitions'!G38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G38, """"), ""),
+IF('Test Definitions'!H38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H38, """"), ""),
+IF('Test Definitions'!I38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I38, """"), ""),
+IF('Test Definitions'!J38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J38, """"), ""),
+IF('Test Definitions'!K38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K38, """"), ""),
+IF('Test Definitions'!L38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L38, """"), ""),
+IF('Test Definitions'!M38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M38, """"), ""),
+IF('Test Definitions'!N38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N38, """"), ""),
+IF('Test Definitions'!O38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O38, """"), ""),
+IF('Test Definitions'!P38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P38, """"), ""),
+IF('Test Definitions'!Q38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q38, """"), ""),
+IF('Test Definitions'!R38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R38, """"), ""),
+IF('Test Definitions'!S38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S38, """"), ""),
+IF('Test Definitions'!T38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T38, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>IF('Test Definitions'!A39&lt;&gt;"",'Test Definitions'!A39,"")</f>
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <f>IF('Test Definitions'!B39&lt;&gt;"",'Test Definitions'!B39,"")</f>
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <f>IF('Test Definitions'!C39&lt;&gt;"",'Test Definitions'!C39,"")</f>
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <f>IF('Test Definitions'!D39&lt;&gt;"",'Test Definitions'!D39,"")</f>
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <f>IF(B28&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B39, """"),""),
+IF('Test Definitions'!C39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C39, """"), ""),
+IF('Test Definitions'!D39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D39, """"), ""),
+IF('Test Definitions'!E39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E39, """"), ""),
+IF('Test Definitions'!F39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F39, """"), ""),
+IF('Test Definitions'!G39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G39, """"), ""),
+IF('Test Definitions'!H39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H39, """"), ""),
+IF('Test Definitions'!I39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I39, """"), ""),
+IF('Test Definitions'!J39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J39, """"), ""),
+IF('Test Definitions'!K39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K39, """"), ""),
+IF('Test Definitions'!L39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L39, """"), ""),
+IF('Test Definitions'!M39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M39, """"), ""),
+IF('Test Definitions'!N39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N39, """"), ""),
+IF('Test Definitions'!O39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O39, """"), ""),
+IF('Test Definitions'!P39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P39, """"), ""),
+IF('Test Definitions'!Q39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q39, """"), ""),
+IF('Test Definitions'!R39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R39, """"), ""),
+IF('Test Definitions'!S39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S39, """"), ""),
+IF('Test Definitions'!T39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T39, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>IF('Test Definitions'!A40&lt;&gt;"",'Test Definitions'!A40,"")</f>
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <f>IF('Test Definitions'!B40&lt;&gt;"",'Test Definitions'!B40,"")</f>
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <f>IF('Test Definitions'!C40&lt;&gt;"",'Test Definitions'!C40,"")</f>
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <f>IF('Test Definitions'!D40&lt;&gt;"",'Test Definitions'!D40,"")</f>
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <f>IF(B29&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B40, """"),""),
+IF('Test Definitions'!C40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C40, """"), ""),
+IF('Test Definitions'!D40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D40, """"), ""),
+IF('Test Definitions'!E40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E40, """"), ""),
+IF('Test Definitions'!F40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F40, """"), ""),
+IF('Test Definitions'!G40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G40, """"), ""),
+IF('Test Definitions'!H40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H40, """"), ""),
+IF('Test Definitions'!I40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I40, """"), ""),
+IF('Test Definitions'!J40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J40, """"), ""),
+IF('Test Definitions'!K40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K40, """"), ""),
+IF('Test Definitions'!L40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L40, """"), ""),
+IF('Test Definitions'!M40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M40, """"), ""),
+IF('Test Definitions'!N40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N40, """"), ""),
+IF('Test Definitions'!O40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O40, """"), ""),
+IF('Test Definitions'!P40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P40, """"), ""),
+IF('Test Definitions'!Q40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q40, """"), ""),
+IF('Test Definitions'!R40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R40, """"), ""),
+IF('Test Definitions'!S40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S40, """"), ""),
+IF('Test Definitions'!T40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T40, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>IF('Test Definitions'!A41&lt;&gt;"",'Test Definitions'!A41,"")</f>
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <f>IF('Test Definitions'!B41&lt;&gt;"",'Test Definitions'!B41,"")</f>
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <f>IF('Test Definitions'!C41&lt;&gt;"",'Test Definitions'!C41,"")</f>
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <f>IF('Test Definitions'!D41&lt;&gt;"",'Test Definitions'!D41,"")</f>
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <f>IF(B30&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B41, """"),""),
+IF('Test Definitions'!C41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C41, """"), ""),
+IF('Test Definitions'!D41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D41, """"), ""),
+IF('Test Definitions'!E41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E41, """"), ""),
+IF('Test Definitions'!F41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F41, """"), ""),
+IF('Test Definitions'!G41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G41, """"), ""),
+IF('Test Definitions'!H41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H41, """"), ""),
+IF('Test Definitions'!I41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I41, """"), ""),
+IF('Test Definitions'!J41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J41, """"), ""),
+IF('Test Definitions'!K41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K41, """"), ""),
+IF('Test Definitions'!L41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L41, """"), ""),
+IF('Test Definitions'!M41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M41, """"), ""),
+IF('Test Definitions'!N41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N41, """"), ""),
+IF('Test Definitions'!O41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O41, """"), ""),
+IF('Test Definitions'!P41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P41, """"), ""),
+IF('Test Definitions'!Q41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q41, """"), ""),
+IF('Test Definitions'!R41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R41, """"), ""),
+IF('Test Definitions'!S41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S41, """"), ""),
+IF('Test Definitions'!T41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T41, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>IF('Test Definitions'!A42&lt;&gt;"",'Test Definitions'!A42,"")</f>
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <f>IF('Test Definitions'!B42&lt;&gt;"",'Test Definitions'!B42,"")</f>
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <f>IF('Test Definitions'!C42&lt;&gt;"",'Test Definitions'!C42,"")</f>
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <f>IF('Test Definitions'!D42&lt;&gt;"",'Test Definitions'!D42,"")</f>
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <f>IF(B31&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B42, """"),""),
+IF('Test Definitions'!C42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C42, """"), ""),
+IF('Test Definitions'!D42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D42, """"), ""),
+IF('Test Definitions'!E42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E42, """"), ""),
+IF('Test Definitions'!F42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F42, """"), ""),
+IF('Test Definitions'!G42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G42, """"), ""),
+IF('Test Definitions'!H42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H42, """"), ""),
+IF('Test Definitions'!I42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I42, """"), ""),
+IF('Test Definitions'!J42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J42, """"), ""),
+IF('Test Definitions'!K42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K42, """"), ""),
+IF('Test Definitions'!L42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L42, """"), ""),
+IF('Test Definitions'!M42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M42, """"), ""),
+IF('Test Definitions'!N42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N42, """"), ""),
+IF('Test Definitions'!O42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O42, """"), ""),
+IF('Test Definitions'!P42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P42, """"), ""),
+IF('Test Definitions'!Q42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q42, """"), ""),
+IF('Test Definitions'!R42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R42, """"), ""),
+IF('Test Definitions'!S42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S42, """"), ""),
+IF('Test Definitions'!T42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T42, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>IF('Test Definitions'!A43&lt;&gt;"",'Test Definitions'!A43,"")</f>
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <f>IF('Test Definitions'!B43&lt;&gt;"",'Test Definitions'!B43,"")</f>
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <f>IF('Test Definitions'!C43&lt;&gt;"",'Test Definitions'!C43,"")</f>
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <f>IF('Test Definitions'!D43&lt;&gt;"",'Test Definitions'!D43,"")</f>
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <f>IF(B32&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B43, """"),""),
+IF('Test Definitions'!C43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C43, """"), ""),
+IF('Test Definitions'!D43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D43, """"), ""),
+IF('Test Definitions'!E43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E43, """"), ""),
+IF('Test Definitions'!F43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F43, """"), ""),
+IF('Test Definitions'!G43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G43, """"), ""),
+IF('Test Definitions'!H43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H43, """"), ""),
+IF('Test Definitions'!I43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I43, """"), ""),
+IF('Test Definitions'!J43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J43, """"), ""),
+IF('Test Definitions'!K43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K43, """"), ""),
+IF('Test Definitions'!L43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L43, """"), ""),
+IF('Test Definitions'!M43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M43, """"), ""),
+IF('Test Definitions'!N43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N43, """"), ""),
+IF('Test Definitions'!O43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O43, """"), ""),
+IF('Test Definitions'!P43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P43, """"), ""),
+IF('Test Definitions'!Q43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q43, """"), ""),
+IF('Test Definitions'!R43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R43, """"), ""),
+IF('Test Definitions'!S43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S43, """"), ""),
+IF('Test Definitions'!T43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T43, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>IF('Test Definitions'!A44&lt;&gt;"",'Test Definitions'!A44,"")</f>
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <f>IF('Test Definitions'!B44&lt;&gt;"",'Test Definitions'!B44,"")</f>
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <f>IF('Test Definitions'!C44&lt;&gt;"",'Test Definitions'!C44,"")</f>
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <f>IF('Test Definitions'!D44&lt;&gt;"",'Test Definitions'!D44,"")</f>
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <f>IF(B33&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B44, """"),""),
+IF('Test Definitions'!C44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C44, """"), ""),
+IF('Test Definitions'!D44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D44, """"), ""),
+IF('Test Definitions'!E44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E44, """"), ""),
+IF('Test Definitions'!F44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F44, """"), ""),
+IF('Test Definitions'!G44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G44, """"), ""),
+IF('Test Definitions'!H44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H44, """"), ""),
+IF('Test Definitions'!I44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I44, """"), ""),
+IF('Test Definitions'!J44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J44, """"), ""),
+IF('Test Definitions'!K44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K44, """"), ""),
+IF('Test Definitions'!L44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L44, """"), ""),
+IF('Test Definitions'!M44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M44, """"), ""),
+IF('Test Definitions'!N44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N44, """"), ""),
+IF('Test Definitions'!O44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O44, """"), ""),
+IF('Test Definitions'!P44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P44, """"), ""),
+IF('Test Definitions'!Q44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q44, """"), ""),
+IF('Test Definitions'!R44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R44, """"), ""),
+IF('Test Definitions'!S44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S44, """"), ""),
+IF('Test Definitions'!T44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T44, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>IF('Test Definitions'!A45&lt;&gt;"",'Test Definitions'!A45,"")</f>
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <f>IF('Test Definitions'!B45&lt;&gt;"",'Test Definitions'!B45,"")</f>
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <f>IF('Test Definitions'!C45&lt;&gt;"",'Test Definitions'!C45,"")</f>
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <f>IF('Test Definitions'!D45&lt;&gt;"",'Test Definitions'!D45,"")</f>
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <f>IF(B34&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B45, """"),""),
+IF('Test Definitions'!C45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C45, """"), ""),
+IF('Test Definitions'!D45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D45, """"), ""),
+IF('Test Definitions'!E45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E45, """"), ""),
+IF('Test Definitions'!F45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F45, """"), ""),
+IF('Test Definitions'!G45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G45, """"), ""),
+IF('Test Definitions'!H45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H45, """"), ""),
+IF('Test Definitions'!I45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I45, """"), ""),
+IF('Test Definitions'!J45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J45, """"), ""),
+IF('Test Definitions'!K45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K45, """"), ""),
+IF('Test Definitions'!L45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L45, """"), ""),
+IF('Test Definitions'!M45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M45, """"), ""),
+IF('Test Definitions'!N45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N45, """"), ""),
+IF('Test Definitions'!O45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O45, """"), ""),
+IF('Test Definitions'!P45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P45, """"), ""),
+IF('Test Definitions'!Q45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q45, """"), ""),
+IF('Test Definitions'!R45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R45, """"), ""),
+IF('Test Definitions'!S45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S45, """"), ""),
+IF('Test Definitions'!T45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T45, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>IF('Test Definitions'!A46&lt;&gt;"",'Test Definitions'!A46,"")</f>
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <f>IF('Test Definitions'!B46&lt;&gt;"",'Test Definitions'!B46,"")</f>
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <f>IF('Test Definitions'!C46&lt;&gt;"",'Test Definitions'!C46,"")</f>
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <f>IF('Test Definitions'!D46&lt;&gt;"",'Test Definitions'!D46,"")</f>
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <f>IF(B35&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B46, """"),""),
+IF('Test Definitions'!C46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C46, """"), ""),
+IF('Test Definitions'!D46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D46, """"), ""),
+IF('Test Definitions'!E46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E46, """"), ""),
+IF('Test Definitions'!F46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F46, """"), ""),
+IF('Test Definitions'!G46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G46, """"), ""),
+IF('Test Definitions'!H46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H46, """"), ""),
+IF('Test Definitions'!I46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I46, """"), ""),
+IF('Test Definitions'!J46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J46, """"), ""),
+IF('Test Definitions'!K46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K46, """"), ""),
+IF('Test Definitions'!L46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L46, """"), ""),
+IF('Test Definitions'!M46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M46, """"), ""),
+IF('Test Definitions'!N46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N46, """"), ""),
+IF('Test Definitions'!O46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O46, """"), ""),
+IF('Test Definitions'!P46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P46, """"), ""),
+IF('Test Definitions'!Q46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q46, """"), ""),
+IF('Test Definitions'!R46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R46, """"), ""),
+IF('Test Definitions'!S46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S46, """"), ""),
+IF('Test Definitions'!T46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T46, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>IF('Test Definitions'!A47&lt;&gt;"",'Test Definitions'!A47,"")</f>
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <f>IF('Test Definitions'!B47&lt;&gt;"",'Test Definitions'!B47,"")</f>
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <f>IF('Test Definitions'!C47&lt;&gt;"",'Test Definitions'!C47,"")</f>
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <f>IF('Test Definitions'!D47&lt;&gt;"",'Test Definitions'!D47,"")</f>
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <f>IF(B36&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B47, """"),""),
+IF('Test Definitions'!C47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C47, """"), ""),
+IF('Test Definitions'!D47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D47, """"), ""),
+IF('Test Definitions'!E47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E47, """"), ""),
+IF('Test Definitions'!F47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F47, """"), ""),
+IF('Test Definitions'!G47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G47, """"), ""),
+IF('Test Definitions'!H47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H47, """"), ""),
+IF('Test Definitions'!I47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I47, """"), ""),
+IF('Test Definitions'!J47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J47, """"), ""),
+IF('Test Definitions'!K47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K47, """"), ""),
+IF('Test Definitions'!L47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L47, """"), ""),
+IF('Test Definitions'!M47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M47, """"), ""),
+IF('Test Definitions'!N47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N47, """"), ""),
+IF('Test Definitions'!O47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O47, """"), ""),
+IF('Test Definitions'!P47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P47, """"), ""),
+IF('Test Definitions'!Q47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q47, """"), ""),
+IF('Test Definitions'!R47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R47, """"), ""),
+IF('Test Definitions'!S47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S47, """"), ""),
+IF('Test Definitions'!T47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T47, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>IF('Test Definitions'!A48&lt;&gt;"",'Test Definitions'!A48,"")</f>
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <f>IF('Test Definitions'!B48&lt;&gt;"",'Test Definitions'!B48,"")</f>
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <f>IF('Test Definitions'!C48&lt;&gt;"",'Test Definitions'!C48,"")</f>
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <f>IF('Test Definitions'!D48&lt;&gt;"",'Test Definitions'!D48,"")</f>
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <f>IF(B37&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B48, """"),""),
+IF('Test Definitions'!C48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C48, """"), ""),
+IF('Test Definitions'!D48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D48, """"), ""),
+IF('Test Definitions'!E48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E48, """"), ""),
+IF('Test Definitions'!F48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F48, """"), ""),
+IF('Test Definitions'!G48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G48, """"), ""),
+IF('Test Definitions'!H48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H48, """"), ""),
+IF('Test Definitions'!I48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I48, """"), ""),
+IF('Test Definitions'!J48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J48, """"), ""),
+IF('Test Definitions'!K48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K48, """"), ""),
+IF('Test Definitions'!L48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L48, """"), ""),
+IF('Test Definitions'!M48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M48, """"), ""),
+IF('Test Definitions'!N48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N48, """"), ""),
+IF('Test Definitions'!O48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O48, """"), ""),
+IF('Test Definitions'!P48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P48, """"), ""),
+IF('Test Definitions'!Q48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q48, """"), ""),
+IF('Test Definitions'!R48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R48, """"), ""),
+IF('Test Definitions'!S48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S48, """"), ""),
+IF('Test Definitions'!T48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T48, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>IF('Test Definitions'!A49&lt;&gt;"",'Test Definitions'!A49,"")</f>
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <f>IF('Test Definitions'!B49&lt;&gt;"",'Test Definitions'!B49,"")</f>
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <f>IF('Test Definitions'!C49&lt;&gt;"",'Test Definitions'!C49,"")</f>
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <f>IF('Test Definitions'!D49&lt;&gt;"",'Test Definitions'!D49,"")</f>
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <f>IF(B38&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B49, """"),""),
+IF('Test Definitions'!C49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C49, """"), ""),
+IF('Test Definitions'!D49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D49, """"), ""),
+IF('Test Definitions'!E49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E49, """"), ""),
+IF('Test Definitions'!F49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F49, """"), ""),
+IF('Test Definitions'!G49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G49, """"), ""),
+IF('Test Definitions'!H49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H49, """"), ""),
+IF('Test Definitions'!I49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I49, """"), ""),
+IF('Test Definitions'!J49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J49, """"), ""),
+IF('Test Definitions'!K49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K49, """"), ""),
+IF('Test Definitions'!L49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L49, """"), ""),
+IF('Test Definitions'!M49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M49, """"), ""),
+IF('Test Definitions'!N49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N49, """"), ""),
+IF('Test Definitions'!O49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O49, """"), ""),
+IF('Test Definitions'!P49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P49, """"), ""),
+IF('Test Definitions'!Q49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q49, """"), ""),
+IF('Test Definitions'!R49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R49, """"), ""),
+IF('Test Definitions'!S49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S49, """"), ""),
+IF('Test Definitions'!T49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T49, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>IF('Test Definitions'!A50&lt;&gt;"",'Test Definitions'!A50,"")</f>
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <f>IF('Test Definitions'!B50&lt;&gt;"",'Test Definitions'!B50,"")</f>
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <f>IF('Test Definitions'!C50&lt;&gt;"",'Test Definitions'!C50,"")</f>
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <f>IF('Test Definitions'!D50&lt;&gt;"",'Test Definitions'!D50,"")</f>
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <f>IF(B39&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B50, """"),""),
+IF('Test Definitions'!C50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C50, """"), ""),
+IF('Test Definitions'!D50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D50, """"), ""),
+IF('Test Definitions'!E50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E50, """"), ""),
+IF('Test Definitions'!F50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F50, """"), ""),
+IF('Test Definitions'!G50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G50, """"), ""),
+IF('Test Definitions'!H50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H50, """"), ""),
+IF('Test Definitions'!I50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I50, """"), ""),
+IF('Test Definitions'!J50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J50, """"), ""),
+IF('Test Definitions'!K50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K50, """"), ""),
+IF('Test Definitions'!L50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L50, """"), ""),
+IF('Test Definitions'!M50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M50, """"), ""),
+IF('Test Definitions'!N50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N50, """"), ""),
+IF('Test Definitions'!O50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O50, """"), ""),
+IF('Test Definitions'!P50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P50, """"), ""),
+IF('Test Definitions'!Q50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q50, """"), ""),
+IF('Test Definitions'!R50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R50, """"), ""),
+IF('Test Definitions'!S50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S50, """"), ""),
+IF('Test Definitions'!T50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T50, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>IF('Test Definitions'!A51&lt;&gt;"",'Test Definitions'!A51,"")</f>
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <f>IF('Test Definitions'!B51&lt;&gt;"",'Test Definitions'!B51,"")</f>
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <f>IF('Test Definitions'!C51&lt;&gt;"",'Test Definitions'!C51,"")</f>
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <f>IF('Test Definitions'!D51&lt;&gt;"",'Test Definitions'!D51,"")</f>
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <f>IF(B40&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B51, """"),""),
+IF('Test Definitions'!C51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C51, """"), ""),
+IF('Test Definitions'!D51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D51, """"), ""),
+IF('Test Definitions'!E51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E51, """"), ""),
+IF('Test Definitions'!F51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F51, """"), ""),
+IF('Test Definitions'!G51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G51, """"), ""),
+IF('Test Definitions'!H51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H51, """"), ""),
+IF('Test Definitions'!I51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I51, """"), ""),
+IF('Test Definitions'!J51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J51, """"), ""),
+IF('Test Definitions'!K51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K51, """"), ""),
+IF('Test Definitions'!L51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L51, """"), ""),
+IF('Test Definitions'!M51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M51, """"), ""),
+IF('Test Definitions'!N51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N51, """"), ""),
+IF('Test Definitions'!O51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O51, """"), ""),
+IF('Test Definitions'!P51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P51, """"), ""),
+IF('Test Definitions'!Q51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q51, """"), ""),
+IF('Test Definitions'!R51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R51, """"), ""),
+IF('Test Definitions'!S51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S51, """"), ""),
+IF('Test Definitions'!T51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T51, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>IF('Test Definitions'!A52&lt;&gt;"",'Test Definitions'!A52,"")</f>
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <f>IF('Test Definitions'!B52&lt;&gt;"",'Test Definitions'!B52,"")</f>
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <f>IF('Test Definitions'!C52&lt;&gt;"",'Test Definitions'!C52,"")</f>
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <f>IF('Test Definitions'!D52&lt;&gt;"",'Test Definitions'!D52,"")</f>
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <f>IF(B41&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B52, """"),""),
+IF('Test Definitions'!C52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C52, """"), ""),
+IF('Test Definitions'!D52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D52, """"), ""),
+IF('Test Definitions'!E52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E52, """"), ""),
+IF('Test Definitions'!F52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F52, """"), ""),
+IF('Test Definitions'!G52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G52, """"), ""),
+IF('Test Definitions'!H52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H52, """"), ""),
+IF('Test Definitions'!I52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I52, """"), ""),
+IF('Test Definitions'!J52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J52, """"), ""),
+IF('Test Definitions'!K52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K52, """"), ""),
+IF('Test Definitions'!L52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L52, """"), ""),
+IF('Test Definitions'!M52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M52, """"), ""),
+IF('Test Definitions'!N52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N52, """"), ""),
+IF('Test Definitions'!O52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O52, """"), ""),
+IF('Test Definitions'!P52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P52, """"), ""),
+IF('Test Definitions'!Q52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q52, """"), ""),
+IF('Test Definitions'!R52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R52, """"), ""),
+IF('Test Definitions'!S52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S52, """"), ""),
+IF('Test Definitions'!T52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T52, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>IF('Test Definitions'!A53&lt;&gt;"",'Test Definitions'!A53,"")</f>
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <f>IF('Test Definitions'!B53&lt;&gt;"",'Test Definitions'!B53,"")</f>
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <f>IF('Test Definitions'!C53&lt;&gt;"",'Test Definitions'!C53,"")</f>
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <f>IF('Test Definitions'!D53&lt;&gt;"",'Test Definitions'!D53,"")</f>
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <f>IF(B42&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B53, """"),""),
+IF('Test Definitions'!C53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C53, """"), ""),
+IF('Test Definitions'!D53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D53, """"), ""),
+IF('Test Definitions'!E53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E53, """"), ""),
+IF('Test Definitions'!F53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F53, """"), ""),
+IF('Test Definitions'!G53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G53, """"), ""),
+IF('Test Definitions'!H53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H53, """"), ""),
+IF('Test Definitions'!I53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I53, """"), ""),
+IF('Test Definitions'!J53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J53, """"), ""),
+IF('Test Definitions'!K53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K53, """"), ""),
+IF('Test Definitions'!L53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L53, """"), ""),
+IF('Test Definitions'!M53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M53, """"), ""),
+IF('Test Definitions'!N53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N53, """"), ""),
+IF('Test Definitions'!O53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O53, """"), ""),
+IF('Test Definitions'!P53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P53, """"), ""),
+IF('Test Definitions'!Q53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q53, """"), ""),
+IF('Test Definitions'!R53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R53, """"), ""),
+IF('Test Definitions'!S53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S53, """"), ""),
+IF('Test Definitions'!T53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T53, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>IF('Test Definitions'!A54&lt;&gt;"",'Test Definitions'!A54,"")</f>
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <f>IF('Test Definitions'!B54&lt;&gt;"",'Test Definitions'!B54,"")</f>
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <f>IF('Test Definitions'!C54&lt;&gt;"",'Test Definitions'!C54,"")</f>
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <f>IF('Test Definitions'!D54&lt;&gt;"",'Test Definitions'!D54,"")</f>
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <f>IF(B43&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Test Definitions'!B54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$27, "=""", 'Test Definitions'!B54, """"),""),
+IF('Test Definitions'!C54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$27, "=""", 'Test Definitions'!C54, """"), ""),
+IF('Test Definitions'!D54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$27, "=""", 'Test Definitions'!D54, """"), ""),
+IF('Test Definitions'!E54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$27, "=""", 'Test Definitions'!E54, """"), ""),
+IF('Test Definitions'!F54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$27, "=""", 'Test Definitions'!F54, """"), ""),
+IF('Test Definitions'!G54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$27, "=""", 'Test Definitions'!G54, """"), ""),
+IF('Test Definitions'!H54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$27, "=""", 'Test Definitions'!H54, """"), ""),
+IF('Test Definitions'!I54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$27, "=""", 'Test Definitions'!I54, """"), ""),
+IF('Test Definitions'!J54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$27, "=""", 'Test Definitions'!J54, """"), ""),
+IF('Test Definitions'!K54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$27, "=""", 'Test Definitions'!K54, """"), ""),
+IF('Test Definitions'!L54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$27, "=""", 'Test Definitions'!L54, """"), ""),
+IF('Test Definitions'!M54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$27, "=""", 'Test Definitions'!M54, """"), ""),
+IF('Test Definitions'!N54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$27, "=""", 'Test Definitions'!N54, """"), ""),
+IF('Test Definitions'!O54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$27, "=""", 'Test Definitions'!O54, """"), ""),
+IF('Test Definitions'!P54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$27, "=""", 'Test Definitions'!P54, """"), ""),
+IF('Test Definitions'!Q54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$27, "=""", 'Test Definitions'!Q54, """"), ""),
+IF('Test Definitions'!R54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$27, "=""", 'Test Definitions'!R54, """"), ""),
+IF('Test Definitions'!S54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S54, """"), ""),
+IF('Test Definitions'!T54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T54, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SourceVHubDataTests_template.xlsx
+++ b/SourceVHubDataTests_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.hamblin\Documents\Hubby\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin.spottiswoode\Box Sync\Hubby\src\git_src\Hubby\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Test Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Command Line" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -141,9 +141,6 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>YESTERDAY</t>
-  </si>
-  <si>
     <t>server=servername;database=dbname;uid=username;pwd=password</t>
   </si>
   <si>
@@ -304,13 +301,6 @@
        ii.  Empty if the SQL file is named the same as the TestName and located in the default test SQL folder</t>
   </si>
   <si>
-    <t>Specify a comma separated list of values that you want to ignore
-- this will be checked on all rows of the data except the comparison metric (not just a particular field),
-- Special cases: YESTERDAY ignores values of yesterdays date
-         i. You can use YESTERDAY(date format string) to exclude yesterdays date of a particular format
-                a. E.g YESTERDAY(%d%m%Y)  would exclude yesterdays date in the format ddmmyyyy</t>
-  </si>
-  <si>
     <t>YESTERDAY(%d%m%Y)</t>
   </si>
   <si>
@@ -412,11 +402,21 @@
   <si>
     <t>Alter the Values below to change how the command line statements are built up</t>
   </si>
+  <si>
+    <t>YESTERDAY-1</t>
+  </si>
+  <si>
+    <t>Specify a comma separated list of values that you want to ignore
+- this will be checked on all rows of the data except the comparison metric (not just a particular field),
+- Special cases: YESTERDAY ignores values of yesterdays date
+         i. You can use YESTERDAY(date format string) to exclude yesterdays date of a particular format OR YESTERDAY-X to exclude X number of days before yesterday
+                a. E.g YESTERDAY(%d%m%Y)  would exclude yesterdays date in the format ddmmyyyy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,29 +616,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -653,16 +641,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -956,7 +956,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -982,7 +984,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1006,7 +1008,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1053,17 +1055,17 @@
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="A4" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -1102,7 +1104,7 @@
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1125,23 +1127,23 @@
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -1155,17 +1157,17 @@
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="36"/>
+      <c r="A8" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="32"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -1179,23 +1181,23 @@
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -1209,23 +1211,23 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -1239,23 +1241,23 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -1269,23 +1271,23 @@
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -1299,23 +1301,23 @@
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -1329,23 +1331,23 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
+      <c r="E14" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -1359,23 +1361,23 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:20" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="E15" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -1389,17 +1391,17 @@
       <c r="T15" s="10"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="36"/>
+      <c r="A16" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="32"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -1413,23 +1415,23 @@
       <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="28"/>
+      <c r="A17" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="34"/>
       <c r="C17" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
+      <c r="E17" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -1443,23 +1445,23 @@
       <c r="T17" s="10"/>
     </row>
     <row r="18" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="29"/>
+      <c r="A18" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="28"/>
       <c r="C18" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -1473,23 +1475,23 @@
       <c r="T18" s="10"/>
     </row>
     <row r="19" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="29"/>
+      <c r="A19" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="28"/>
       <c r="C19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -1503,23 +1505,23 @@
       <c r="T19" s="10"/>
     </row>
     <row r="20" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="16">
         <v>1</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="E20" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -1533,23 +1535,23 @@
       <c r="T20" s="10"/>
     </row>
     <row r="21" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
+      <c r="E21" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -1563,23 +1565,23 @@
       <c r="T21" s="10"/>
     </row>
     <row r="22" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="E22" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -1594,7 +1596,7 @@
     </row>
     <row r="23" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="14" t="s">
@@ -1603,13 +1605,13 @@
       <c r="D23" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="E23" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="E23" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1648,7 +1650,7 @@
     </row>
     <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1671,17 +1673,17 @@
       <c r="T25" s="10"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="A26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1717,25 +1719,25 @@
         <v>25</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>27</v>
@@ -1753,78 +1755,78 @@
         <v>31</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="K28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="N28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="T28" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>34</v>
@@ -1836,49 +1838,49 @@
         <v>1000</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K29" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="3"/>
       <c r="S29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T29" s="21"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>35</v>
@@ -1890,14 +1892,14 @@
         <v>1203</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="K30" s="2">
         <v>2</v>
@@ -1906,10 +1908,10 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q30" s="2">
         <v>5</v>
@@ -1920,13 +1922,13 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>36</v>
@@ -1938,49 +1940,49 @@
         <v>10000</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2">
         <v>456</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2">
         <v>500</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T31" s="21"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>37</v>
@@ -1992,44 +1994,51 @@
         <v>30000</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="K32" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="E17:I17"/>
@@ -2046,19 +2055,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="E22:I22"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2083,7 +2085,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -2094,7 +2096,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2127,17 +2129,17 @@
       <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="A4" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
@@ -2162,7 +2164,7 @@
     </row>
     <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2178,51 +2180,51 @@
       <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="36"/>
+      <c r="A8" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="32"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="28"/>
+      <c r="A9" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="34"/>
       <c r="C9" s="15"/>
       <c r="D9" s="43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
@@ -2235,13 +2237,13 @@
       <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="28"/>
+      <c r="A10" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="34"/>
       <c r="C10" s="15"/>
       <c r="D10" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
@@ -2254,15 +2256,15 @@
       <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="29"/>
+      <c r="A11" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="28"/>
       <c r="C11" s="16">
         <v>1</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
@@ -2291,7 +2293,7 @@
     </row>
     <row r="13" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
@@ -2323,7 +2325,7 @@
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2343,7 +2345,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -2352,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2457,7 +2459,7 @@
 IF('Test Definitions'!S30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$27, "=""", 'Test Definitions'!S30, """"), ""),
 IF('Test Definitions'!T30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$27, "=""", 'Test Definitions'!T30, """"), ""),
 ),"\","/"),"")</f>
-        <v>Rscript testdatas.r -rv Programme="US" TestName="EXAMPLE - FTP file compared to SQL file" ComparisonMetric="Revenue" Threshold="5" MinimumThreshold="1203" IgnoredValues="YESTERDAY" SourceDataConnectionString="sftp://ftp.filetransfer.com/file/path/,username:userpass" SourceDataFileName="4656_/d{4}.csv" SourceDataHeaderRowIdentifier="2" HubDataConnectionString="server=servername;database=dbname;uid=username;pwd=password" HubDataFileName="C:/SQL/ExampleFTPfilecomparetoSQLfile.sql" HubDataHeaderRowIdentifier="5"</v>
+        <v>Rscript testdatas.r -rv Programme="US" TestName="EXAMPLE - FTP file compared to SQL file" ComparisonMetric="Revenue" Threshold="5" MinimumThreshold="1203" IgnoredValues="YESTERDAY-1" SourceDataConnectionString="sftp://ftp.filetransfer.com/file/path/,username:userpass" SourceDataFileName="4656_/d{4}.csv" SourceDataHeaderRowIdentifier="2" HubDataConnectionString="server=servername;database=dbname;uid=username;pwd=password" HubDataFileName="C:/SQL/ExampleFTPfilecomparetoSQLfile.sql" HubDataHeaderRowIdentifier="5"</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3542,7 +3544,7 @@
     </row>
     <row r="44" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B44" s="42"/>
       <c r="C44" s="42"/>

--- a/SourceVHubDataTests_template.xlsx
+++ b/SourceVHubDataTests_template.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robin.spottiswoode\Box Sync\Hubby\src\git_src\Hubby\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.hamblin\Documents\Hubby\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Definitions" sheetId="1" r:id="rId1"/>
+    <sheet name="Global Arguments" sheetId="2" r:id="rId2"/>
+    <sheet name="Command Line" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="149">
   <si>
     <t>Programme</t>
   </si>
@@ -204,9 +206,6 @@
   </si>
   <si>
     <t>DataConnectionString</t>
-  </si>
-  <si>
-    <t>%d-%m-%Y %H:%M|%Y%m%d</t>
   </si>
   <si>
     <t>SourceDataColumnsToInclude</t>
@@ -375,11 +374,159 @@
   <si>
     <t>The sheet (tab) with the data. This can either be the name of the sheet or a number indicating the position of the sheet, with 1 being the first tab.</t>
   </si>
+  <si>
+    <t>Source Data V Hub Data - Global Arguments</t>
+  </si>
+  <si>
+    <t>This sheet specifies global arguments that can be used to change the output and runtime behaviour of all the tests. Changing any of these will effect how the test script runs</t>
+  </si>
+  <si>
+    <t>Alter the Values belowchange how the command line statements are built up</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Runtime Arguments</t>
+  </si>
+  <si>
+    <t>Verbose</t>
+  </si>
+  <si>
+    <t>1 or 0
+Specifies whther you want the script to output run time information whilst running. If this is set to 1 the script will print out more information whilst it is running. This can be useful when debugging tests that are throwing errors</t>
+  </si>
+  <si>
+    <t>Runtime File Paths</t>
+  </si>
+  <si>
+    <t>DefaultSQLPath</t>
+  </si>
+  <si>
+    <t>File Path
+When Source or Hub data is being pulled from sql and no filepath is specified then the filepath specified here will be checked for the sql definitions.
+A local path such as "sql/file/directory" can be used which will use the current working directory as the base file path (location where the testdatas.r script is run from)</t>
+  </si>
+  <si>
+    <t>DefaultLogFilePath</t>
+  </si>
+  <si>
+    <t>File Path
+A log file is generated with each run of the script, this is the location where the log files will be created.
+A local path such as "log/file/directory" can be used which will use the current working directory as the base file path (location where the testdatas.r script is run from)</t>
+  </si>
+  <si>
+    <t>DefaultTempFilePath</t>
+  </si>
+  <si>
+    <t>File Path
+Files downloaded from FTP's are placed in the temp folder whilst the script is running. after execution all temp files are delted from the folder.
+A local path such as "temp/file/directory" can be used which will use the current working directory as the base file path (location where the testdatas.r script is run from)</t>
+  </si>
+  <si>
+    <t>Runtime Output Parameters</t>
+  </si>
+  <si>
+    <t>OutputType</t>
+  </si>
+  <si>
+    <t>File or SQL
+Allows you to specify whether you want the tests to output to a csv file, or directly to a SQL table
+FILE:   the test data will be output as a csv file to the {Output Destination}/{Output Name}_YYYY-MM-DDTHH-II.csv
+SQL:    the test results will be appended to the table specified in the Output Name, accessed by the connection string in the Output Destination. A temp table is created containing the test data, this is then dropped after the data has been inserted into the output table</t>
+  </si>
+  <si>
+    <t>OutputPath</t>
+  </si>
+  <si>
+    <t>File Name or SQL Connection String
+This needs to be the full destination file path, or the SQL Server connection string
+Example Connection Stirng: 
+server=servername;database=dbname;uid=username;pwd=password
+Example File Paths:
+C://documents/output
+output/to/a/local/fielpath</t>
+  </si>
+  <si>
+    <t>OutputFileName</t>
+  </si>
+  <si>
+    <t>HiltonHubSanityTests</t>
+  </si>
+  <si>
+    <t>Base File Name or SQL Table Name
+Example Table Name:
+[hiltonCheckMon].[dataCheck].[hubDataMonitor]  The table must be defined with particular columns for the test to output correctly
+Example File Name
+HiltonHubSanityTests  this will be output as HiltonHubSanityTests_2017-12-23T18:33.csv</t>
+  </si>
+  <si>
+    <t>C:/HiltonGuestShare/Hubby/sql</t>
+  </si>
+  <si>
+    <t>C:/HiltonGuestShare/Hubby/log</t>
+  </si>
+  <si>
+    <t>C:/HiltonGuestShare/Hubby/tmp</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>//hiltonagg01/hiltonagg01data/PowerBIOneDrive/OneDrive - Rakuten Attribution/Developers/HiltonHubSanityTests/</t>
+  </si>
+  <si>
+    <t>Source Data V Hub Data - Command Line Tests</t>
+  </si>
+  <si>
+    <t>This sheet builds out the command line arguments required to run each of the Test Definitions individually without needing to access this excel sheet.</t>
+  </si>
+  <si>
+    <t>Alter the Values in the Parameter Definitions change how the Command Line Calls are built up</t>
+  </si>
+  <si>
+    <t>CMD specifics</t>
+  </si>
+  <si>
+    <t>Rscript Destination</t>
+  </si>
+  <si>
+    <t>Filepath
+If the Rscript Path is not a mapped enviroment variable change this to the file path for the Rscript file
+Leave Blank if environment variable is mapped</t>
+  </si>
+  <si>
+    <t>Testdatas.R Destintation</t>
+  </si>
+  <si>
+    <t>Filepath
+Destination to the testdatas.r R file. 
+If you are CD'd to the location of the R file then this can be left blank</t>
+  </si>
+  <si>
+    <t>Either 1 or 0, whether you want extra information to be printed to the console with each test run, this will override the Global Argument "Verbose" setting if you run the test file.</t>
+  </si>
+  <si>
+    <t>Command line is built up as follows:
+{Rscript Destination}Rscript         {Testdatas.r Destination}testdatas.r         -r{v: sets verbose output to 1}        {args from Test Definition sheet e.g TestName="12345566"...}</t>
+  </si>
+  <si>
+    <t>Command Line Calls</t>
+  </si>
+  <si>
+    <t>Programe</t>
+  </si>
+  <si>
+    <t>Command Line</t>
+  </si>
+  <si>
+    <t>%d-%m-%Y %H:%M,%Y%m%d</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -576,16 +723,46 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -600,29 +777,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,9 +1070,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -937,7 +1098,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -963,7 +1124,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1014,17 +1175,17 @@
       <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="A4" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -1067,7 +1228,7 @@
     </row>
     <row r="6" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1092,23 +1253,23 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -1124,17 +1285,17 @@
       <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="35"/>
+      <c r="A8" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="33"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -1150,23 +1311,23 @@
       <c r="V8" s="10"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -1182,23 +1343,23 @@
       <c r="V9" s="10"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -1214,23 +1375,23 @@
       <c r="V10" s="10"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -1246,23 +1407,23 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -1278,23 +1439,23 @@
       <c r="V12" s="10"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -1310,23 +1471,23 @@
       <c r="V13" s="10"/>
     </row>
     <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="E14" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -1342,23 +1503,23 @@
       <c r="V14" s="10"/>
     </row>
     <row r="15" spans="1:22" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="26"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="E15" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -1374,17 +1535,17 @@
       <c r="V15" s="10"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="35"/>
+      <c r="A16" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="33"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -1400,23 +1561,23 @@
       <c r="V16" s="10"/>
     </row>
     <row r="17" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="E17" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -1432,23 +1593,23 @@
       <c r="V17" s="10"/>
     </row>
     <row r="18" spans="1:22" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
+      <c r="E18" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -1464,23 +1625,23 @@
       <c r="V18" s="10"/>
     </row>
     <row r="19" spans="1:22" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="E19" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -1497,7 +1658,7 @@
     </row>
     <row r="20" spans="1:22" s="23" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="16" t="s">
@@ -1506,13 +1667,13 @@
       <c r="D20" s="16">
         <v>1</v>
       </c>
-      <c r="E20" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
+      <c r="E20" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -1528,23 +1689,23 @@
       <c r="V20" s="10"/>
     </row>
     <row r="21" spans="1:22" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="16">
         <v>1</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="E21" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -1560,23 +1721,23 @@
       <c r="V21" s="10"/>
     </row>
     <row r="22" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
+      <c r="E22" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -1592,23 +1753,23 @@
       <c r="V22" s="10"/>
     </row>
     <row r="23" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
+      <c r="E23" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1625,7 +1786,7 @@
     </row>
     <row r="24" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="14" t="s">
@@ -1634,13 +1795,13 @@
       <c r="D24" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="E24" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
+      <c r="E24" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1683,7 +1844,7 @@
     </row>
     <row r="26" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1708,17 +1869,17 @@
       <c r="V26" s="10"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="A27" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1759,25 +1920,25 @@
         <v>58</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>27</v>
@@ -1786,7 +1947,7 @@
         <v>28</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>29</v>
@@ -1798,78 +1959,78 @@
         <v>31</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="K29" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="O29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="V29" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>33</v>
@@ -1887,10 +2048,10 @@
         <v>1000</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>39</v>
@@ -1900,7 +2061,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>42</v>
@@ -1925,7 +2086,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>32</v>
@@ -1963,7 +2124,7 @@
         <v>39</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2">
@@ -1975,7 +2136,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>33</v>
@@ -1993,7 +2154,7 @@
         <v>10000</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>45</v>
@@ -2017,7 +2178,7 @@
         <v>39</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -2031,7 +2192,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -2049,7 +2210,7 @@
         <v>30000</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
@@ -2060,7 +2221,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>41</v>
@@ -2083,12 +2244,20 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E20:I20"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="E17:I17"/>
@@ -2105,20 +2274,5054 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:XFD30"/>
+  <sheetViews>
+    <sheetView showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="103.5703125" style="23" customWidth="1"/>
+    <col min="4" max="9" width="24.5703125" style="23" customWidth="1"/>
+    <col min="10" max="16383" width="9.140625" style="23" hidden="1"/>
+    <col min="16384" max="16384" width="5.140625" style="23" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+    </row>
+    <row r="12" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:9" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:I12"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:I8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="D9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M100"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="22" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="18.5703125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="23" customWidth="1"/>
+    <col min="10" max="13" width="0" style="23" hidden="1"/>
+    <col min="14" max="16384" width="9.140625" style="23" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+    </row>
+    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+    </row>
+    <row r="9" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+    </row>
+    <row r="11" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+    </row>
+    <row r="13" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="str">
+        <f>IF('Test Definitions'!A30&lt;&gt;"",'Test Definitions'!A30,"")</f>
+        <v>Example</v>
+      </c>
+      <c r="B18" s="23" t="str">
+        <f>IF('Test Definitions'!B30&lt;&gt;"",'Test Definitions'!B30,"")</f>
+        <v>INTL</v>
+      </c>
+      <c r="C18" s="23" t="str">
+        <f>IF('Test Definitions'!C30&lt;&gt;"",'Test Definitions'!C30,"")</f>
+        <v>EXAMPLE - SQL file to Local file</v>
+      </c>
+      <c r="D18" s="23" t="str">
+        <f>IF('Test Definitions'!D30&lt;&gt;"",'Test Definitions'!D30,"")</f>
+        <v>Paid Search Cost</v>
+      </c>
+      <c r="E18" s="23" t="str">
+        <f>IF($B18&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B30, """"),""),
+IF('Test Definitions'!$C30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C30, """"), ""),
+IF('Test Definitions'!$D30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D30, """"), ""),
+IF('Test Definitions'!$E30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E30, """"), ""),
+IF('Test Definitions'!$F30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F30, """"), ""),
+IF('Test Definitions'!$G30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G30, """"), ""),
+IF('Test Definitions'!$H30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H30, """"), ""),
+IF('Test Definitions'!$I30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I30, """"), ""),
+IF('Test Definitions'!$J30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J30, """"), ""),
+IF('Test Definitions'!$K30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K30, """"), ""),
+IF('Test Definitions'!$L30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L30, """"), ""),
+IF('Test Definitions'!$M30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M30, """"), ""),
+IF('Test Definitions'!$N30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N30, """"), ""),
+IF('Test Definitions'!$O30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O30, """"), ""),
+IF('Test Definitions'!$P30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P30, """"), ""),
+IF('Test Definitions'!$Q30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q30, """"), ""),
+IF('Test Definitions'!$R30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R30, """"), ""),
+IF('Test Definitions'!$S30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S30, """"), ""),
+IF('Test Definitions'!$T30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T30, """"), ""),
+IF('Test Definitions'!$U30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U30, """"), ""),
+IF('Test Definitions'!$V30&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V30, """"), ""),
+),"\","/"),"")</f>
+        <v>Rscript testdatas.r -rv DefaultSQLPath="C:/HiltonGuestShare/Hubby/sql" DefaultLogFilePath="C:/HiltonGuestShare/Hubby/log" DefaultTempFilePath="C:/HiltonGuestShare/Hubby/tmp" OutputType="File" OutputPath="//hiltonagg01/hiltonagg01data/PowerBIOneDrive/OneDrive - Rakuten Attribution/Developers/HiltonHubSanityTests/" OutputFileName="HiltonHubSanityTests" Programme="INTL" TestName="EXAMPLE - SQL file to Local file" ComparisonMetric="Paid Search Cost" Threshold="10" MinimumThreshold="1000" IgnoredValues="YESTERDAY(%d%m%Y)" ExepectedDateFormats="%d-%m-%Y %H:%M,%Y%m%d" SourceDataConnectionString="server=servername;database=dbname;uid=username;pwd=password" SourceDataFileName="SQLfiletolocalfile.sql" SourceDataHeaderRowIdentifier="Date" SourceDataEndRowIdentifier="Totals:" SourceDataColumnsToInclude="1,2,3" HubDataConnectionString="C:/data/imports/" HubDataFileName="HubDatas.csv" HubDataColumnsToInclude="2,7"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="str">
+        <f>IF('Test Definitions'!A31&lt;&gt;"",'Test Definitions'!A31,"")</f>
+        <v>Example</v>
+      </c>
+      <c r="B19" s="23" t="str">
+        <f>IF('Test Definitions'!B31&lt;&gt;"",'Test Definitions'!B31,"")</f>
+        <v>US</v>
+      </c>
+      <c r="C19" s="23" t="str">
+        <f>IF('Test Definitions'!C31&lt;&gt;"",'Test Definitions'!C31,"")</f>
+        <v>EXAMPLE - FTP file compared to SQL file</v>
+      </c>
+      <c r="D19" s="23" t="str">
+        <f>IF('Test Definitions'!D31&lt;&gt;"",'Test Definitions'!D31,"")</f>
+        <v>Revenue</v>
+      </c>
+      <c r="E19" s="23" t="str">
+        <f>IF($B19&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B31, """"),""),
+IF('Test Definitions'!$C31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C31, """"), ""),
+IF('Test Definitions'!$D31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D31, """"), ""),
+IF('Test Definitions'!$E31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E31, """"), ""),
+IF('Test Definitions'!$F31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F31, """"), ""),
+IF('Test Definitions'!$G31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G31, """"), ""),
+IF('Test Definitions'!$H31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H31, """"), ""),
+IF('Test Definitions'!$I31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I31, """"), ""),
+IF('Test Definitions'!$J31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J31, """"), ""),
+IF('Test Definitions'!$K31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K31, """"), ""),
+IF('Test Definitions'!$L31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L31, """"), ""),
+IF('Test Definitions'!$M31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M31, """"), ""),
+IF('Test Definitions'!$N31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N31, """"), ""),
+IF('Test Definitions'!$O31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O31, """"), ""),
+IF('Test Definitions'!$P31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P31, """"), ""),
+IF('Test Definitions'!$Q31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q31, """"), ""),
+IF('Test Definitions'!$R31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R31, """"), ""),
+IF('Test Definitions'!$S31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S31, """"), ""),
+IF('Test Definitions'!$T31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T31, """"), ""),
+IF('Test Definitions'!$U31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U31, """"), ""),
+IF('Test Definitions'!$V31&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V31, """"), ""),
+),"\","/"),"")</f>
+        <v>Rscript testdatas.r -rv DefaultSQLPath="C:/HiltonGuestShare/Hubby/sql" DefaultLogFilePath="C:/HiltonGuestShare/Hubby/log" DefaultTempFilePath="C:/HiltonGuestShare/Hubby/tmp" OutputType="File" OutputPath="//hiltonagg01/hiltonagg01data/PowerBIOneDrive/OneDrive - Rakuten Attribution/Developers/HiltonHubSanityTests/" OutputFileName="HiltonHubSanityTests" Programme="US" TestName="EXAMPLE - FTP file compared to SQL file" ComparisonMetric="Revenue" Threshold="5" MinimumThreshold="1203" IgnoredValues="YESTERDAY" SourceDataConnectionString="sftp://ftp.filetransfer.com/file/path/,username:userpass" SourceDataFileName="4656_/d{4}.csv" SourceDataHeaderRowIdentifier="2" HubDataConnectionString="server=servername;database=dbname;uid=username;pwd=password" HubDataFileName="C:/SQL/ExampleFTPfilecomparetoSQLfile.sql" HubDataHeaderRowIdentifier="5"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="str">
+        <f>IF('Test Definitions'!A32&lt;&gt;"",'Test Definitions'!A32,"")</f>
+        <v>Example</v>
+      </c>
+      <c r="B20" s="23" t="str">
+        <f>IF('Test Definitions'!B32&lt;&gt;"",'Test Definitions'!B32,"")</f>
+        <v>INTL</v>
+      </c>
+      <c r="C20" s="23" t="str">
+        <f>IF('Test Definitions'!C32&lt;&gt;"",'Test Definitions'!C32,"")</f>
+        <v>EXAMPLE - Local File compared to SQL file</v>
+      </c>
+      <c r="D20" s="23" t="str">
+        <f>IF('Test Definitions'!D32&lt;&gt;"",'Test Definitions'!D32,"")</f>
+        <v>Landings</v>
+      </c>
+      <c r="E20" s="23" t="str">
+        <f>IF($B20&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B32, """"),""),
+IF('Test Definitions'!$C32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C32, """"), ""),
+IF('Test Definitions'!$D32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D32, """"), ""),
+IF('Test Definitions'!$E32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E32, """"), ""),
+IF('Test Definitions'!$F32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F32, """"), ""),
+IF('Test Definitions'!$G32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G32, """"), ""),
+IF('Test Definitions'!$H32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H32, """"), ""),
+IF('Test Definitions'!$I32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I32, """"), ""),
+IF('Test Definitions'!$J32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J32, """"), ""),
+IF('Test Definitions'!$K32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K32, """"), ""),
+IF('Test Definitions'!$L32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L32, """"), ""),
+IF('Test Definitions'!$M32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M32, """"), ""),
+IF('Test Definitions'!$N32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N32, """"), ""),
+IF('Test Definitions'!$O32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O32, """"), ""),
+IF('Test Definitions'!$P32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P32, """"), ""),
+IF('Test Definitions'!$Q32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q32, """"), ""),
+IF('Test Definitions'!$R32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R32, """"), ""),
+IF('Test Definitions'!$S32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S32, """"), ""),
+IF('Test Definitions'!$T32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T32, """"), ""),
+IF('Test Definitions'!$U32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U32, """"), ""),
+IF('Test Definitions'!$V32&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V32, """"), ""),
+),"\","/"),"")</f>
+        <v>Rscript testdatas.r -rv DefaultSQLPath="C:/HiltonGuestShare/Hubby/sql" DefaultLogFilePath="C:/HiltonGuestShare/Hubby/log" DefaultTempFilePath="C:/HiltonGuestShare/Hubby/tmp" OutputType="File" OutputPath="//hiltonagg01/hiltonagg01data/PowerBIOneDrive/OneDrive - Rakuten Attribution/Developers/HiltonHubSanityTests/" OutputFileName="HiltonHubSanityTests" Programme="INTL" TestName="EXAMPLE - Local File compared to SQL file" ComparisonMetric="Landings" Threshold="10" MinimumThreshold="10000" IgnoredValues="Baidu - APAC,YESTERDAY" ExepectedDateFormats="%Y-%m-%d" SourceDataConnectionString="C:/data/imports/" SourceDataFileName="CadenceOutputDatas_/d{12}.csv" SourceDataEndRowIdentifier="456" SourceDataColumnsToInclude="2,4" HubDataConnectionString="server=servername;database=dbname;uid=username;pwd=password" HubDataFileName="C:/SQL/ExampleSQLFile.sql" HubDataEndRowIdentifier="500" HubDataColumnsToInclude="3,4"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="str">
+        <f>IF('Test Definitions'!A33&lt;&gt;"",'Test Definitions'!A33,"")</f>
+        <v>Example</v>
+      </c>
+      <c r="B21" s="23" t="str">
+        <f>IF('Test Definitions'!B33&lt;&gt;"",'Test Definitions'!B33,"")</f>
+        <v>US</v>
+      </c>
+      <c r="C21" s="23" t="str">
+        <f>IF('Test Definitions'!C33&lt;&gt;"",'Test Definitions'!C33,"")</f>
+        <v>EXAMPLE - Local File compared to FTP</v>
+      </c>
+      <c r="D21" s="23" t="str">
+        <f>IF('Test Definitions'!D33&lt;&gt;"",'Test Definitions'!D33,"")</f>
+        <v>Impressions</v>
+      </c>
+      <c r="E21" s="23" t="str">
+        <f>IF($B21&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B33, """"),""),
+IF('Test Definitions'!$C33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C33, """"), ""),
+IF('Test Definitions'!$D33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D33, """"), ""),
+IF('Test Definitions'!$E33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E33, """"), ""),
+IF('Test Definitions'!$F33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F33, """"), ""),
+IF('Test Definitions'!$G33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G33, """"), ""),
+IF('Test Definitions'!$H33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H33, """"), ""),
+IF('Test Definitions'!$I33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I33, """"), ""),
+IF('Test Definitions'!$J33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J33, """"), ""),
+IF('Test Definitions'!$K33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K33, """"), ""),
+IF('Test Definitions'!$L33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L33, """"), ""),
+IF('Test Definitions'!$M33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M33, """"), ""),
+IF('Test Definitions'!$N33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N33, """"), ""),
+IF('Test Definitions'!$O33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O33, """"), ""),
+IF('Test Definitions'!$P33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P33, """"), ""),
+IF('Test Definitions'!$Q33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q33, """"), ""),
+IF('Test Definitions'!$R33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R33, """"), ""),
+IF('Test Definitions'!$S33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S33, """"), ""),
+IF('Test Definitions'!$T33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T33, """"), ""),
+IF('Test Definitions'!$U33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U33, """"), ""),
+IF('Test Definitions'!$V33&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V33, """"), ""),
+),"\","/"),"")</f>
+        <v>Rscript testdatas.r -rv DefaultSQLPath="C:/HiltonGuestShare/Hubby/sql" DefaultLogFilePath="C:/HiltonGuestShare/Hubby/log" DefaultTempFilePath="C:/HiltonGuestShare/Hubby/tmp" OutputType="File" OutputPath="//hiltonagg01/hiltonagg01data/PowerBIOneDrive/OneDrive - Rakuten Attribution/Developers/HiltonHubSanityTests/" OutputFileName="HiltonHubSanityTests" Programme="US" TestName="EXAMPLE - Local File compared to FTP" ComparisonMetric="Impressions" Threshold="30" MinimumThreshold="30000" IgnoredValues="Baidu - APAC,Bing - US" SourceDataConnectionString="C:/data/imports/" SourceDataFileName="CadenceOutputDatas_/d{12}.csv" SourceDataHeaderRowIdentifier="Date" SourceDataEndRowIdentifier="Grand Total:" HubDataConnectionString="sftp://ftp.filetransfer.com/file/path/,username:userpass" HubDataFileName="4656_/d{4}.csv" HubDataEndRowIdentifier="Grand Total:"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="str">
+        <f>IF('Test Definitions'!A34&lt;&gt;"",'Test Definitions'!A34,"")</f>
+        <v/>
+      </c>
+      <c r="B22" s="23" t="str">
+        <f>IF('Test Definitions'!B34&lt;&gt;"",'Test Definitions'!B34,"")</f>
+        <v/>
+      </c>
+      <c r="C22" s="23" t="str">
+        <f>IF('Test Definitions'!C34&lt;&gt;"",'Test Definitions'!C34,"")</f>
+        <v/>
+      </c>
+      <c r="D22" s="23" t="str">
+        <f>IF('Test Definitions'!D34&lt;&gt;"",'Test Definitions'!D34,"")</f>
+        <v/>
+      </c>
+      <c r="E22" s="23" t="str">
+        <f>IF($B22&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B34, """"),""),
+IF('Test Definitions'!$C34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C34, """"), ""),
+IF('Test Definitions'!$D34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D34, """"), ""),
+IF('Test Definitions'!$E34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E34, """"), ""),
+IF('Test Definitions'!$F34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F34, """"), ""),
+IF('Test Definitions'!$G34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G34, """"), ""),
+IF('Test Definitions'!$H34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H34, """"), ""),
+IF('Test Definitions'!$I34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I34, """"), ""),
+IF('Test Definitions'!$J34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J34, """"), ""),
+IF('Test Definitions'!$K34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K34, """"), ""),
+IF('Test Definitions'!$L34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L34, """"), ""),
+IF('Test Definitions'!$M34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M34, """"), ""),
+IF('Test Definitions'!$N34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N34, """"), ""),
+IF('Test Definitions'!$O34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O34, """"), ""),
+IF('Test Definitions'!$P34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P34, """"), ""),
+IF('Test Definitions'!$Q34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q34, """"), ""),
+IF('Test Definitions'!$R34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R34, """"), ""),
+IF('Test Definitions'!$S34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S34, """"), ""),
+IF('Test Definitions'!$T34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T34, """"), ""),
+IF('Test Definitions'!$U34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U34, """"), ""),
+IF('Test Definitions'!$V34&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V34, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="str">
+        <f>IF('Test Definitions'!A35&lt;&gt;"",'Test Definitions'!A35,"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="23" t="str">
+        <f>IF('Test Definitions'!B35&lt;&gt;"",'Test Definitions'!B35,"")</f>
+        <v/>
+      </c>
+      <c r="C23" s="23" t="str">
+        <f>IF('Test Definitions'!C35&lt;&gt;"",'Test Definitions'!C35,"")</f>
+        <v/>
+      </c>
+      <c r="D23" s="23" t="str">
+        <f>IF('Test Definitions'!D35&lt;&gt;"",'Test Definitions'!D35,"")</f>
+        <v/>
+      </c>
+      <c r="E23" s="23" t="str">
+        <f>IF($B23&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B35, """"),""),
+IF('Test Definitions'!$C35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C35, """"), ""),
+IF('Test Definitions'!$D35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D35, """"), ""),
+IF('Test Definitions'!$E35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E35, """"), ""),
+IF('Test Definitions'!$F35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F35, """"), ""),
+IF('Test Definitions'!$G35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G35, """"), ""),
+IF('Test Definitions'!$H35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H35, """"), ""),
+IF('Test Definitions'!$I35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I35, """"), ""),
+IF('Test Definitions'!$J35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J35, """"), ""),
+IF('Test Definitions'!$K35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K35, """"), ""),
+IF('Test Definitions'!$L35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L35, """"), ""),
+IF('Test Definitions'!$M35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M35, """"), ""),
+IF('Test Definitions'!$N35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N35, """"), ""),
+IF('Test Definitions'!$O35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O35, """"), ""),
+IF('Test Definitions'!$P35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P35, """"), ""),
+IF('Test Definitions'!$Q35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q35, """"), ""),
+IF('Test Definitions'!$R35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R35, """"), ""),
+IF('Test Definitions'!$S35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S35, """"), ""),
+IF('Test Definitions'!$T35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T35, """"), ""),
+IF('Test Definitions'!$U35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U35, """"), ""),
+IF('Test Definitions'!$V35&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V35, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="str">
+        <f>IF('Test Definitions'!A36&lt;&gt;"",'Test Definitions'!A36,"")</f>
+        <v/>
+      </c>
+      <c r="B24" s="23" t="str">
+        <f>IF('Test Definitions'!B36&lt;&gt;"",'Test Definitions'!B36,"")</f>
+        <v/>
+      </c>
+      <c r="C24" s="23" t="str">
+        <f>IF('Test Definitions'!C36&lt;&gt;"",'Test Definitions'!C36,"")</f>
+        <v/>
+      </c>
+      <c r="D24" s="23" t="str">
+        <f>IF('Test Definitions'!D36&lt;&gt;"",'Test Definitions'!D36,"")</f>
+        <v/>
+      </c>
+      <c r="E24" s="23" t="str">
+        <f>IF($B24&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B36, """"),""),
+IF('Test Definitions'!$C36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C36, """"), ""),
+IF('Test Definitions'!$D36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D36, """"), ""),
+IF('Test Definitions'!$E36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E36, """"), ""),
+IF('Test Definitions'!$F36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F36, """"), ""),
+IF('Test Definitions'!$G36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G36, """"), ""),
+IF('Test Definitions'!$H36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H36, """"), ""),
+IF('Test Definitions'!$I36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I36, """"), ""),
+IF('Test Definitions'!$J36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J36, """"), ""),
+IF('Test Definitions'!$K36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K36, """"), ""),
+IF('Test Definitions'!$L36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L36, """"), ""),
+IF('Test Definitions'!$M36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M36, """"), ""),
+IF('Test Definitions'!$N36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N36, """"), ""),
+IF('Test Definitions'!$O36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O36, """"), ""),
+IF('Test Definitions'!$P36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P36, """"), ""),
+IF('Test Definitions'!$Q36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q36, """"), ""),
+IF('Test Definitions'!$R36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R36, """"), ""),
+IF('Test Definitions'!$S36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S36, """"), ""),
+IF('Test Definitions'!$T36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T36, """"), ""),
+IF('Test Definitions'!$U36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U36, """"), ""),
+IF('Test Definitions'!$V36&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V36, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="str">
+        <f>IF('Test Definitions'!A37&lt;&gt;"",'Test Definitions'!A37,"")</f>
+        <v/>
+      </c>
+      <c r="B25" s="23" t="str">
+        <f>IF('Test Definitions'!B37&lt;&gt;"",'Test Definitions'!B37,"")</f>
+        <v/>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f>IF('Test Definitions'!C37&lt;&gt;"",'Test Definitions'!C37,"")</f>
+        <v/>
+      </c>
+      <c r="D25" s="23" t="str">
+        <f>IF('Test Definitions'!D37&lt;&gt;"",'Test Definitions'!D37,"")</f>
+        <v/>
+      </c>
+      <c r="E25" s="23" t="str">
+        <f>IF($B25&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B37, """"),""),
+IF('Test Definitions'!$C37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C37, """"), ""),
+IF('Test Definitions'!$D37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D37, """"), ""),
+IF('Test Definitions'!$E37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E37, """"), ""),
+IF('Test Definitions'!$F37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F37, """"), ""),
+IF('Test Definitions'!$G37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G37, """"), ""),
+IF('Test Definitions'!$H37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H37, """"), ""),
+IF('Test Definitions'!$I37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I37, """"), ""),
+IF('Test Definitions'!$J37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J37, """"), ""),
+IF('Test Definitions'!$K37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K37, """"), ""),
+IF('Test Definitions'!$L37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L37, """"), ""),
+IF('Test Definitions'!$M37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M37, """"), ""),
+IF('Test Definitions'!$N37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N37, """"), ""),
+IF('Test Definitions'!$O37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O37, """"), ""),
+IF('Test Definitions'!$P37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P37, """"), ""),
+IF('Test Definitions'!$Q37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q37, """"), ""),
+IF('Test Definitions'!$R37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R37, """"), ""),
+IF('Test Definitions'!$S37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S37, """"), ""),
+IF('Test Definitions'!$T37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T37, """"), ""),
+IF('Test Definitions'!$U37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U37, """"), ""),
+IF('Test Definitions'!$V37&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V37, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="str">
+        <f>IF('Test Definitions'!A38&lt;&gt;"",'Test Definitions'!A38,"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="23" t="str">
+        <f>IF('Test Definitions'!B38&lt;&gt;"",'Test Definitions'!B38,"")</f>
+        <v/>
+      </c>
+      <c r="C26" s="23" t="str">
+        <f>IF('Test Definitions'!C38&lt;&gt;"",'Test Definitions'!C38,"")</f>
+        <v/>
+      </c>
+      <c r="D26" s="23" t="str">
+        <f>IF('Test Definitions'!D38&lt;&gt;"",'Test Definitions'!D38,"")</f>
+        <v/>
+      </c>
+      <c r="E26" s="23" t="str">
+        <f>IF($B26&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B38, """"),""),
+IF('Test Definitions'!$C38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C38, """"), ""),
+IF('Test Definitions'!$D38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D38, """"), ""),
+IF('Test Definitions'!$E38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E38, """"), ""),
+IF('Test Definitions'!$F38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F38, """"), ""),
+IF('Test Definitions'!$G38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G38, """"), ""),
+IF('Test Definitions'!$H38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H38, """"), ""),
+IF('Test Definitions'!$I38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I38, """"), ""),
+IF('Test Definitions'!$J38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J38, """"), ""),
+IF('Test Definitions'!$K38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K38, """"), ""),
+IF('Test Definitions'!$L38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L38, """"), ""),
+IF('Test Definitions'!$M38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M38, """"), ""),
+IF('Test Definitions'!$N38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N38, """"), ""),
+IF('Test Definitions'!$O38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O38, """"), ""),
+IF('Test Definitions'!$P38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P38, """"), ""),
+IF('Test Definitions'!$Q38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q38, """"), ""),
+IF('Test Definitions'!$R38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R38, """"), ""),
+IF('Test Definitions'!$S38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S38, """"), ""),
+IF('Test Definitions'!$T38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T38, """"), ""),
+IF('Test Definitions'!$U38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U38, """"), ""),
+IF('Test Definitions'!$V38&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V38, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="str">
+        <f>IF('Test Definitions'!A39&lt;&gt;"",'Test Definitions'!A39,"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="23" t="str">
+        <f>IF('Test Definitions'!B39&lt;&gt;"",'Test Definitions'!B39,"")</f>
+        <v/>
+      </c>
+      <c r="C27" s="23" t="str">
+        <f>IF('Test Definitions'!C39&lt;&gt;"",'Test Definitions'!C39,"")</f>
+        <v/>
+      </c>
+      <c r="D27" s="23" t="str">
+        <f>IF('Test Definitions'!D39&lt;&gt;"",'Test Definitions'!D39,"")</f>
+        <v/>
+      </c>
+      <c r="E27" s="23" t="str">
+        <f>IF($B27&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B39, """"),""),
+IF('Test Definitions'!$C39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C39, """"), ""),
+IF('Test Definitions'!$D39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D39, """"), ""),
+IF('Test Definitions'!$E39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E39, """"), ""),
+IF('Test Definitions'!$F39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F39, """"), ""),
+IF('Test Definitions'!$G39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G39, """"), ""),
+IF('Test Definitions'!$H39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H39, """"), ""),
+IF('Test Definitions'!$I39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I39, """"), ""),
+IF('Test Definitions'!$J39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J39, """"), ""),
+IF('Test Definitions'!$K39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K39, """"), ""),
+IF('Test Definitions'!$L39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L39, """"), ""),
+IF('Test Definitions'!$M39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M39, """"), ""),
+IF('Test Definitions'!$N39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N39, """"), ""),
+IF('Test Definitions'!$O39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O39, """"), ""),
+IF('Test Definitions'!$P39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P39, """"), ""),
+IF('Test Definitions'!$Q39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q39, """"), ""),
+IF('Test Definitions'!$R39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R39, """"), ""),
+IF('Test Definitions'!$S39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S39, """"), ""),
+IF('Test Definitions'!$T39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T39, """"), ""),
+IF('Test Definitions'!$U39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U39, """"), ""),
+IF('Test Definitions'!$V39&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V39, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="str">
+        <f>IF('Test Definitions'!A40&lt;&gt;"",'Test Definitions'!A40,"")</f>
+        <v/>
+      </c>
+      <c r="B28" s="23" t="str">
+        <f>IF('Test Definitions'!B40&lt;&gt;"",'Test Definitions'!B40,"")</f>
+        <v/>
+      </c>
+      <c r="C28" s="23" t="str">
+        <f>IF('Test Definitions'!C40&lt;&gt;"",'Test Definitions'!C40,"")</f>
+        <v/>
+      </c>
+      <c r="D28" s="23" t="str">
+        <f>IF('Test Definitions'!D40&lt;&gt;"",'Test Definitions'!D40,"")</f>
+        <v/>
+      </c>
+      <c r="E28" s="23" t="str">
+        <f>IF($B28&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B40, """"),""),
+IF('Test Definitions'!$C40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C40, """"), ""),
+IF('Test Definitions'!$D40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D40, """"), ""),
+IF('Test Definitions'!$E40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E40, """"), ""),
+IF('Test Definitions'!$F40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F40, """"), ""),
+IF('Test Definitions'!$G40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G40, """"), ""),
+IF('Test Definitions'!$H40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H40, """"), ""),
+IF('Test Definitions'!$I40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I40, """"), ""),
+IF('Test Definitions'!$J40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J40, """"), ""),
+IF('Test Definitions'!$K40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K40, """"), ""),
+IF('Test Definitions'!$L40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L40, """"), ""),
+IF('Test Definitions'!$M40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M40, """"), ""),
+IF('Test Definitions'!$N40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N40, """"), ""),
+IF('Test Definitions'!$O40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O40, """"), ""),
+IF('Test Definitions'!$P40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P40, """"), ""),
+IF('Test Definitions'!$Q40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q40, """"), ""),
+IF('Test Definitions'!$R40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R40, """"), ""),
+IF('Test Definitions'!$S40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S40, """"), ""),
+IF('Test Definitions'!$T40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T40, """"), ""),
+IF('Test Definitions'!$U40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U40, """"), ""),
+IF('Test Definitions'!$V40&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V40, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="str">
+        <f>IF('Test Definitions'!A41&lt;&gt;"",'Test Definitions'!A41,"")</f>
+        <v/>
+      </c>
+      <c r="B29" s="23" t="str">
+        <f>IF('Test Definitions'!B41&lt;&gt;"",'Test Definitions'!B41,"")</f>
+        <v/>
+      </c>
+      <c r="C29" s="23" t="str">
+        <f>IF('Test Definitions'!C41&lt;&gt;"",'Test Definitions'!C41,"")</f>
+        <v/>
+      </c>
+      <c r="D29" s="23" t="str">
+        <f>IF('Test Definitions'!D41&lt;&gt;"",'Test Definitions'!D41,"")</f>
+        <v/>
+      </c>
+      <c r="E29" s="23" t="str">
+        <f>IF($B29&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B41, """"),""),
+IF('Test Definitions'!$C41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C41, """"), ""),
+IF('Test Definitions'!$D41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D41, """"), ""),
+IF('Test Definitions'!$E41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E41, """"), ""),
+IF('Test Definitions'!$F41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F41, """"), ""),
+IF('Test Definitions'!$G41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G41, """"), ""),
+IF('Test Definitions'!$H41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H41, """"), ""),
+IF('Test Definitions'!$I41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I41, """"), ""),
+IF('Test Definitions'!$J41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J41, """"), ""),
+IF('Test Definitions'!$K41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K41, """"), ""),
+IF('Test Definitions'!$L41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L41, """"), ""),
+IF('Test Definitions'!$M41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M41, """"), ""),
+IF('Test Definitions'!$N41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N41, """"), ""),
+IF('Test Definitions'!$O41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O41, """"), ""),
+IF('Test Definitions'!$P41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P41, """"), ""),
+IF('Test Definitions'!$Q41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q41, """"), ""),
+IF('Test Definitions'!$R41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R41, """"), ""),
+IF('Test Definitions'!$S41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S41, """"), ""),
+IF('Test Definitions'!$T41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T41, """"), ""),
+IF('Test Definitions'!$U41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U41, """"), ""),
+IF('Test Definitions'!$V41&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V41, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="str">
+        <f>IF('Test Definitions'!A42&lt;&gt;"",'Test Definitions'!A42,"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="23" t="str">
+        <f>IF('Test Definitions'!B42&lt;&gt;"",'Test Definitions'!B42,"")</f>
+        <v/>
+      </c>
+      <c r="C30" s="23" t="str">
+        <f>IF('Test Definitions'!C42&lt;&gt;"",'Test Definitions'!C42,"")</f>
+        <v/>
+      </c>
+      <c r="D30" s="23" t="str">
+        <f>IF('Test Definitions'!D42&lt;&gt;"",'Test Definitions'!D42,"")</f>
+        <v/>
+      </c>
+      <c r="E30" s="23" t="str">
+        <f>IF($B30&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B42, """"),""),
+IF('Test Definitions'!$C42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C42, """"), ""),
+IF('Test Definitions'!$D42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D42, """"), ""),
+IF('Test Definitions'!$E42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E42, """"), ""),
+IF('Test Definitions'!$F42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F42, """"), ""),
+IF('Test Definitions'!$G42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G42, """"), ""),
+IF('Test Definitions'!$H42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H42, """"), ""),
+IF('Test Definitions'!$I42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I42, """"), ""),
+IF('Test Definitions'!$J42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J42, """"), ""),
+IF('Test Definitions'!$K42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K42, """"), ""),
+IF('Test Definitions'!$L42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L42, """"), ""),
+IF('Test Definitions'!$M42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M42, """"), ""),
+IF('Test Definitions'!$N42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N42, """"), ""),
+IF('Test Definitions'!$O42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O42, """"), ""),
+IF('Test Definitions'!$P42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P42, """"), ""),
+IF('Test Definitions'!$Q42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q42, """"), ""),
+IF('Test Definitions'!$R42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R42, """"), ""),
+IF('Test Definitions'!$S42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S42, """"), ""),
+IF('Test Definitions'!$T42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T42, """"), ""),
+IF('Test Definitions'!$U42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U42, """"), ""),
+IF('Test Definitions'!$V42&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V42, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="str">
+        <f>IF('Test Definitions'!A43&lt;&gt;"",'Test Definitions'!A43,"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="23" t="str">
+        <f>IF('Test Definitions'!B43&lt;&gt;"",'Test Definitions'!B43,"")</f>
+        <v/>
+      </c>
+      <c r="C31" s="23" t="str">
+        <f>IF('Test Definitions'!C43&lt;&gt;"",'Test Definitions'!C43,"")</f>
+        <v/>
+      </c>
+      <c r="D31" s="23" t="str">
+        <f>IF('Test Definitions'!D43&lt;&gt;"",'Test Definitions'!D43,"")</f>
+        <v/>
+      </c>
+      <c r="E31" s="23" t="str">
+        <f>IF($B31&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B43, """"),""),
+IF('Test Definitions'!$C43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C43, """"), ""),
+IF('Test Definitions'!$D43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D43, """"), ""),
+IF('Test Definitions'!$E43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E43, """"), ""),
+IF('Test Definitions'!$F43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F43, """"), ""),
+IF('Test Definitions'!$G43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G43, """"), ""),
+IF('Test Definitions'!$H43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H43, """"), ""),
+IF('Test Definitions'!$I43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I43, """"), ""),
+IF('Test Definitions'!$J43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J43, """"), ""),
+IF('Test Definitions'!$K43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K43, """"), ""),
+IF('Test Definitions'!$L43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L43, """"), ""),
+IF('Test Definitions'!$M43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M43, """"), ""),
+IF('Test Definitions'!$N43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N43, """"), ""),
+IF('Test Definitions'!$O43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O43, """"), ""),
+IF('Test Definitions'!$P43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P43, """"), ""),
+IF('Test Definitions'!$Q43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q43, """"), ""),
+IF('Test Definitions'!$R43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R43, """"), ""),
+IF('Test Definitions'!$S43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S43, """"), ""),
+IF('Test Definitions'!$T43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T43, """"), ""),
+IF('Test Definitions'!$U43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U43, """"), ""),
+IF('Test Definitions'!$V43&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V43, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="str">
+        <f>IF('Test Definitions'!A44&lt;&gt;"",'Test Definitions'!A44,"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="23" t="str">
+        <f>IF('Test Definitions'!B44&lt;&gt;"",'Test Definitions'!B44,"")</f>
+        <v/>
+      </c>
+      <c r="C32" s="23" t="str">
+        <f>IF('Test Definitions'!C44&lt;&gt;"",'Test Definitions'!C44,"")</f>
+        <v/>
+      </c>
+      <c r="D32" s="23" t="str">
+        <f>IF('Test Definitions'!D44&lt;&gt;"",'Test Definitions'!D44,"")</f>
+        <v/>
+      </c>
+      <c r="E32" s="23" t="str">
+        <f>IF($B32&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B44, """"),""),
+IF('Test Definitions'!$C44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C44, """"), ""),
+IF('Test Definitions'!$D44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D44, """"), ""),
+IF('Test Definitions'!$E44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E44, """"), ""),
+IF('Test Definitions'!$F44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F44, """"), ""),
+IF('Test Definitions'!$G44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G44, """"), ""),
+IF('Test Definitions'!$H44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H44, """"), ""),
+IF('Test Definitions'!$I44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I44, """"), ""),
+IF('Test Definitions'!$J44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J44, """"), ""),
+IF('Test Definitions'!$K44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K44, """"), ""),
+IF('Test Definitions'!$L44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L44, """"), ""),
+IF('Test Definitions'!$M44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M44, """"), ""),
+IF('Test Definitions'!$N44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N44, """"), ""),
+IF('Test Definitions'!$O44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O44, """"), ""),
+IF('Test Definitions'!$P44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P44, """"), ""),
+IF('Test Definitions'!$Q44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q44, """"), ""),
+IF('Test Definitions'!$R44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R44, """"), ""),
+IF('Test Definitions'!$S44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S44, """"), ""),
+IF('Test Definitions'!$T44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T44, """"), ""),
+IF('Test Definitions'!$U44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U44, """"), ""),
+IF('Test Definitions'!$V44&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V44, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="str">
+        <f>IF('Test Definitions'!A45&lt;&gt;"",'Test Definitions'!A45,"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="23" t="str">
+        <f>IF('Test Definitions'!B45&lt;&gt;"",'Test Definitions'!B45,"")</f>
+        <v/>
+      </c>
+      <c r="C33" s="23" t="str">
+        <f>IF('Test Definitions'!C45&lt;&gt;"",'Test Definitions'!C45,"")</f>
+        <v/>
+      </c>
+      <c r="D33" s="23" t="str">
+        <f>IF('Test Definitions'!D45&lt;&gt;"",'Test Definitions'!D45,"")</f>
+        <v/>
+      </c>
+      <c r="E33" s="23" t="str">
+        <f>IF($B33&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B45, """"),""),
+IF('Test Definitions'!$C45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C45, """"), ""),
+IF('Test Definitions'!$D45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D45, """"), ""),
+IF('Test Definitions'!$E45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E45, """"), ""),
+IF('Test Definitions'!$F45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F45, """"), ""),
+IF('Test Definitions'!$G45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G45, """"), ""),
+IF('Test Definitions'!$H45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H45, """"), ""),
+IF('Test Definitions'!$I45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I45, """"), ""),
+IF('Test Definitions'!$J45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J45, """"), ""),
+IF('Test Definitions'!$K45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K45, """"), ""),
+IF('Test Definitions'!$L45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L45, """"), ""),
+IF('Test Definitions'!$M45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M45, """"), ""),
+IF('Test Definitions'!$N45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N45, """"), ""),
+IF('Test Definitions'!$O45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O45, """"), ""),
+IF('Test Definitions'!$P45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P45, """"), ""),
+IF('Test Definitions'!$Q45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q45, """"), ""),
+IF('Test Definitions'!$R45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R45, """"), ""),
+IF('Test Definitions'!$S45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S45, """"), ""),
+IF('Test Definitions'!$T45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T45, """"), ""),
+IF('Test Definitions'!$U45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U45, """"), ""),
+IF('Test Definitions'!$V45&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V45, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="str">
+        <f>IF('Test Definitions'!A46&lt;&gt;"",'Test Definitions'!A46,"")</f>
+        <v/>
+      </c>
+      <c r="B34" s="23" t="str">
+        <f>IF('Test Definitions'!B46&lt;&gt;"",'Test Definitions'!B46,"")</f>
+        <v/>
+      </c>
+      <c r="C34" s="23" t="str">
+        <f>IF('Test Definitions'!C46&lt;&gt;"",'Test Definitions'!C46,"")</f>
+        <v/>
+      </c>
+      <c r="D34" s="23" t="str">
+        <f>IF('Test Definitions'!D46&lt;&gt;"",'Test Definitions'!D46,"")</f>
+        <v/>
+      </c>
+      <c r="E34" s="23" t="str">
+        <f>IF($B34&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B46, """"),""),
+IF('Test Definitions'!$C46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C46, """"), ""),
+IF('Test Definitions'!$D46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D46, """"), ""),
+IF('Test Definitions'!$E46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E46, """"), ""),
+IF('Test Definitions'!$F46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F46, """"), ""),
+IF('Test Definitions'!$G46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G46, """"), ""),
+IF('Test Definitions'!$H46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H46, """"), ""),
+IF('Test Definitions'!$I46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I46, """"), ""),
+IF('Test Definitions'!$J46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J46, """"), ""),
+IF('Test Definitions'!$K46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K46, """"), ""),
+IF('Test Definitions'!$L46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L46, """"), ""),
+IF('Test Definitions'!$M46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M46, """"), ""),
+IF('Test Definitions'!$N46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N46, """"), ""),
+IF('Test Definitions'!$O46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O46, """"), ""),
+IF('Test Definitions'!$P46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P46, """"), ""),
+IF('Test Definitions'!$Q46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q46, """"), ""),
+IF('Test Definitions'!$R46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R46, """"), ""),
+IF('Test Definitions'!$S46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S46, """"), ""),
+IF('Test Definitions'!$T46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T46, """"), ""),
+IF('Test Definitions'!$U46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U46, """"), ""),
+IF('Test Definitions'!$V46&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V46, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="str">
+        <f>IF('Test Definitions'!A47&lt;&gt;"",'Test Definitions'!A47,"")</f>
+        <v/>
+      </c>
+      <c r="B35" s="23" t="str">
+        <f>IF('Test Definitions'!B47&lt;&gt;"",'Test Definitions'!B47,"")</f>
+        <v/>
+      </c>
+      <c r="C35" s="23" t="str">
+        <f>IF('Test Definitions'!C47&lt;&gt;"",'Test Definitions'!C47,"")</f>
+        <v/>
+      </c>
+      <c r="D35" s="23" t="str">
+        <f>IF('Test Definitions'!D47&lt;&gt;"",'Test Definitions'!D47,"")</f>
+        <v/>
+      </c>
+      <c r="E35" s="23" t="str">
+        <f>IF($B35&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B47, """"),""),
+IF('Test Definitions'!$C47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C47, """"), ""),
+IF('Test Definitions'!$D47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D47, """"), ""),
+IF('Test Definitions'!$E47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E47, """"), ""),
+IF('Test Definitions'!$F47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F47, """"), ""),
+IF('Test Definitions'!$G47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G47, """"), ""),
+IF('Test Definitions'!$H47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H47, """"), ""),
+IF('Test Definitions'!$I47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I47, """"), ""),
+IF('Test Definitions'!$J47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J47, """"), ""),
+IF('Test Definitions'!$K47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K47, """"), ""),
+IF('Test Definitions'!$L47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L47, """"), ""),
+IF('Test Definitions'!$M47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M47, """"), ""),
+IF('Test Definitions'!$N47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N47, """"), ""),
+IF('Test Definitions'!$O47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O47, """"), ""),
+IF('Test Definitions'!$P47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P47, """"), ""),
+IF('Test Definitions'!$Q47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q47, """"), ""),
+IF('Test Definitions'!$R47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R47, """"), ""),
+IF('Test Definitions'!$S47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S47, """"), ""),
+IF('Test Definitions'!$T47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T47, """"), ""),
+IF('Test Definitions'!$U47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U47, """"), ""),
+IF('Test Definitions'!$V47&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V47, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="str">
+        <f>IF('Test Definitions'!A48&lt;&gt;"",'Test Definitions'!A48,"")</f>
+        <v/>
+      </c>
+      <c r="B36" s="23" t="str">
+        <f>IF('Test Definitions'!B48&lt;&gt;"",'Test Definitions'!B48,"")</f>
+        <v/>
+      </c>
+      <c r="C36" s="23" t="str">
+        <f>IF('Test Definitions'!C48&lt;&gt;"",'Test Definitions'!C48,"")</f>
+        <v/>
+      </c>
+      <c r="D36" s="23" t="str">
+        <f>IF('Test Definitions'!D48&lt;&gt;"",'Test Definitions'!D48,"")</f>
+        <v/>
+      </c>
+      <c r="E36" s="23" t="str">
+        <f>IF($B36&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B48, """"),""),
+IF('Test Definitions'!$C48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C48, """"), ""),
+IF('Test Definitions'!$D48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D48, """"), ""),
+IF('Test Definitions'!$E48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E48, """"), ""),
+IF('Test Definitions'!$F48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F48, """"), ""),
+IF('Test Definitions'!$G48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G48, """"), ""),
+IF('Test Definitions'!$H48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H48, """"), ""),
+IF('Test Definitions'!$I48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I48, """"), ""),
+IF('Test Definitions'!$J48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J48, """"), ""),
+IF('Test Definitions'!$K48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K48, """"), ""),
+IF('Test Definitions'!$L48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L48, """"), ""),
+IF('Test Definitions'!$M48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M48, """"), ""),
+IF('Test Definitions'!$N48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N48, """"), ""),
+IF('Test Definitions'!$O48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O48, """"), ""),
+IF('Test Definitions'!$P48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P48, """"), ""),
+IF('Test Definitions'!$Q48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q48, """"), ""),
+IF('Test Definitions'!$R48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R48, """"), ""),
+IF('Test Definitions'!$S48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S48, """"), ""),
+IF('Test Definitions'!$T48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T48, """"), ""),
+IF('Test Definitions'!$U48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U48, """"), ""),
+IF('Test Definitions'!$V48&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V48, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="str">
+        <f>IF('Test Definitions'!A49&lt;&gt;"",'Test Definitions'!A49,"")</f>
+        <v/>
+      </c>
+      <c r="B37" s="23" t="str">
+        <f>IF('Test Definitions'!B49&lt;&gt;"",'Test Definitions'!B49,"")</f>
+        <v/>
+      </c>
+      <c r="C37" s="23" t="str">
+        <f>IF('Test Definitions'!C49&lt;&gt;"",'Test Definitions'!C49,"")</f>
+        <v/>
+      </c>
+      <c r="D37" s="23" t="str">
+        <f>IF('Test Definitions'!D49&lt;&gt;"",'Test Definitions'!D49,"")</f>
+        <v/>
+      </c>
+      <c r="E37" s="23" t="str">
+        <f>IF($B37&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B49, """"),""),
+IF('Test Definitions'!$C49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C49, """"), ""),
+IF('Test Definitions'!$D49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D49, """"), ""),
+IF('Test Definitions'!$E49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E49, """"), ""),
+IF('Test Definitions'!$F49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F49, """"), ""),
+IF('Test Definitions'!$G49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G49, """"), ""),
+IF('Test Definitions'!$H49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H49, """"), ""),
+IF('Test Definitions'!$I49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I49, """"), ""),
+IF('Test Definitions'!$J49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J49, """"), ""),
+IF('Test Definitions'!$K49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K49, """"), ""),
+IF('Test Definitions'!$L49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L49, """"), ""),
+IF('Test Definitions'!$M49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M49, """"), ""),
+IF('Test Definitions'!$N49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N49, """"), ""),
+IF('Test Definitions'!$O49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O49, """"), ""),
+IF('Test Definitions'!$P49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P49, """"), ""),
+IF('Test Definitions'!$Q49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q49, """"), ""),
+IF('Test Definitions'!$R49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R49, """"), ""),
+IF('Test Definitions'!$S49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S49, """"), ""),
+IF('Test Definitions'!$T49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T49, """"), ""),
+IF('Test Definitions'!$U49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U49, """"), ""),
+IF('Test Definitions'!$V49&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V49, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="str">
+        <f>IF('Test Definitions'!A50&lt;&gt;"",'Test Definitions'!A50,"")</f>
+        <v/>
+      </c>
+      <c r="B38" s="23" t="str">
+        <f>IF('Test Definitions'!B50&lt;&gt;"",'Test Definitions'!B50,"")</f>
+        <v/>
+      </c>
+      <c r="C38" s="23" t="str">
+        <f>IF('Test Definitions'!C50&lt;&gt;"",'Test Definitions'!C50,"")</f>
+        <v/>
+      </c>
+      <c r="D38" s="23" t="str">
+        <f>IF('Test Definitions'!D50&lt;&gt;"",'Test Definitions'!D50,"")</f>
+        <v/>
+      </c>
+      <c r="E38" s="23" t="str">
+        <f>IF($B38&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B50, """"),""),
+IF('Test Definitions'!$C50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C50, """"), ""),
+IF('Test Definitions'!$D50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D50, """"), ""),
+IF('Test Definitions'!$E50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E50, """"), ""),
+IF('Test Definitions'!$F50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F50, """"), ""),
+IF('Test Definitions'!$G50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G50, """"), ""),
+IF('Test Definitions'!$H50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H50, """"), ""),
+IF('Test Definitions'!$I50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I50, """"), ""),
+IF('Test Definitions'!$J50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J50, """"), ""),
+IF('Test Definitions'!$K50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K50, """"), ""),
+IF('Test Definitions'!$L50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L50, """"), ""),
+IF('Test Definitions'!$M50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M50, """"), ""),
+IF('Test Definitions'!$N50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N50, """"), ""),
+IF('Test Definitions'!$O50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O50, """"), ""),
+IF('Test Definitions'!$P50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P50, """"), ""),
+IF('Test Definitions'!$Q50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q50, """"), ""),
+IF('Test Definitions'!$R50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R50, """"), ""),
+IF('Test Definitions'!$S50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S50, """"), ""),
+IF('Test Definitions'!$T50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T50, """"), ""),
+IF('Test Definitions'!$U50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U50, """"), ""),
+IF('Test Definitions'!$V50&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V50, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="str">
+        <f>IF('Test Definitions'!A51&lt;&gt;"",'Test Definitions'!A51,"")</f>
+        <v/>
+      </c>
+      <c r="B39" s="23" t="str">
+        <f>IF('Test Definitions'!B51&lt;&gt;"",'Test Definitions'!B51,"")</f>
+        <v/>
+      </c>
+      <c r="C39" s="23" t="str">
+        <f>IF('Test Definitions'!C51&lt;&gt;"",'Test Definitions'!C51,"")</f>
+        <v/>
+      </c>
+      <c r="D39" s="23" t="str">
+        <f>IF('Test Definitions'!D51&lt;&gt;"",'Test Definitions'!D51,"")</f>
+        <v/>
+      </c>
+      <c r="E39" s="23" t="str">
+        <f>IF($B39&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B51, """"),""),
+IF('Test Definitions'!$C51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C51, """"), ""),
+IF('Test Definitions'!$D51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D51, """"), ""),
+IF('Test Definitions'!$E51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E51, """"), ""),
+IF('Test Definitions'!$F51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F51, """"), ""),
+IF('Test Definitions'!$G51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G51, """"), ""),
+IF('Test Definitions'!$H51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H51, """"), ""),
+IF('Test Definitions'!$I51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I51, """"), ""),
+IF('Test Definitions'!$J51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J51, """"), ""),
+IF('Test Definitions'!$K51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K51, """"), ""),
+IF('Test Definitions'!$L51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L51, """"), ""),
+IF('Test Definitions'!$M51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M51, """"), ""),
+IF('Test Definitions'!$N51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N51, """"), ""),
+IF('Test Definitions'!$O51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O51, """"), ""),
+IF('Test Definitions'!$P51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P51, """"), ""),
+IF('Test Definitions'!$Q51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q51, """"), ""),
+IF('Test Definitions'!$R51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R51, """"), ""),
+IF('Test Definitions'!$S51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S51, """"), ""),
+IF('Test Definitions'!$T51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T51, """"), ""),
+IF('Test Definitions'!$U51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U51, """"), ""),
+IF('Test Definitions'!$V51&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V51, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="str">
+        <f>IF('Test Definitions'!A52&lt;&gt;"",'Test Definitions'!A52,"")</f>
+        <v/>
+      </c>
+      <c r="B40" s="23" t="str">
+        <f>IF('Test Definitions'!B52&lt;&gt;"",'Test Definitions'!B52,"")</f>
+        <v/>
+      </c>
+      <c r="C40" s="23" t="str">
+        <f>IF('Test Definitions'!C52&lt;&gt;"",'Test Definitions'!C52,"")</f>
+        <v/>
+      </c>
+      <c r="D40" s="23" t="str">
+        <f>IF('Test Definitions'!D52&lt;&gt;"",'Test Definitions'!D52,"")</f>
+        <v/>
+      </c>
+      <c r="E40" s="23" t="str">
+        <f>IF($B40&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B52, """"),""),
+IF('Test Definitions'!$C52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C52, """"), ""),
+IF('Test Definitions'!$D52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D52, """"), ""),
+IF('Test Definitions'!$E52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E52, """"), ""),
+IF('Test Definitions'!$F52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F52, """"), ""),
+IF('Test Definitions'!$G52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G52, """"), ""),
+IF('Test Definitions'!$H52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H52, """"), ""),
+IF('Test Definitions'!$I52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I52, """"), ""),
+IF('Test Definitions'!$J52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J52, """"), ""),
+IF('Test Definitions'!$K52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K52, """"), ""),
+IF('Test Definitions'!$L52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L52, """"), ""),
+IF('Test Definitions'!$M52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M52, """"), ""),
+IF('Test Definitions'!$N52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N52, """"), ""),
+IF('Test Definitions'!$O52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O52, """"), ""),
+IF('Test Definitions'!$P52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P52, """"), ""),
+IF('Test Definitions'!$Q52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q52, """"), ""),
+IF('Test Definitions'!$R52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R52, """"), ""),
+IF('Test Definitions'!$S52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S52, """"), ""),
+IF('Test Definitions'!$T52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T52, """"), ""),
+IF('Test Definitions'!$U52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U52, """"), ""),
+IF('Test Definitions'!$V52&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V52, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="str">
+        <f>IF('Test Definitions'!A53&lt;&gt;"",'Test Definitions'!A53,"")</f>
+        <v/>
+      </c>
+      <c r="B41" s="23" t="str">
+        <f>IF('Test Definitions'!B53&lt;&gt;"",'Test Definitions'!B53,"")</f>
+        <v/>
+      </c>
+      <c r="C41" s="23" t="str">
+        <f>IF('Test Definitions'!C53&lt;&gt;"",'Test Definitions'!C53,"")</f>
+        <v/>
+      </c>
+      <c r="D41" s="23" t="str">
+        <f>IF('Test Definitions'!D53&lt;&gt;"",'Test Definitions'!D53,"")</f>
+        <v/>
+      </c>
+      <c r="E41" s="23" t="str">
+        <f>IF($B41&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B53, """"),""),
+IF('Test Definitions'!$C53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C53, """"), ""),
+IF('Test Definitions'!$D53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D53, """"), ""),
+IF('Test Definitions'!$E53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E53, """"), ""),
+IF('Test Definitions'!$F53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F53, """"), ""),
+IF('Test Definitions'!$G53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G53, """"), ""),
+IF('Test Definitions'!$H53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H53, """"), ""),
+IF('Test Definitions'!$I53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I53, """"), ""),
+IF('Test Definitions'!$J53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J53, """"), ""),
+IF('Test Definitions'!$K53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K53, """"), ""),
+IF('Test Definitions'!$L53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L53, """"), ""),
+IF('Test Definitions'!$M53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M53, """"), ""),
+IF('Test Definitions'!$N53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N53, """"), ""),
+IF('Test Definitions'!$O53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O53, """"), ""),
+IF('Test Definitions'!$P53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P53, """"), ""),
+IF('Test Definitions'!$Q53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q53, """"), ""),
+IF('Test Definitions'!$R53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R53, """"), ""),
+IF('Test Definitions'!$S53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S53, """"), ""),
+IF('Test Definitions'!$T53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T53, """"), ""),
+IF('Test Definitions'!$U53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U53, """"), ""),
+IF('Test Definitions'!$V53&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V53, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="str">
+        <f>IF('Test Definitions'!A54&lt;&gt;"",'Test Definitions'!A54,"")</f>
+        <v/>
+      </c>
+      <c r="B42" s="23" t="str">
+        <f>IF('Test Definitions'!B54&lt;&gt;"",'Test Definitions'!B54,"")</f>
+        <v/>
+      </c>
+      <c r="C42" s="23" t="str">
+        <f>IF('Test Definitions'!C54&lt;&gt;"",'Test Definitions'!C54,"")</f>
+        <v/>
+      </c>
+      <c r="D42" s="23" t="str">
+        <f>IF('Test Definitions'!D54&lt;&gt;"",'Test Definitions'!D54,"")</f>
+        <v/>
+      </c>
+      <c r="E42" s="23" t="str">
+        <f>IF($B42&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B54, """"),""),
+IF('Test Definitions'!$C54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C54, """"), ""),
+IF('Test Definitions'!$D54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D54, """"), ""),
+IF('Test Definitions'!$E54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E54, """"), ""),
+IF('Test Definitions'!$F54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F54, """"), ""),
+IF('Test Definitions'!$G54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G54, """"), ""),
+IF('Test Definitions'!$H54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H54, """"), ""),
+IF('Test Definitions'!$I54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I54, """"), ""),
+IF('Test Definitions'!$J54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J54, """"), ""),
+IF('Test Definitions'!$K54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K54, """"), ""),
+IF('Test Definitions'!$L54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L54, """"), ""),
+IF('Test Definitions'!$M54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M54, """"), ""),
+IF('Test Definitions'!$N54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N54, """"), ""),
+IF('Test Definitions'!$O54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O54, """"), ""),
+IF('Test Definitions'!$P54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P54, """"), ""),
+IF('Test Definitions'!$Q54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q54, """"), ""),
+IF('Test Definitions'!$R54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R54, """"), ""),
+IF('Test Definitions'!$S54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S54, """"), ""),
+IF('Test Definitions'!$T54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T54, """"), ""),
+IF('Test Definitions'!$U54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U54, """"), ""),
+IF('Test Definitions'!$V54&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V54, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="str">
+        <f>IF('Test Definitions'!A55&lt;&gt;"",'Test Definitions'!A55,"")</f>
+        <v/>
+      </c>
+      <c r="B43" s="23" t="str">
+        <f>IF('Test Definitions'!B55&lt;&gt;"",'Test Definitions'!B55,"")</f>
+        <v/>
+      </c>
+      <c r="C43" s="23" t="str">
+        <f>IF('Test Definitions'!C55&lt;&gt;"",'Test Definitions'!C55,"")</f>
+        <v/>
+      </c>
+      <c r="D43" s="23" t="str">
+        <f>IF('Test Definitions'!D55&lt;&gt;"",'Test Definitions'!D55,"")</f>
+        <v/>
+      </c>
+      <c r="E43" s="23" t="str">
+        <f>IF($B43&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B55, """"),""),
+IF('Test Definitions'!$C55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C55, """"), ""),
+IF('Test Definitions'!$D55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D55, """"), ""),
+IF('Test Definitions'!$E55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E55, """"), ""),
+IF('Test Definitions'!$F55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F55, """"), ""),
+IF('Test Definitions'!$G55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G55, """"), ""),
+IF('Test Definitions'!$H55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H55, """"), ""),
+IF('Test Definitions'!$I55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I55, """"), ""),
+IF('Test Definitions'!$J55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J55, """"), ""),
+IF('Test Definitions'!$K55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K55, """"), ""),
+IF('Test Definitions'!$L55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L55, """"), ""),
+IF('Test Definitions'!$M55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M55, """"), ""),
+IF('Test Definitions'!$N55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N55, """"), ""),
+IF('Test Definitions'!$O55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O55, """"), ""),
+IF('Test Definitions'!$P55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P55, """"), ""),
+IF('Test Definitions'!$Q55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q55, """"), ""),
+IF('Test Definitions'!$R55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R55, """"), ""),
+IF('Test Definitions'!$S55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S55, """"), ""),
+IF('Test Definitions'!$T55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T55, """"), ""),
+IF('Test Definitions'!$U55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U55, """"), ""),
+IF('Test Definitions'!$V55&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V55, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="str">
+        <f>IF('Test Definitions'!A56&lt;&gt;"",'Test Definitions'!A56,"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="23" t="str">
+        <f>IF('Test Definitions'!B56&lt;&gt;"",'Test Definitions'!B56,"")</f>
+        <v/>
+      </c>
+      <c r="C44" s="23" t="str">
+        <f>IF('Test Definitions'!C56&lt;&gt;"",'Test Definitions'!C56,"")</f>
+        <v/>
+      </c>
+      <c r="D44" s="23" t="str">
+        <f>IF('Test Definitions'!D56&lt;&gt;"",'Test Definitions'!D56,"")</f>
+        <v/>
+      </c>
+      <c r="E44" s="23" t="str">
+        <f>IF($B44&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B56, """"),""),
+IF('Test Definitions'!$C56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C56, """"), ""),
+IF('Test Definitions'!$D56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D56, """"), ""),
+IF('Test Definitions'!$E56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E56, """"), ""),
+IF('Test Definitions'!$F56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F56, """"), ""),
+IF('Test Definitions'!$G56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G56, """"), ""),
+IF('Test Definitions'!$H56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H56, """"), ""),
+IF('Test Definitions'!$I56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I56, """"), ""),
+IF('Test Definitions'!$J56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J56, """"), ""),
+IF('Test Definitions'!$K56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K56, """"), ""),
+IF('Test Definitions'!$L56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L56, """"), ""),
+IF('Test Definitions'!$M56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M56, """"), ""),
+IF('Test Definitions'!$N56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N56, """"), ""),
+IF('Test Definitions'!$O56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O56, """"), ""),
+IF('Test Definitions'!$P56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P56, """"), ""),
+IF('Test Definitions'!$Q56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q56, """"), ""),
+IF('Test Definitions'!$R56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R56, """"), ""),
+IF('Test Definitions'!$S56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S56, """"), ""),
+IF('Test Definitions'!$T56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T56, """"), ""),
+IF('Test Definitions'!$U56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U56, """"), ""),
+IF('Test Definitions'!$V56&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V56, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="str">
+        <f>IF('Test Definitions'!A57&lt;&gt;"",'Test Definitions'!A57,"")</f>
+        <v/>
+      </c>
+      <c r="B45" s="23" t="str">
+        <f>IF('Test Definitions'!B57&lt;&gt;"",'Test Definitions'!B57,"")</f>
+        <v/>
+      </c>
+      <c r="C45" s="23" t="str">
+        <f>IF('Test Definitions'!C57&lt;&gt;"",'Test Definitions'!C57,"")</f>
+        <v/>
+      </c>
+      <c r="D45" s="23" t="str">
+        <f>IF('Test Definitions'!D57&lt;&gt;"",'Test Definitions'!D57,"")</f>
+        <v/>
+      </c>
+      <c r="E45" s="23" t="str">
+        <f>IF($B45&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B57, """"),""),
+IF('Test Definitions'!$C57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C57, """"), ""),
+IF('Test Definitions'!$D57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D57, """"), ""),
+IF('Test Definitions'!$E57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E57, """"), ""),
+IF('Test Definitions'!$F57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F57, """"), ""),
+IF('Test Definitions'!$G57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G57, """"), ""),
+IF('Test Definitions'!$H57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H57, """"), ""),
+IF('Test Definitions'!$I57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I57, """"), ""),
+IF('Test Definitions'!$J57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J57, """"), ""),
+IF('Test Definitions'!$K57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K57, """"), ""),
+IF('Test Definitions'!$L57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L57, """"), ""),
+IF('Test Definitions'!$M57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M57, """"), ""),
+IF('Test Definitions'!$N57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N57, """"), ""),
+IF('Test Definitions'!$O57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O57, """"), ""),
+IF('Test Definitions'!$P57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P57, """"), ""),
+IF('Test Definitions'!$Q57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q57, """"), ""),
+IF('Test Definitions'!$R57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R57, """"), ""),
+IF('Test Definitions'!$S57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S57, """"), ""),
+IF('Test Definitions'!$T57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T57, """"), ""),
+IF('Test Definitions'!$U57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U57, """"), ""),
+IF('Test Definitions'!$V57&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V57, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="str">
+        <f>IF('Test Definitions'!A58&lt;&gt;"",'Test Definitions'!A58,"")</f>
+        <v/>
+      </c>
+      <c r="B46" s="23" t="str">
+        <f>IF('Test Definitions'!B58&lt;&gt;"",'Test Definitions'!B58,"")</f>
+        <v/>
+      </c>
+      <c r="C46" s="23" t="str">
+        <f>IF('Test Definitions'!C58&lt;&gt;"",'Test Definitions'!C58,"")</f>
+        <v/>
+      </c>
+      <c r="D46" s="23" t="str">
+        <f>IF('Test Definitions'!D58&lt;&gt;"",'Test Definitions'!D58,"")</f>
+        <v/>
+      </c>
+      <c r="E46" s="23" t="str">
+        <f>IF($B46&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B58, """"),""),
+IF('Test Definitions'!$C58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C58, """"), ""),
+IF('Test Definitions'!$D58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D58, """"), ""),
+IF('Test Definitions'!$E58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E58, """"), ""),
+IF('Test Definitions'!$F58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F58, """"), ""),
+IF('Test Definitions'!$G58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G58, """"), ""),
+IF('Test Definitions'!$H58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H58, """"), ""),
+IF('Test Definitions'!$I58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I58, """"), ""),
+IF('Test Definitions'!$J58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J58, """"), ""),
+IF('Test Definitions'!$K58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K58, """"), ""),
+IF('Test Definitions'!$L58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L58, """"), ""),
+IF('Test Definitions'!$M58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M58, """"), ""),
+IF('Test Definitions'!$N58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N58, """"), ""),
+IF('Test Definitions'!$O58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O58, """"), ""),
+IF('Test Definitions'!$P58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P58, """"), ""),
+IF('Test Definitions'!$Q58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q58, """"), ""),
+IF('Test Definitions'!$R58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R58, """"), ""),
+IF('Test Definitions'!$S58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S58, """"), ""),
+IF('Test Definitions'!$T58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T58, """"), ""),
+IF('Test Definitions'!$U58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U58, """"), ""),
+IF('Test Definitions'!$V58&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V58, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="str">
+        <f>IF('Test Definitions'!A59&lt;&gt;"",'Test Definitions'!A59,"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="23" t="str">
+        <f>IF('Test Definitions'!B59&lt;&gt;"",'Test Definitions'!B59,"")</f>
+        <v/>
+      </c>
+      <c r="C47" s="23" t="str">
+        <f>IF('Test Definitions'!C59&lt;&gt;"",'Test Definitions'!C59,"")</f>
+        <v/>
+      </c>
+      <c r="D47" s="23" t="str">
+        <f>IF('Test Definitions'!D59&lt;&gt;"",'Test Definitions'!D59,"")</f>
+        <v/>
+      </c>
+      <c r="E47" s="23" t="str">
+        <f>IF($B47&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B59, """"),""),
+IF('Test Definitions'!$C59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C59, """"), ""),
+IF('Test Definitions'!$D59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D59, """"), ""),
+IF('Test Definitions'!$E59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E59, """"), ""),
+IF('Test Definitions'!$F59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F59, """"), ""),
+IF('Test Definitions'!$G59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G59, """"), ""),
+IF('Test Definitions'!$H59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H59, """"), ""),
+IF('Test Definitions'!$I59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I59, """"), ""),
+IF('Test Definitions'!$J59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J59, """"), ""),
+IF('Test Definitions'!$K59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K59, """"), ""),
+IF('Test Definitions'!$L59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L59, """"), ""),
+IF('Test Definitions'!$M59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M59, """"), ""),
+IF('Test Definitions'!$N59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N59, """"), ""),
+IF('Test Definitions'!$O59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O59, """"), ""),
+IF('Test Definitions'!$P59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P59, """"), ""),
+IF('Test Definitions'!$Q59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q59, """"), ""),
+IF('Test Definitions'!$R59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R59, """"), ""),
+IF('Test Definitions'!$S59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S59, """"), ""),
+IF('Test Definitions'!$T59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T59, """"), ""),
+IF('Test Definitions'!$U59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U59, """"), ""),
+IF('Test Definitions'!$V59&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V59, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="str">
+        <f>IF('Test Definitions'!A60&lt;&gt;"",'Test Definitions'!A60,"")</f>
+        <v/>
+      </c>
+      <c r="B48" s="23" t="str">
+        <f>IF('Test Definitions'!B60&lt;&gt;"",'Test Definitions'!B60,"")</f>
+        <v/>
+      </c>
+      <c r="C48" s="23" t="str">
+        <f>IF('Test Definitions'!C60&lt;&gt;"",'Test Definitions'!C60,"")</f>
+        <v/>
+      </c>
+      <c r="D48" s="23" t="str">
+        <f>IF('Test Definitions'!D60&lt;&gt;"",'Test Definitions'!D60,"")</f>
+        <v/>
+      </c>
+      <c r="E48" s="23" t="str">
+        <f>IF($B48&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B60, """"),""),
+IF('Test Definitions'!$C60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C60, """"), ""),
+IF('Test Definitions'!$D60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D60, """"), ""),
+IF('Test Definitions'!$E60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E60, """"), ""),
+IF('Test Definitions'!$F60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F60, """"), ""),
+IF('Test Definitions'!$G60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G60, """"), ""),
+IF('Test Definitions'!$H60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H60, """"), ""),
+IF('Test Definitions'!$I60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I60, """"), ""),
+IF('Test Definitions'!$J60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J60, """"), ""),
+IF('Test Definitions'!$K60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K60, """"), ""),
+IF('Test Definitions'!$L60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L60, """"), ""),
+IF('Test Definitions'!$M60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M60, """"), ""),
+IF('Test Definitions'!$N60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N60, """"), ""),
+IF('Test Definitions'!$O60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O60, """"), ""),
+IF('Test Definitions'!$P60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P60, """"), ""),
+IF('Test Definitions'!$Q60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q60, """"), ""),
+IF('Test Definitions'!$R60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R60, """"), ""),
+IF('Test Definitions'!$S60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S60, """"), ""),
+IF('Test Definitions'!$T60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T60, """"), ""),
+IF('Test Definitions'!$U60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U60, """"), ""),
+IF('Test Definitions'!$V60&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V60, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="str">
+        <f>IF('Test Definitions'!A61&lt;&gt;"",'Test Definitions'!A61,"")</f>
+        <v/>
+      </c>
+      <c r="B49" s="23" t="str">
+        <f>IF('Test Definitions'!B61&lt;&gt;"",'Test Definitions'!B61,"")</f>
+        <v/>
+      </c>
+      <c r="C49" s="23" t="str">
+        <f>IF('Test Definitions'!C61&lt;&gt;"",'Test Definitions'!C61,"")</f>
+        <v/>
+      </c>
+      <c r="D49" s="23" t="str">
+        <f>IF('Test Definitions'!D61&lt;&gt;"",'Test Definitions'!D61,"")</f>
+        <v/>
+      </c>
+      <c r="E49" s="23" t="str">
+        <f>IF($B49&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B61, """"),""),
+IF('Test Definitions'!$C61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C61, """"), ""),
+IF('Test Definitions'!$D61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D61, """"), ""),
+IF('Test Definitions'!$E61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E61, """"), ""),
+IF('Test Definitions'!$F61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F61, """"), ""),
+IF('Test Definitions'!$G61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G61, """"), ""),
+IF('Test Definitions'!$H61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H61, """"), ""),
+IF('Test Definitions'!$I61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I61, """"), ""),
+IF('Test Definitions'!$J61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J61, """"), ""),
+IF('Test Definitions'!$K61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K61, """"), ""),
+IF('Test Definitions'!$L61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L61, """"), ""),
+IF('Test Definitions'!$M61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M61, """"), ""),
+IF('Test Definitions'!$N61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N61, """"), ""),
+IF('Test Definitions'!$O61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O61, """"), ""),
+IF('Test Definitions'!$P61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P61, """"), ""),
+IF('Test Definitions'!$Q61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q61, """"), ""),
+IF('Test Definitions'!$R61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R61, """"), ""),
+IF('Test Definitions'!$S61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S61, """"), ""),
+IF('Test Definitions'!$T61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T61, """"), ""),
+IF('Test Definitions'!$U61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U61, """"), ""),
+IF('Test Definitions'!$V61&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V61, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="str">
+        <f>IF('Test Definitions'!A62&lt;&gt;"",'Test Definitions'!A62,"")</f>
+        <v/>
+      </c>
+      <c r="B50" s="23" t="str">
+        <f>IF('Test Definitions'!B62&lt;&gt;"",'Test Definitions'!B62,"")</f>
+        <v/>
+      </c>
+      <c r="C50" s="23" t="str">
+        <f>IF('Test Definitions'!C62&lt;&gt;"",'Test Definitions'!C62,"")</f>
+        <v/>
+      </c>
+      <c r="D50" s="23" t="str">
+        <f>IF('Test Definitions'!D62&lt;&gt;"",'Test Definitions'!D62,"")</f>
+        <v/>
+      </c>
+      <c r="E50" s="23" t="str">
+        <f>IF($B50&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B62, """"),""),
+IF('Test Definitions'!$C62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C62, """"), ""),
+IF('Test Definitions'!$D62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D62, """"), ""),
+IF('Test Definitions'!$E62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E62, """"), ""),
+IF('Test Definitions'!$F62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F62, """"), ""),
+IF('Test Definitions'!$G62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G62, """"), ""),
+IF('Test Definitions'!$H62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H62, """"), ""),
+IF('Test Definitions'!$I62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I62, """"), ""),
+IF('Test Definitions'!$J62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J62, """"), ""),
+IF('Test Definitions'!$K62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K62, """"), ""),
+IF('Test Definitions'!$L62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L62, """"), ""),
+IF('Test Definitions'!$M62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M62, """"), ""),
+IF('Test Definitions'!$N62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N62, """"), ""),
+IF('Test Definitions'!$O62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O62, """"), ""),
+IF('Test Definitions'!$P62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P62, """"), ""),
+IF('Test Definitions'!$Q62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q62, """"), ""),
+IF('Test Definitions'!$R62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R62, """"), ""),
+IF('Test Definitions'!$S62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S62, """"), ""),
+IF('Test Definitions'!$T62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T62, """"), ""),
+IF('Test Definitions'!$U62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U62, """"), ""),
+IF('Test Definitions'!$V62&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V62, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="str">
+        <f>IF('Test Definitions'!A63&lt;&gt;"",'Test Definitions'!A63,"")</f>
+        <v/>
+      </c>
+      <c r="B51" s="23" t="str">
+        <f>IF('Test Definitions'!B63&lt;&gt;"",'Test Definitions'!B63,"")</f>
+        <v/>
+      </c>
+      <c r="C51" s="23" t="str">
+        <f>IF('Test Definitions'!C63&lt;&gt;"",'Test Definitions'!C63,"")</f>
+        <v/>
+      </c>
+      <c r="D51" s="23" t="str">
+        <f>IF('Test Definitions'!D63&lt;&gt;"",'Test Definitions'!D63,"")</f>
+        <v/>
+      </c>
+      <c r="E51" s="23" t="str">
+        <f>IF($B51&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B63, """"),""),
+IF('Test Definitions'!$C63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C63, """"), ""),
+IF('Test Definitions'!$D63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D63, """"), ""),
+IF('Test Definitions'!$E63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E63, """"), ""),
+IF('Test Definitions'!$F63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F63, """"), ""),
+IF('Test Definitions'!$G63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G63, """"), ""),
+IF('Test Definitions'!$H63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H63, """"), ""),
+IF('Test Definitions'!$I63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I63, """"), ""),
+IF('Test Definitions'!$J63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J63, """"), ""),
+IF('Test Definitions'!$K63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K63, """"), ""),
+IF('Test Definitions'!$L63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L63, """"), ""),
+IF('Test Definitions'!$M63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M63, """"), ""),
+IF('Test Definitions'!$N63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N63, """"), ""),
+IF('Test Definitions'!$O63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O63, """"), ""),
+IF('Test Definitions'!$P63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P63, """"), ""),
+IF('Test Definitions'!$Q63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q63, """"), ""),
+IF('Test Definitions'!$R63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R63, """"), ""),
+IF('Test Definitions'!$S63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S63, """"), ""),
+IF('Test Definitions'!$T63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T63, """"), ""),
+IF('Test Definitions'!$U63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U63, """"), ""),
+IF('Test Definitions'!$V63&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V63, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="str">
+        <f>IF('Test Definitions'!A64&lt;&gt;"",'Test Definitions'!A64,"")</f>
+        <v/>
+      </c>
+      <c r="B52" s="23" t="str">
+        <f>IF('Test Definitions'!B64&lt;&gt;"",'Test Definitions'!B64,"")</f>
+        <v/>
+      </c>
+      <c r="C52" s="23" t="str">
+        <f>IF('Test Definitions'!C64&lt;&gt;"",'Test Definitions'!C64,"")</f>
+        <v/>
+      </c>
+      <c r="D52" s="23" t="str">
+        <f>IF('Test Definitions'!D64&lt;&gt;"",'Test Definitions'!D64,"")</f>
+        <v/>
+      </c>
+      <c r="E52" s="23" t="str">
+        <f>IF($B52&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B64, """"),""),
+IF('Test Definitions'!$C64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C64, """"), ""),
+IF('Test Definitions'!$D64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D64, """"), ""),
+IF('Test Definitions'!$E64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E64, """"), ""),
+IF('Test Definitions'!$F64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F64, """"), ""),
+IF('Test Definitions'!$G64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G64, """"), ""),
+IF('Test Definitions'!$H64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H64, """"), ""),
+IF('Test Definitions'!$I64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I64, """"), ""),
+IF('Test Definitions'!$J64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J64, """"), ""),
+IF('Test Definitions'!$K64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K64, """"), ""),
+IF('Test Definitions'!$L64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L64, """"), ""),
+IF('Test Definitions'!$M64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M64, """"), ""),
+IF('Test Definitions'!$N64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N64, """"), ""),
+IF('Test Definitions'!$O64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O64, """"), ""),
+IF('Test Definitions'!$P64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P64, """"), ""),
+IF('Test Definitions'!$Q64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q64, """"), ""),
+IF('Test Definitions'!$R64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R64, """"), ""),
+IF('Test Definitions'!$S64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S64, """"), ""),
+IF('Test Definitions'!$T64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T64, """"), ""),
+IF('Test Definitions'!$U64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U64, """"), ""),
+IF('Test Definitions'!$V64&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V64, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="str">
+        <f>IF('Test Definitions'!A65&lt;&gt;"",'Test Definitions'!A65,"")</f>
+        <v/>
+      </c>
+      <c r="B53" s="23" t="str">
+        <f>IF('Test Definitions'!B65&lt;&gt;"",'Test Definitions'!B65,"")</f>
+        <v/>
+      </c>
+      <c r="C53" s="23" t="str">
+        <f>IF('Test Definitions'!C65&lt;&gt;"",'Test Definitions'!C65,"")</f>
+        <v/>
+      </c>
+      <c r="D53" s="23" t="str">
+        <f>IF('Test Definitions'!D65&lt;&gt;"",'Test Definitions'!D65,"")</f>
+        <v/>
+      </c>
+      <c r="E53" s="23" t="str">
+        <f>IF($B53&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B65, """"),""),
+IF('Test Definitions'!$C65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C65, """"), ""),
+IF('Test Definitions'!$D65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D65, """"), ""),
+IF('Test Definitions'!$E65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E65, """"), ""),
+IF('Test Definitions'!$F65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F65, """"), ""),
+IF('Test Definitions'!$G65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G65, """"), ""),
+IF('Test Definitions'!$H65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H65, """"), ""),
+IF('Test Definitions'!$I65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I65, """"), ""),
+IF('Test Definitions'!$J65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J65, """"), ""),
+IF('Test Definitions'!$K65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K65, """"), ""),
+IF('Test Definitions'!$L65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L65, """"), ""),
+IF('Test Definitions'!$M65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M65, """"), ""),
+IF('Test Definitions'!$N65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N65, """"), ""),
+IF('Test Definitions'!$O65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O65, """"), ""),
+IF('Test Definitions'!$P65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P65, """"), ""),
+IF('Test Definitions'!$Q65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q65, """"), ""),
+IF('Test Definitions'!$R65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R65, """"), ""),
+IF('Test Definitions'!$S65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S65, """"), ""),
+IF('Test Definitions'!$T65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T65, """"), ""),
+IF('Test Definitions'!$U65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U65, """"), ""),
+IF('Test Definitions'!$V65&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V65, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="str">
+        <f>IF('Test Definitions'!A66&lt;&gt;"",'Test Definitions'!A66,"")</f>
+        <v/>
+      </c>
+      <c r="B54" s="23" t="str">
+        <f>IF('Test Definitions'!B66&lt;&gt;"",'Test Definitions'!B66,"")</f>
+        <v/>
+      </c>
+      <c r="C54" s="23" t="str">
+        <f>IF('Test Definitions'!C66&lt;&gt;"",'Test Definitions'!C66,"")</f>
+        <v/>
+      </c>
+      <c r="D54" s="23" t="str">
+        <f>IF('Test Definitions'!D66&lt;&gt;"",'Test Definitions'!D66,"")</f>
+        <v/>
+      </c>
+      <c r="E54" s="23" t="str">
+        <f>IF($B54&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B66, """"),""),
+IF('Test Definitions'!$C66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C66, """"), ""),
+IF('Test Definitions'!$D66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D66, """"), ""),
+IF('Test Definitions'!$E66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E66, """"), ""),
+IF('Test Definitions'!$F66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F66, """"), ""),
+IF('Test Definitions'!$G66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G66, """"), ""),
+IF('Test Definitions'!$H66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H66, """"), ""),
+IF('Test Definitions'!$I66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I66, """"), ""),
+IF('Test Definitions'!$J66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J66, """"), ""),
+IF('Test Definitions'!$K66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K66, """"), ""),
+IF('Test Definitions'!$L66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L66, """"), ""),
+IF('Test Definitions'!$M66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M66, """"), ""),
+IF('Test Definitions'!$N66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N66, """"), ""),
+IF('Test Definitions'!$O66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O66, """"), ""),
+IF('Test Definitions'!$P66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P66, """"), ""),
+IF('Test Definitions'!$Q66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q66, """"), ""),
+IF('Test Definitions'!$R66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R66, """"), ""),
+IF('Test Definitions'!$S66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S66, """"), ""),
+IF('Test Definitions'!$T66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T66, """"), ""),
+IF('Test Definitions'!$U66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U66, """"), ""),
+IF('Test Definitions'!$V66&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V66, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="str">
+        <f>IF('Test Definitions'!A67&lt;&gt;"",'Test Definitions'!A67,"")</f>
+        <v/>
+      </c>
+      <c r="B55" s="23" t="str">
+        <f>IF('Test Definitions'!B67&lt;&gt;"",'Test Definitions'!B67,"")</f>
+        <v/>
+      </c>
+      <c r="C55" s="23" t="str">
+        <f>IF('Test Definitions'!C67&lt;&gt;"",'Test Definitions'!C67,"")</f>
+        <v/>
+      </c>
+      <c r="D55" s="23" t="str">
+        <f>IF('Test Definitions'!D67&lt;&gt;"",'Test Definitions'!D67,"")</f>
+        <v/>
+      </c>
+      <c r="E55" s="23" t="str">
+        <f>IF($B55&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B67, """"),""),
+IF('Test Definitions'!$C67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C67, """"), ""),
+IF('Test Definitions'!$D67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D67, """"), ""),
+IF('Test Definitions'!$E67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E67, """"), ""),
+IF('Test Definitions'!$F67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F67, """"), ""),
+IF('Test Definitions'!$G67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G67, """"), ""),
+IF('Test Definitions'!$H67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H67, """"), ""),
+IF('Test Definitions'!$I67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I67, """"), ""),
+IF('Test Definitions'!$J67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J67, """"), ""),
+IF('Test Definitions'!$K67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K67, """"), ""),
+IF('Test Definitions'!$L67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L67, """"), ""),
+IF('Test Definitions'!$M67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M67, """"), ""),
+IF('Test Definitions'!$N67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N67, """"), ""),
+IF('Test Definitions'!$O67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O67, """"), ""),
+IF('Test Definitions'!$P67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P67, """"), ""),
+IF('Test Definitions'!$Q67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q67, """"), ""),
+IF('Test Definitions'!$R67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R67, """"), ""),
+IF('Test Definitions'!$S67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S67, """"), ""),
+IF('Test Definitions'!$T67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T67, """"), ""),
+IF('Test Definitions'!$U67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U67, """"), ""),
+IF('Test Definitions'!$V67&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V67, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="str">
+        <f>IF('Test Definitions'!A68&lt;&gt;"",'Test Definitions'!A68,"")</f>
+        <v/>
+      </c>
+      <c r="B56" s="23" t="str">
+        <f>IF('Test Definitions'!B68&lt;&gt;"",'Test Definitions'!B68,"")</f>
+        <v/>
+      </c>
+      <c r="C56" s="23" t="str">
+        <f>IF('Test Definitions'!C68&lt;&gt;"",'Test Definitions'!C68,"")</f>
+        <v/>
+      </c>
+      <c r="D56" s="23" t="str">
+        <f>IF('Test Definitions'!D68&lt;&gt;"",'Test Definitions'!D68,"")</f>
+        <v/>
+      </c>
+      <c r="E56" s="23" t="str">
+        <f>IF($B56&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B68, """"),""),
+IF('Test Definitions'!$C68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C68, """"), ""),
+IF('Test Definitions'!$D68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D68, """"), ""),
+IF('Test Definitions'!$E68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E68, """"), ""),
+IF('Test Definitions'!$F68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F68, """"), ""),
+IF('Test Definitions'!$G68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G68, """"), ""),
+IF('Test Definitions'!$H68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H68, """"), ""),
+IF('Test Definitions'!$I68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I68, """"), ""),
+IF('Test Definitions'!$J68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J68, """"), ""),
+IF('Test Definitions'!$K68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K68, """"), ""),
+IF('Test Definitions'!$L68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L68, """"), ""),
+IF('Test Definitions'!$M68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M68, """"), ""),
+IF('Test Definitions'!$N68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N68, """"), ""),
+IF('Test Definitions'!$O68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O68, """"), ""),
+IF('Test Definitions'!$P68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P68, """"), ""),
+IF('Test Definitions'!$Q68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q68, """"), ""),
+IF('Test Definitions'!$R68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R68, """"), ""),
+IF('Test Definitions'!$S68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S68, """"), ""),
+IF('Test Definitions'!$T68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T68, """"), ""),
+IF('Test Definitions'!$U68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U68, """"), ""),
+IF('Test Definitions'!$V68&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V68, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="str">
+        <f>IF('Test Definitions'!A69&lt;&gt;"",'Test Definitions'!A69,"")</f>
+        <v/>
+      </c>
+      <c r="B57" s="23" t="str">
+        <f>IF('Test Definitions'!B69&lt;&gt;"",'Test Definitions'!B69,"")</f>
+        <v/>
+      </c>
+      <c r="C57" s="23" t="str">
+        <f>IF('Test Definitions'!C69&lt;&gt;"",'Test Definitions'!C69,"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="23" t="str">
+        <f>IF('Test Definitions'!D69&lt;&gt;"",'Test Definitions'!D69,"")</f>
+        <v/>
+      </c>
+      <c r="E57" s="23" t="str">
+        <f>IF($B57&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B69, """"),""),
+IF('Test Definitions'!$C69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C69, """"), ""),
+IF('Test Definitions'!$D69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D69, """"), ""),
+IF('Test Definitions'!$E69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E69, """"), ""),
+IF('Test Definitions'!$F69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F69, """"), ""),
+IF('Test Definitions'!$G69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G69, """"), ""),
+IF('Test Definitions'!$H69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H69, """"), ""),
+IF('Test Definitions'!$I69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I69, """"), ""),
+IF('Test Definitions'!$J69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J69, """"), ""),
+IF('Test Definitions'!$K69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K69, """"), ""),
+IF('Test Definitions'!$L69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L69, """"), ""),
+IF('Test Definitions'!$M69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M69, """"), ""),
+IF('Test Definitions'!$N69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N69, """"), ""),
+IF('Test Definitions'!$O69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O69, """"), ""),
+IF('Test Definitions'!$P69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P69, """"), ""),
+IF('Test Definitions'!$Q69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q69, """"), ""),
+IF('Test Definitions'!$R69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R69, """"), ""),
+IF('Test Definitions'!$S69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S69, """"), ""),
+IF('Test Definitions'!$T69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T69, """"), ""),
+IF('Test Definitions'!$U69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U69, """"), ""),
+IF('Test Definitions'!$V69&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V69, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="str">
+        <f>IF('Test Definitions'!A70&lt;&gt;"",'Test Definitions'!A70,"")</f>
+        <v/>
+      </c>
+      <c r="B58" s="23" t="str">
+        <f>IF('Test Definitions'!B70&lt;&gt;"",'Test Definitions'!B70,"")</f>
+        <v/>
+      </c>
+      <c r="C58" s="23" t="str">
+        <f>IF('Test Definitions'!C70&lt;&gt;"",'Test Definitions'!C70,"")</f>
+        <v/>
+      </c>
+      <c r="D58" s="23" t="str">
+        <f>IF('Test Definitions'!D70&lt;&gt;"",'Test Definitions'!D70,"")</f>
+        <v/>
+      </c>
+      <c r="E58" s="23" t="str">
+        <f>IF($B58&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B70, """"),""),
+IF('Test Definitions'!$C70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C70, """"), ""),
+IF('Test Definitions'!$D70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D70, """"), ""),
+IF('Test Definitions'!$E70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E70, """"), ""),
+IF('Test Definitions'!$F70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F70, """"), ""),
+IF('Test Definitions'!$G70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G70, """"), ""),
+IF('Test Definitions'!$H70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H70, """"), ""),
+IF('Test Definitions'!$I70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I70, """"), ""),
+IF('Test Definitions'!$J70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J70, """"), ""),
+IF('Test Definitions'!$K70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K70, """"), ""),
+IF('Test Definitions'!$L70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L70, """"), ""),
+IF('Test Definitions'!$M70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M70, """"), ""),
+IF('Test Definitions'!$N70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N70, """"), ""),
+IF('Test Definitions'!$O70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O70, """"), ""),
+IF('Test Definitions'!$P70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P70, """"), ""),
+IF('Test Definitions'!$Q70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q70, """"), ""),
+IF('Test Definitions'!$R70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R70, """"), ""),
+IF('Test Definitions'!$S70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S70, """"), ""),
+IF('Test Definitions'!$T70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T70, """"), ""),
+IF('Test Definitions'!$U70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U70, """"), ""),
+IF('Test Definitions'!$V70&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V70, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="str">
+        <f>IF('Test Definitions'!A71&lt;&gt;"",'Test Definitions'!A71,"")</f>
+        <v/>
+      </c>
+      <c r="B59" s="23" t="str">
+        <f>IF('Test Definitions'!B71&lt;&gt;"",'Test Definitions'!B71,"")</f>
+        <v/>
+      </c>
+      <c r="C59" s="23" t="str">
+        <f>IF('Test Definitions'!C71&lt;&gt;"",'Test Definitions'!C71,"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="23" t="str">
+        <f>IF('Test Definitions'!D71&lt;&gt;"",'Test Definitions'!D71,"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="23" t="str">
+        <f>IF($B59&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B71, """"),""),
+IF('Test Definitions'!$C71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C71, """"), ""),
+IF('Test Definitions'!$D71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D71, """"), ""),
+IF('Test Definitions'!$E71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E71, """"), ""),
+IF('Test Definitions'!$F71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F71, """"), ""),
+IF('Test Definitions'!$G71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G71, """"), ""),
+IF('Test Definitions'!$H71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H71, """"), ""),
+IF('Test Definitions'!$I71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I71, """"), ""),
+IF('Test Definitions'!$J71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J71, """"), ""),
+IF('Test Definitions'!$K71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K71, """"), ""),
+IF('Test Definitions'!$L71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L71, """"), ""),
+IF('Test Definitions'!$M71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M71, """"), ""),
+IF('Test Definitions'!$N71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N71, """"), ""),
+IF('Test Definitions'!$O71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O71, """"), ""),
+IF('Test Definitions'!$P71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P71, """"), ""),
+IF('Test Definitions'!$Q71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q71, """"), ""),
+IF('Test Definitions'!$R71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R71, """"), ""),
+IF('Test Definitions'!$S71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S71, """"), ""),
+IF('Test Definitions'!$T71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T71, """"), ""),
+IF('Test Definitions'!$U71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U71, """"), ""),
+IF('Test Definitions'!$V71&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V71, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="str">
+        <f>IF('Test Definitions'!A72&lt;&gt;"",'Test Definitions'!A72,"")</f>
+        <v/>
+      </c>
+      <c r="B60" s="23" t="str">
+        <f>IF('Test Definitions'!B72&lt;&gt;"",'Test Definitions'!B72,"")</f>
+        <v/>
+      </c>
+      <c r="C60" s="23" t="str">
+        <f>IF('Test Definitions'!C72&lt;&gt;"",'Test Definitions'!C72,"")</f>
+        <v/>
+      </c>
+      <c r="D60" s="23" t="str">
+        <f>IF('Test Definitions'!D72&lt;&gt;"",'Test Definitions'!D72,"")</f>
+        <v/>
+      </c>
+      <c r="E60" s="23" t="str">
+        <f>IF($B60&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B72, """"),""),
+IF('Test Definitions'!$C72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C72, """"), ""),
+IF('Test Definitions'!$D72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D72, """"), ""),
+IF('Test Definitions'!$E72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E72, """"), ""),
+IF('Test Definitions'!$F72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F72, """"), ""),
+IF('Test Definitions'!$G72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G72, """"), ""),
+IF('Test Definitions'!$H72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H72, """"), ""),
+IF('Test Definitions'!$I72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I72, """"), ""),
+IF('Test Definitions'!$J72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J72, """"), ""),
+IF('Test Definitions'!$K72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K72, """"), ""),
+IF('Test Definitions'!$L72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L72, """"), ""),
+IF('Test Definitions'!$M72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M72, """"), ""),
+IF('Test Definitions'!$N72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N72, """"), ""),
+IF('Test Definitions'!$O72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O72, """"), ""),
+IF('Test Definitions'!$P72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P72, """"), ""),
+IF('Test Definitions'!$Q72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q72, """"), ""),
+IF('Test Definitions'!$R72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R72, """"), ""),
+IF('Test Definitions'!$S72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S72, """"), ""),
+IF('Test Definitions'!$T72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T72, """"), ""),
+IF('Test Definitions'!$U72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U72, """"), ""),
+IF('Test Definitions'!$V72&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V72, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="str">
+        <f>IF('Test Definitions'!A73&lt;&gt;"",'Test Definitions'!A73,"")</f>
+        <v/>
+      </c>
+      <c r="B61" s="23" t="str">
+        <f>IF('Test Definitions'!B73&lt;&gt;"",'Test Definitions'!B73,"")</f>
+        <v/>
+      </c>
+      <c r="C61" s="23" t="str">
+        <f>IF('Test Definitions'!C73&lt;&gt;"",'Test Definitions'!C73,"")</f>
+        <v/>
+      </c>
+      <c r="D61" s="23" t="str">
+        <f>IF('Test Definitions'!D73&lt;&gt;"",'Test Definitions'!D73,"")</f>
+        <v/>
+      </c>
+      <c r="E61" s="23" t="str">
+        <f>IF($B61&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B73, """"),""),
+IF('Test Definitions'!$C73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C73, """"), ""),
+IF('Test Definitions'!$D73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D73, """"), ""),
+IF('Test Definitions'!$E73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E73, """"), ""),
+IF('Test Definitions'!$F73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F73, """"), ""),
+IF('Test Definitions'!$G73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G73, """"), ""),
+IF('Test Definitions'!$H73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H73, """"), ""),
+IF('Test Definitions'!$I73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I73, """"), ""),
+IF('Test Definitions'!$J73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J73, """"), ""),
+IF('Test Definitions'!$K73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K73, """"), ""),
+IF('Test Definitions'!$L73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L73, """"), ""),
+IF('Test Definitions'!$M73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M73, """"), ""),
+IF('Test Definitions'!$N73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N73, """"), ""),
+IF('Test Definitions'!$O73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O73, """"), ""),
+IF('Test Definitions'!$P73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P73, """"), ""),
+IF('Test Definitions'!$Q73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q73, """"), ""),
+IF('Test Definitions'!$R73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R73, """"), ""),
+IF('Test Definitions'!$S73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S73, """"), ""),
+IF('Test Definitions'!$T73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T73, """"), ""),
+IF('Test Definitions'!$U73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U73, """"), ""),
+IF('Test Definitions'!$V73&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V73, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="str">
+        <f>IF('Test Definitions'!A74&lt;&gt;"",'Test Definitions'!A74,"")</f>
+        <v/>
+      </c>
+      <c r="B62" s="23" t="str">
+        <f>IF('Test Definitions'!B74&lt;&gt;"",'Test Definitions'!B74,"")</f>
+        <v/>
+      </c>
+      <c r="C62" s="23" t="str">
+        <f>IF('Test Definitions'!C74&lt;&gt;"",'Test Definitions'!C74,"")</f>
+        <v/>
+      </c>
+      <c r="D62" s="23" t="str">
+        <f>IF('Test Definitions'!D74&lt;&gt;"",'Test Definitions'!D74,"")</f>
+        <v/>
+      </c>
+      <c r="E62" s="23" t="str">
+        <f>IF($B62&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B74, """"),""),
+IF('Test Definitions'!$C74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C74, """"), ""),
+IF('Test Definitions'!$D74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D74, """"), ""),
+IF('Test Definitions'!$E74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E74, """"), ""),
+IF('Test Definitions'!$F74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F74, """"), ""),
+IF('Test Definitions'!$G74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G74, """"), ""),
+IF('Test Definitions'!$H74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H74, """"), ""),
+IF('Test Definitions'!$I74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I74, """"), ""),
+IF('Test Definitions'!$J74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J74, """"), ""),
+IF('Test Definitions'!$K74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K74, """"), ""),
+IF('Test Definitions'!$L74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L74, """"), ""),
+IF('Test Definitions'!$M74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M74, """"), ""),
+IF('Test Definitions'!$N74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N74, """"), ""),
+IF('Test Definitions'!$O74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O74, """"), ""),
+IF('Test Definitions'!$P74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P74, """"), ""),
+IF('Test Definitions'!$Q74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q74, """"), ""),
+IF('Test Definitions'!$R74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R74, """"), ""),
+IF('Test Definitions'!$S74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S74, """"), ""),
+IF('Test Definitions'!$T74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T74, """"), ""),
+IF('Test Definitions'!$U74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U74, """"), ""),
+IF('Test Definitions'!$V74&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V74, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="str">
+        <f>IF('Test Definitions'!A75&lt;&gt;"",'Test Definitions'!A75,"")</f>
+        <v/>
+      </c>
+      <c r="B63" s="23" t="str">
+        <f>IF('Test Definitions'!B75&lt;&gt;"",'Test Definitions'!B75,"")</f>
+        <v/>
+      </c>
+      <c r="C63" s="23" t="str">
+        <f>IF('Test Definitions'!C75&lt;&gt;"",'Test Definitions'!C75,"")</f>
+        <v/>
+      </c>
+      <c r="D63" s="23" t="str">
+        <f>IF('Test Definitions'!D75&lt;&gt;"",'Test Definitions'!D75,"")</f>
+        <v/>
+      </c>
+      <c r="E63" s="23" t="str">
+        <f>IF($B63&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B75, """"),""),
+IF('Test Definitions'!$C75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C75, """"), ""),
+IF('Test Definitions'!$D75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D75, """"), ""),
+IF('Test Definitions'!$E75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E75, """"), ""),
+IF('Test Definitions'!$F75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F75, """"), ""),
+IF('Test Definitions'!$G75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G75, """"), ""),
+IF('Test Definitions'!$H75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H75, """"), ""),
+IF('Test Definitions'!$I75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I75, """"), ""),
+IF('Test Definitions'!$J75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J75, """"), ""),
+IF('Test Definitions'!$K75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K75, """"), ""),
+IF('Test Definitions'!$L75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L75, """"), ""),
+IF('Test Definitions'!$M75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M75, """"), ""),
+IF('Test Definitions'!$N75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N75, """"), ""),
+IF('Test Definitions'!$O75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O75, """"), ""),
+IF('Test Definitions'!$P75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P75, """"), ""),
+IF('Test Definitions'!$Q75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q75, """"), ""),
+IF('Test Definitions'!$R75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R75, """"), ""),
+IF('Test Definitions'!$S75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S75, """"), ""),
+IF('Test Definitions'!$T75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T75, """"), ""),
+IF('Test Definitions'!$U75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U75, """"), ""),
+IF('Test Definitions'!$V75&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V75, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="str">
+        <f>IF('Test Definitions'!A76&lt;&gt;"",'Test Definitions'!A76,"")</f>
+        <v/>
+      </c>
+      <c r="B64" s="23" t="str">
+        <f>IF('Test Definitions'!B76&lt;&gt;"",'Test Definitions'!B76,"")</f>
+        <v/>
+      </c>
+      <c r="C64" s="23" t="str">
+        <f>IF('Test Definitions'!C76&lt;&gt;"",'Test Definitions'!C76,"")</f>
+        <v/>
+      </c>
+      <c r="D64" s="23" t="str">
+        <f>IF('Test Definitions'!D76&lt;&gt;"",'Test Definitions'!D76,"")</f>
+        <v/>
+      </c>
+      <c r="E64" s="23" t="str">
+        <f>IF($B64&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B76, """"),""),
+IF('Test Definitions'!$C76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C76, """"), ""),
+IF('Test Definitions'!$D76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D76, """"), ""),
+IF('Test Definitions'!$E76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E76, """"), ""),
+IF('Test Definitions'!$F76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F76, """"), ""),
+IF('Test Definitions'!$G76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G76, """"), ""),
+IF('Test Definitions'!$H76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H76, """"), ""),
+IF('Test Definitions'!$I76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I76, """"), ""),
+IF('Test Definitions'!$J76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J76, """"), ""),
+IF('Test Definitions'!$K76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K76, """"), ""),
+IF('Test Definitions'!$L76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L76, """"), ""),
+IF('Test Definitions'!$M76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M76, """"), ""),
+IF('Test Definitions'!$N76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N76, """"), ""),
+IF('Test Definitions'!$O76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O76, """"), ""),
+IF('Test Definitions'!$P76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P76, """"), ""),
+IF('Test Definitions'!$Q76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q76, """"), ""),
+IF('Test Definitions'!$R76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R76, """"), ""),
+IF('Test Definitions'!$S76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S76, """"), ""),
+IF('Test Definitions'!$T76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T76, """"), ""),
+IF('Test Definitions'!$U76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U76, """"), ""),
+IF('Test Definitions'!$V76&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V76, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="str">
+        <f>IF('Test Definitions'!A77&lt;&gt;"",'Test Definitions'!A77,"")</f>
+        <v/>
+      </c>
+      <c r="B65" s="23" t="str">
+        <f>IF('Test Definitions'!B77&lt;&gt;"",'Test Definitions'!B77,"")</f>
+        <v/>
+      </c>
+      <c r="C65" s="23" t="str">
+        <f>IF('Test Definitions'!C77&lt;&gt;"",'Test Definitions'!C77,"")</f>
+        <v/>
+      </c>
+      <c r="D65" s="23" t="str">
+        <f>IF('Test Definitions'!D77&lt;&gt;"",'Test Definitions'!D77,"")</f>
+        <v/>
+      </c>
+      <c r="E65" s="23" t="str">
+        <f>IF($B65&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B77, """"),""),
+IF('Test Definitions'!$C77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C77, """"), ""),
+IF('Test Definitions'!$D77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D77, """"), ""),
+IF('Test Definitions'!$E77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E77, """"), ""),
+IF('Test Definitions'!$F77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F77, """"), ""),
+IF('Test Definitions'!$G77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G77, """"), ""),
+IF('Test Definitions'!$H77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H77, """"), ""),
+IF('Test Definitions'!$I77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I77, """"), ""),
+IF('Test Definitions'!$J77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J77, """"), ""),
+IF('Test Definitions'!$K77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K77, """"), ""),
+IF('Test Definitions'!$L77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L77, """"), ""),
+IF('Test Definitions'!$M77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M77, """"), ""),
+IF('Test Definitions'!$N77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N77, """"), ""),
+IF('Test Definitions'!$O77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O77, """"), ""),
+IF('Test Definitions'!$P77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P77, """"), ""),
+IF('Test Definitions'!$Q77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q77, """"), ""),
+IF('Test Definitions'!$R77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R77, """"), ""),
+IF('Test Definitions'!$S77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S77, """"), ""),
+IF('Test Definitions'!$T77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T77, """"), ""),
+IF('Test Definitions'!$U77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U77, """"), ""),
+IF('Test Definitions'!$V77&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V77, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="str">
+        <f>IF('Test Definitions'!A78&lt;&gt;"",'Test Definitions'!A78,"")</f>
+        <v/>
+      </c>
+      <c r="B66" s="23" t="str">
+        <f>IF('Test Definitions'!B78&lt;&gt;"",'Test Definitions'!B78,"")</f>
+        <v/>
+      </c>
+      <c r="C66" s="23" t="str">
+        <f>IF('Test Definitions'!C78&lt;&gt;"",'Test Definitions'!C78,"")</f>
+        <v/>
+      </c>
+      <c r="D66" s="23" t="str">
+        <f>IF('Test Definitions'!D78&lt;&gt;"",'Test Definitions'!D78,"")</f>
+        <v/>
+      </c>
+      <c r="E66" s="23" t="str">
+        <f>IF($B66&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B78, """"),""),
+IF('Test Definitions'!$C78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C78, """"), ""),
+IF('Test Definitions'!$D78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D78, """"), ""),
+IF('Test Definitions'!$E78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E78, """"), ""),
+IF('Test Definitions'!$F78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F78, """"), ""),
+IF('Test Definitions'!$G78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G78, """"), ""),
+IF('Test Definitions'!$H78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H78, """"), ""),
+IF('Test Definitions'!$I78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I78, """"), ""),
+IF('Test Definitions'!$J78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J78, """"), ""),
+IF('Test Definitions'!$K78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K78, """"), ""),
+IF('Test Definitions'!$L78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L78, """"), ""),
+IF('Test Definitions'!$M78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M78, """"), ""),
+IF('Test Definitions'!$N78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N78, """"), ""),
+IF('Test Definitions'!$O78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O78, """"), ""),
+IF('Test Definitions'!$P78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P78, """"), ""),
+IF('Test Definitions'!$Q78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q78, """"), ""),
+IF('Test Definitions'!$R78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R78, """"), ""),
+IF('Test Definitions'!$S78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S78, """"), ""),
+IF('Test Definitions'!$T78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T78, """"), ""),
+IF('Test Definitions'!$U78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U78, """"), ""),
+IF('Test Definitions'!$V78&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V78, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="str">
+        <f>IF('Test Definitions'!A79&lt;&gt;"",'Test Definitions'!A79,"")</f>
+        <v/>
+      </c>
+      <c r="B67" s="23" t="str">
+        <f>IF('Test Definitions'!B79&lt;&gt;"",'Test Definitions'!B79,"")</f>
+        <v/>
+      </c>
+      <c r="C67" s="23" t="str">
+        <f>IF('Test Definitions'!C79&lt;&gt;"",'Test Definitions'!C79,"")</f>
+        <v/>
+      </c>
+      <c r="D67" s="23" t="str">
+        <f>IF('Test Definitions'!D79&lt;&gt;"",'Test Definitions'!D79,"")</f>
+        <v/>
+      </c>
+      <c r="E67" s="23" t="str">
+        <f>IF($B67&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B79, """"),""),
+IF('Test Definitions'!$C79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C79, """"), ""),
+IF('Test Definitions'!$D79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D79, """"), ""),
+IF('Test Definitions'!$E79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E79, """"), ""),
+IF('Test Definitions'!$F79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F79, """"), ""),
+IF('Test Definitions'!$G79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G79, """"), ""),
+IF('Test Definitions'!$H79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H79, """"), ""),
+IF('Test Definitions'!$I79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I79, """"), ""),
+IF('Test Definitions'!$J79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J79, """"), ""),
+IF('Test Definitions'!$K79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K79, """"), ""),
+IF('Test Definitions'!$L79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L79, """"), ""),
+IF('Test Definitions'!$M79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M79, """"), ""),
+IF('Test Definitions'!$N79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N79, """"), ""),
+IF('Test Definitions'!$O79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O79, """"), ""),
+IF('Test Definitions'!$P79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P79, """"), ""),
+IF('Test Definitions'!$Q79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q79, """"), ""),
+IF('Test Definitions'!$R79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R79, """"), ""),
+IF('Test Definitions'!$S79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S79, """"), ""),
+IF('Test Definitions'!$T79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T79, """"), ""),
+IF('Test Definitions'!$U79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U79, """"), ""),
+IF('Test Definitions'!$V79&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V79, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="str">
+        <f>IF('Test Definitions'!A80&lt;&gt;"",'Test Definitions'!A80,"")</f>
+        <v/>
+      </c>
+      <c r="B68" s="23" t="str">
+        <f>IF('Test Definitions'!B80&lt;&gt;"",'Test Definitions'!B80,"")</f>
+        <v/>
+      </c>
+      <c r="C68" s="23" t="str">
+        <f>IF('Test Definitions'!C80&lt;&gt;"",'Test Definitions'!C80,"")</f>
+        <v/>
+      </c>
+      <c r="D68" s="23" t="str">
+        <f>IF('Test Definitions'!D80&lt;&gt;"",'Test Definitions'!D80,"")</f>
+        <v/>
+      </c>
+      <c r="E68" s="23" t="str">
+        <f>IF($B68&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B80, """"),""),
+IF('Test Definitions'!$C80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C80, """"), ""),
+IF('Test Definitions'!$D80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D80, """"), ""),
+IF('Test Definitions'!$E80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E80, """"), ""),
+IF('Test Definitions'!$F80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F80, """"), ""),
+IF('Test Definitions'!$G80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G80, """"), ""),
+IF('Test Definitions'!$H80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H80, """"), ""),
+IF('Test Definitions'!$I80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I80, """"), ""),
+IF('Test Definitions'!$J80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J80, """"), ""),
+IF('Test Definitions'!$K80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K80, """"), ""),
+IF('Test Definitions'!$L80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L80, """"), ""),
+IF('Test Definitions'!$M80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M80, """"), ""),
+IF('Test Definitions'!$N80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N80, """"), ""),
+IF('Test Definitions'!$O80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O80, """"), ""),
+IF('Test Definitions'!$P80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P80, """"), ""),
+IF('Test Definitions'!$Q80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q80, """"), ""),
+IF('Test Definitions'!$R80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R80, """"), ""),
+IF('Test Definitions'!$S80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S80, """"), ""),
+IF('Test Definitions'!$T80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T80, """"), ""),
+IF('Test Definitions'!$U80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U80, """"), ""),
+IF('Test Definitions'!$V80&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V80, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="str">
+        <f>IF('Test Definitions'!A81&lt;&gt;"",'Test Definitions'!A81,"")</f>
+        <v/>
+      </c>
+      <c r="B69" s="23" t="str">
+        <f>IF('Test Definitions'!B81&lt;&gt;"",'Test Definitions'!B81,"")</f>
+        <v/>
+      </c>
+      <c r="C69" s="23" t="str">
+        <f>IF('Test Definitions'!C81&lt;&gt;"",'Test Definitions'!C81,"")</f>
+        <v/>
+      </c>
+      <c r="D69" s="23" t="str">
+        <f>IF('Test Definitions'!D81&lt;&gt;"",'Test Definitions'!D81,"")</f>
+        <v/>
+      </c>
+      <c r="E69" s="23" t="str">
+        <f>IF($B69&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B81, """"),""),
+IF('Test Definitions'!$C81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C81, """"), ""),
+IF('Test Definitions'!$D81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D81, """"), ""),
+IF('Test Definitions'!$E81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E81, """"), ""),
+IF('Test Definitions'!$F81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F81, """"), ""),
+IF('Test Definitions'!$G81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G81, """"), ""),
+IF('Test Definitions'!$H81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H81, """"), ""),
+IF('Test Definitions'!$I81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I81, """"), ""),
+IF('Test Definitions'!$J81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J81, """"), ""),
+IF('Test Definitions'!$K81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K81, """"), ""),
+IF('Test Definitions'!$L81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L81, """"), ""),
+IF('Test Definitions'!$M81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M81, """"), ""),
+IF('Test Definitions'!$N81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N81, """"), ""),
+IF('Test Definitions'!$O81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O81, """"), ""),
+IF('Test Definitions'!$P81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P81, """"), ""),
+IF('Test Definitions'!$Q81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q81, """"), ""),
+IF('Test Definitions'!$R81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R81, """"), ""),
+IF('Test Definitions'!$S81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S81, """"), ""),
+IF('Test Definitions'!$T81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T81, """"), ""),
+IF('Test Definitions'!$U81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U81, """"), ""),
+IF('Test Definitions'!$V81&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V81, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="str">
+        <f>IF('Test Definitions'!A82&lt;&gt;"",'Test Definitions'!A82,"")</f>
+        <v/>
+      </c>
+      <c r="B70" s="23" t="str">
+        <f>IF('Test Definitions'!B82&lt;&gt;"",'Test Definitions'!B82,"")</f>
+        <v/>
+      </c>
+      <c r="C70" s="23" t="str">
+        <f>IF('Test Definitions'!C82&lt;&gt;"",'Test Definitions'!C82,"")</f>
+        <v/>
+      </c>
+      <c r="D70" s="23" t="str">
+        <f>IF('Test Definitions'!D82&lt;&gt;"",'Test Definitions'!D82,"")</f>
+        <v/>
+      </c>
+      <c r="E70" s="23" t="str">
+        <f>IF($B70&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B82, """"),""),
+IF('Test Definitions'!$C82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C82, """"), ""),
+IF('Test Definitions'!$D82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D82, """"), ""),
+IF('Test Definitions'!$E82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E82, """"), ""),
+IF('Test Definitions'!$F82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F82, """"), ""),
+IF('Test Definitions'!$G82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G82, """"), ""),
+IF('Test Definitions'!$H82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H82, """"), ""),
+IF('Test Definitions'!$I82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I82, """"), ""),
+IF('Test Definitions'!$J82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J82, """"), ""),
+IF('Test Definitions'!$K82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K82, """"), ""),
+IF('Test Definitions'!$L82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L82, """"), ""),
+IF('Test Definitions'!$M82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M82, """"), ""),
+IF('Test Definitions'!$N82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N82, """"), ""),
+IF('Test Definitions'!$O82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O82, """"), ""),
+IF('Test Definitions'!$P82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P82, """"), ""),
+IF('Test Definitions'!$Q82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q82, """"), ""),
+IF('Test Definitions'!$R82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R82, """"), ""),
+IF('Test Definitions'!$S82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S82, """"), ""),
+IF('Test Definitions'!$T82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T82, """"), ""),
+IF('Test Definitions'!$U82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U82, """"), ""),
+IF('Test Definitions'!$V82&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V82, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="str">
+        <f>IF('Test Definitions'!A83&lt;&gt;"",'Test Definitions'!A83,"")</f>
+        <v/>
+      </c>
+      <c r="B71" s="23" t="str">
+        <f>IF('Test Definitions'!B83&lt;&gt;"",'Test Definitions'!B83,"")</f>
+        <v/>
+      </c>
+      <c r="C71" s="23" t="str">
+        <f>IF('Test Definitions'!C83&lt;&gt;"",'Test Definitions'!C83,"")</f>
+        <v/>
+      </c>
+      <c r="D71" s="23" t="str">
+        <f>IF('Test Definitions'!D83&lt;&gt;"",'Test Definitions'!D83,"")</f>
+        <v/>
+      </c>
+      <c r="E71" s="23" t="str">
+        <f>IF($B71&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B83, """"),""),
+IF('Test Definitions'!$C83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C83, """"), ""),
+IF('Test Definitions'!$D83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D83, """"), ""),
+IF('Test Definitions'!$E83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E83, """"), ""),
+IF('Test Definitions'!$F83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F83, """"), ""),
+IF('Test Definitions'!$G83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G83, """"), ""),
+IF('Test Definitions'!$H83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H83, """"), ""),
+IF('Test Definitions'!$I83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I83, """"), ""),
+IF('Test Definitions'!$J83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J83, """"), ""),
+IF('Test Definitions'!$K83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K83, """"), ""),
+IF('Test Definitions'!$L83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L83, """"), ""),
+IF('Test Definitions'!$M83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M83, """"), ""),
+IF('Test Definitions'!$N83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N83, """"), ""),
+IF('Test Definitions'!$O83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O83, """"), ""),
+IF('Test Definitions'!$P83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P83, """"), ""),
+IF('Test Definitions'!$Q83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q83, """"), ""),
+IF('Test Definitions'!$R83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R83, """"), ""),
+IF('Test Definitions'!$S83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S83, """"), ""),
+IF('Test Definitions'!$T83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T83, """"), ""),
+IF('Test Definitions'!$U83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U83, """"), ""),
+IF('Test Definitions'!$V83&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V83, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="str">
+        <f>IF('Test Definitions'!A84&lt;&gt;"",'Test Definitions'!A84,"")</f>
+        <v/>
+      </c>
+      <c r="B72" s="23" t="str">
+        <f>IF('Test Definitions'!B84&lt;&gt;"",'Test Definitions'!B84,"")</f>
+        <v/>
+      </c>
+      <c r="C72" s="23" t="str">
+        <f>IF('Test Definitions'!C84&lt;&gt;"",'Test Definitions'!C84,"")</f>
+        <v/>
+      </c>
+      <c r="D72" s="23" t="str">
+        <f>IF('Test Definitions'!D84&lt;&gt;"",'Test Definitions'!D84,"")</f>
+        <v/>
+      </c>
+      <c r="E72" s="23" t="str">
+        <f>IF($B72&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B84, """"),""),
+IF('Test Definitions'!$C84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C84, """"), ""),
+IF('Test Definitions'!$D84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D84, """"), ""),
+IF('Test Definitions'!$E84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E84, """"), ""),
+IF('Test Definitions'!$F84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F84, """"), ""),
+IF('Test Definitions'!$G84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G84, """"), ""),
+IF('Test Definitions'!$H84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H84, """"), ""),
+IF('Test Definitions'!$I84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I84, """"), ""),
+IF('Test Definitions'!$J84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J84, """"), ""),
+IF('Test Definitions'!$K84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K84, """"), ""),
+IF('Test Definitions'!$L84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L84, """"), ""),
+IF('Test Definitions'!$M84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M84, """"), ""),
+IF('Test Definitions'!$N84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N84, """"), ""),
+IF('Test Definitions'!$O84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O84, """"), ""),
+IF('Test Definitions'!$P84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P84, """"), ""),
+IF('Test Definitions'!$Q84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q84, """"), ""),
+IF('Test Definitions'!$R84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R84, """"), ""),
+IF('Test Definitions'!$S84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S84, """"), ""),
+IF('Test Definitions'!$T84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T84, """"), ""),
+IF('Test Definitions'!$U84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U84, """"), ""),
+IF('Test Definitions'!$V84&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V84, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="str">
+        <f>IF('Test Definitions'!A85&lt;&gt;"",'Test Definitions'!A85,"")</f>
+        <v/>
+      </c>
+      <c r="B73" s="23" t="str">
+        <f>IF('Test Definitions'!B85&lt;&gt;"",'Test Definitions'!B85,"")</f>
+        <v/>
+      </c>
+      <c r="C73" s="23" t="str">
+        <f>IF('Test Definitions'!C85&lt;&gt;"",'Test Definitions'!C85,"")</f>
+        <v/>
+      </c>
+      <c r="D73" s="23" t="str">
+        <f>IF('Test Definitions'!D85&lt;&gt;"",'Test Definitions'!D85,"")</f>
+        <v/>
+      </c>
+      <c r="E73" s="23" t="str">
+        <f>IF($B73&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B85, """"),""),
+IF('Test Definitions'!$C85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C85, """"), ""),
+IF('Test Definitions'!$D85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D85, """"), ""),
+IF('Test Definitions'!$E85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E85, """"), ""),
+IF('Test Definitions'!$F85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F85, """"), ""),
+IF('Test Definitions'!$G85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G85, """"), ""),
+IF('Test Definitions'!$H85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H85, """"), ""),
+IF('Test Definitions'!$I85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I85, """"), ""),
+IF('Test Definitions'!$J85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J85, """"), ""),
+IF('Test Definitions'!$K85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K85, """"), ""),
+IF('Test Definitions'!$L85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L85, """"), ""),
+IF('Test Definitions'!$M85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M85, """"), ""),
+IF('Test Definitions'!$N85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N85, """"), ""),
+IF('Test Definitions'!$O85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O85, """"), ""),
+IF('Test Definitions'!$P85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P85, """"), ""),
+IF('Test Definitions'!$Q85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q85, """"), ""),
+IF('Test Definitions'!$R85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R85, """"), ""),
+IF('Test Definitions'!$S85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S85, """"), ""),
+IF('Test Definitions'!$T85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T85, """"), ""),
+IF('Test Definitions'!$U85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U85, """"), ""),
+IF('Test Definitions'!$V85&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V85, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="str">
+        <f>IF('Test Definitions'!A86&lt;&gt;"",'Test Definitions'!A86,"")</f>
+        <v/>
+      </c>
+      <c r="B74" s="23" t="str">
+        <f>IF('Test Definitions'!B86&lt;&gt;"",'Test Definitions'!B86,"")</f>
+        <v/>
+      </c>
+      <c r="C74" s="23" t="str">
+        <f>IF('Test Definitions'!C86&lt;&gt;"",'Test Definitions'!C86,"")</f>
+        <v/>
+      </c>
+      <c r="D74" s="23" t="str">
+        <f>IF('Test Definitions'!D86&lt;&gt;"",'Test Definitions'!D86,"")</f>
+        <v/>
+      </c>
+      <c r="E74" s="23" t="str">
+        <f>IF($B74&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B86, """"),""),
+IF('Test Definitions'!$C86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C86, """"), ""),
+IF('Test Definitions'!$D86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D86, """"), ""),
+IF('Test Definitions'!$E86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E86, """"), ""),
+IF('Test Definitions'!$F86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F86, """"), ""),
+IF('Test Definitions'!$G86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G86, """"), ""),
+IF('Test Definitions'!$H86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H86, """"), ""),
+IF('Test Definitions'!$I86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I86, """"), ""),
+IF('Test Definitions'!$J86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J86, """"), ""),
+IF('Test Definitions'!$K86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K86, """"), ""),
+IF('Test Definitions'!$L86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L86, """"), ""),
+IF('Test Definitions'!$M86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M86, """"), ""),
+IF('Test Definitions'!$N86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N86, """"), ""),
+IF('Test Definitions'!$O86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O86, """"), ""),
+IF('Test Definitions'!$P86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P86, """"), ""),
+IF('Test Definitions'!$Q86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q86, """"), ""),
+IF('Test Definitions'!$R86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R86, """"), ""),
+IF('Test Definitions'!$S86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S86, """"), ""),
+IF('Test Definitions'!$T86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T86, """"), ""),
+IF('Test Definitions'!$U86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U86, """"), ""),
+IF('Test Definitions'!$V86&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V86, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="str">
+        <f>IF('Test Definitions'!A87&lt;&gt;"",'Test Definitions'!A87,"")</f>
+        <v/>
+      </c>
+      <c r="B75" s="23" t="str">
+        <f>IF('Test Definitions'!B87&lt;&gt;"",'Test Definitions'!B87,"")</f>
+        <v/>
+      </c>
+      <c r="C75" s="23" t="str">
+        <f>IF('Test Definitions'!C87&lt;&gt;"",'Test Definitions'!C87,"")</f>
+        <v/>
+      </c>
+      <c r="D75" s="23" t="str">
+        <f>IF('Test Definitions'!D87&lt;&gt;"",'Test Definitions'!D87,"")</f>
+        <v/>
+      </c>
+      <c r="E75" s="23" t="str">
+        <f>IF($B75&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B87, """"),""),
+IF('Test Definitions'!$C87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C87, """"), ""),
+IF('Test Definitions'!$D87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D87, """"), ""),
+IF('Test Definitions'!$E87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E87, """"), ""),
+IF('Test Definitions'!$F87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F87, """"), ""),
+IF('Test Definitions'!$G87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G87, """"), ""),
+IF('Test Definitions'!$H87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H87, """"), ""),
+IF('Test Definitions'!$I87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I87, """"), ""),
+IF('Test Definitions'!$J87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J87, """"), ""),
+IF('Test Definitions'!$K87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K87, """"), ""),
+IF('Test Definitions'!$L87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L87, """"), ""),
+IF('Test Definitions'!$M87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M87, """"), ""),
+IF('Test Definitions'!$N87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N87, """"), ""),
+IF('Test Definitions'!$O87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O87, """"), ""),
+IF('Test Definitions'!$P87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P87, """"), ""),
+IF('Test Definitions'!$Q87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q87, """"), ""),
+IF('Test Definitions'!$R87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R87, """"), ""),
+IF('Test Definitions'!$S87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S87, """"), ""),
+IF('Test Definitions'!$T87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T87, """"), ""),
+IF('Test Definitions'!$U87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U87, """"), ""),
+IF('Test Definitions'!$V87&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V87, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="str">
+        <f>IF('Test Definitions'!A88&lt;&gt;"",'Test Definitions'!A88,"")</f>
+        <v/>
+      </c>
+      <c r="B76" s="23" t="str">
+        <f>IF('Test Definitions'!B88&lt;&gt;"",'Test Definitions'!B88,"")</f>
+        <v/>
+      </c>
+      <c r="C76" s="23" t="str">
+        <f>IF('Test Definitions'!C88&lt;&gt;"",'Test Definitions'!C88,"")</f>
+        <v/>
+      </c>
+      <c r="D76" s="23" t="str">
+        <f>IF('Test Definitions'!D88&lt;&gt;"",'Test Definitions'!D88,"")</f>
+        <v/>
+      </c>
+      <c r="E76" s="23" t="str">
+        <f>IF($B76&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B88, """"),""),
+IF('Test Definitions'!$C88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C88, """"), ""),
+IF('Test Definitions'!$D88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D88, """"), ""),
+IF('Test Definitions'!$E88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E88, """"), ""),
+IF('Test Definitions'!$F88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F88, """"), ""),
+IF('Test Definitions'!$G88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G88, """"), ""),
+IF('Test Definitions'!$H88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H88, """"), ""),
+IF('Test Definitions'!$I88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I88, """"), ""),
+IF('Test Definitions'!$J88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J88, """"), ""),
+IF('Test Definitions'!$K88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K88, """"), ""),
+IF('Test Definitions'!$L88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L88, """"), ""),
+IF('Test Definitions'!$M88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M88, """"), ""),
+IF('Test Definitions'!$N88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N88, """"), ""),
+IF('Test Definitions'!$O88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O88, """"), ""),
+IF('Test Definitions'!$P88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P88, """"), ""),
+IF('Test Definitions'!$Q88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q88, """"), ""),
+IF('Test Definitions'!$R88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R88, """"), ""),
+IF('Test Definitions'!$S88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S88, """"), ""),
+IF('Test Definitions'!$T88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T88, """"), ""),
+IF('Test Definitions'!$U88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U88, """"), ""),
+IF('Test Definitions'!$V88&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V88, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="str">
+        <f>IF('Test Definitions'!A89&lt;&gt;"",'Test Definitions'!A89,"")</f>
+        <v/>
+      </c>
+      <c r="B77" s="23" t="str">
+        <f>IF('Test Definitions'!B89&lt;&gt;"",'Test Definitions'!B89,"")</f>
+        <v/>
+      </c>
+      <c r="C77" s="23" t="str">
+        <f>IF('Test Definitions'!C89&lt;&gt;"",'Test Definitions'!C89,"")</f>
+        <v/>
+      </c>
+      <c r="D77" s="23" t="str">
+        <f>IF('Test Definitions'!D89&lt;&gt;"",'Test Definitions'!D89,"")</f>
+        <v/>
+      </c>
+      <c r="E77" s="23" t="str">
+        <f>IF($B77&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B89, """"),""),
+IF('Test Definitions'!$C89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C89, """"), ""),
+IF('Test Definitions'!$D89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D89, """"), ""),
+IF('Test Definitions'!$E89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E89, """"), ""),
+IF('Test Definitions'!$F89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F89, """"), ""),
+IF('Test Definitions'!$G89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G89, """"), ""),
+IF('Test Definitions'!$H89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H89, """"), ""),
+IF('Test Definitions'!$I89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I89, """"), ""),
+IF('Test Definitions'!$J89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J89, """"), ""),
+IF('Test Definitions'!$K89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K89, """"), ""),
+IF('Test Definitions'!$L89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L89, """"), ""),
+IF('Test Definitions'!$M89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M89, """"), ""),
+IF('Test Definitions'!$N89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N89, """"), ""),
+IF('Test Definitions'!$O89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O89, """"), ""),
+IF('Test Definitions'!$P89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P89, """"), ""),
+IF('Test Definitions'!$Q89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q89, """"), ""),
+IF('Test Definitions'!$R89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R89, """"), ""),
+IF('Test Definitions'!$S89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S89, """"), ""),
+IF('Test Definitions'!$T89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T89, """"), ""),
+IF('Test Definitions'!$U89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U89, """"), ""),
+IF('Test Definitions'!$V89&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V89, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="str">
+        <f>IF('Test Definitions'!A90&lt;&gt;"",'Test Definitions'!A90,"")</f>
+        <v/>
+      </c>
+      <c r="B78" s="23" t="str">
+        <f>IF('Test Definitions'!B90&lt;&gt;"",'Test Definitions'!B90,"")</f>
+        <v/>
+      </c>
+      <c r="C78" s="23" t="str">
+        <f>IF('Test Definitions'!C90&lt;&gt;"",'Test Definitions'!C90,"")</f>
+        <v/>
+      </c>
+      <c r="D78" s="23" t="str">
+        <f>IF('Test Definitions'!D90&lt;&gt;"",'Test Definitions'!D90,"")</f>
+        <v/>
+      </c>
+      <c r="E78" s="23" t="str">
+        <f>IF($B78&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B90, """"),""),
+IF('Test Definitions'!$C90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C90, """"), ""),
+IF('Test Definitions'!$D90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D90, """"), ""),
+IF('Test Definitions'!$E90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E90, """"), ""),
+IF('Test Definitions'!$F90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F90, """"), ""),
+IF('Test Definitions'!$G90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G90, """"), ""),
+IF('Test Definitions'!$H90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H90, """"), ""),
+IF('Test Definitions'!$I90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I90, """"), ""),
+IF('Test Definitions'!$J90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J90, """"), ""),
+IF('Test Definitions'!$K90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K90, """"), ""),
+IF('Test Definitions'!$L90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L90, """"), ""),
+IF('Test Definitions'!$M90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M90, """"), ""),
+IF('Test Definitions'!$N90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N90, """"), ""),
+IF('Test Definitions'!$O90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O90, """"), ""),
+IF('Test Definitions'!$P90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P90, """"), ""),
+IF('Test Definitions'!$Q90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q90, """"), ""),
+IF('Test Definitions'!$R90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R90, """"), ""),
+IF('Test Definitions'!$S90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S90, """"), ""),
+IF('Test Definitions'!$T90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T90, """"), ""),
+IF('Test Definitions'!$U90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U90, """"), ""),
+IF('Test Definitions'!$V90&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V90, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="str">
+        <f>IF('Test Definitions'!A91&lt;&gt;"",'Test Definitions'!A91,"")</f>
+        <v/>
+      </c>
+      <c r="B79" s="23" t="str">
+        <f>IF('Test Definitions'!B91&lt;&gt;"",'Test Definitions'!B91,"")</f>
+        <v/>
+      </c>
+      <c r="C79" s="23" t="str">
+        <f>IF('Test Definitions'!C91&lt;&gt;"",'Test Definitions'!C91,"")</f>
+        <v/>
+      </c>
+      <c r="D79" s="23" t="str">
+        <f>IF('Test Definitions'!D91&lt;&gt;"",'Test Definitions'!D91,"")</f>
+        <v/>
+      </c>
+      <c r="E79" s="23" t="str">
+        <f>IF($B79&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B91, """"),""),
+IF('Test Definitions'!$C91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C91, """"), ""),
+IF('Test Definitions'!$D91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D91, """"), ""),
+IF('Test Definitions'!$E91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E91, """"), ""),
+IF('Test Definitions'!$F91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F91, """"), ""),
+IF('Test Definitions'!$G91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G91, """"), ""),
+IF('Test Definitions'!$H91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H91, """"), ""),
+IF('Test Definitions'!$I91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I91, """"), ""),
+IF('Test Definitions'!$J91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J91, """"), ""),
+IF('Test Definitions'!$K91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K91, """"), ""),
+IF('Test Definitions'!$L91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L91, """"), ""),
+IF('Test Definitions'!$M91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M91, """"), ""),
+IF('Test Definitions'!$N91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N91, """"), ""),
+IF('Test Definitions'!$O91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O91, """"), ""),
+IF('Test Definitions'!$P91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P91, """"), ""),
+IF('Test Definitions'!$Q91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q91, """"), ""),
+IF('Test Definitions'!$R91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R91, """"), ""),
+IF('Test Definitions'!$S91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S91, """"), ""),
+IF('Test Definitions'!$T91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T91, """"), ""),
+IF('Test Definitions'!$U91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U91, """"), ""),
+IF('Test Definitions'!$V91&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V91, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="str">
+        <f>IF('Test Definitions'!A92&lt;&gt;"",'Test Definitions'!A92,"")</f>
+        <v/>
+      </c>
+      <c r="B80" s="23" t="str">
+        <f>IF('Test Definitions'!B92&lt;&gt;"",'Test Definitions'!B92,"")</f>
+        <v/>
+      </c>
+      <c r="C80" s="23" t="str">
+        <f>IF('Test Definitions'!C92&lt;&gt;"",'Test Definitions'!C92,"")</f>
+        <v/>
+      </c>
+      <c r="D80" s="23" t="str">
+        <f>IF('Test Definitions'!D92&lt;&gt;"",'Test Definitions'!D92,"")</f>
+        <v/>
+      </c>
+      <c r="E80" s="23" t="str">
+        <f>IF($B80&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B92, """"),""),
+IF('Test Definitions'!$C92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C92, """"), ""),
+IF('Test Definitions'!$D92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D92, """"), ""),
+IF('Test Definitions'!$E92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E92, """"), ""),
+IF('Test Definitions'!$F92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F92, """"), ""),
+IF('Test Definitions'!$G92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G92, """"), ""),
+IF('Test Definitions'!$H92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H92, """"), ""),
+IF('Test Definitions'!$I92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I92, """"), ""),
+IF('Test Definitions'!$J92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J92, """"), ""),
+IF('Test Definitions'!$K92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K92, """"), ""),
+IF('Test Definitions'!$L92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L92, """"), ""),
+IF('Test Definitions'!$M92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M92, """"), ""),
+IF('Test Definitions'!$N92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N92, """"), ""),
+IF('Test Definitions'!$O92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O92, """"), ""),
+IF('Test Definitions'!$P92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P92, """"), ""),
+IF('Test Definitions'!$Q92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q92, """"), ""),
+IF('Test Definitions'!$R92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R92, """"), ""),
+IF('Test Definitions'!$S92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S92, """"), ""),
+IF('Test Definitions'!$T92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T92, """"), ""),
+IF('Test Definitions'!$U92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U92, """"), ""),
+IF('Test Definitions'!$V92&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V92, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="str">
+        <f>IF('Test Definitions'!A93&lt;&gt;"",'Test Definitions'!A93,"")</f>
+        <v/>
+      </c>
+      <c r="B81" s="23" t="str">
+        <f>IF('Test Definitions'!B93&lt;&gt;"",'Test Definitions'!B93,"")</f>
+        <v/>
+      </c>
+      <c r="C81" s="23" t="str">
+        <f>IF('Test Definitions'!C93&lt;&gt;"",'Test Definitions'!C93,"")</f>
+        <v/>
+      </c>
+      <c r="D81" s="23" t="str">
+        <f>IF('Test Definitions'!D93&lt;&gt;"",'Test Definitions'!D93,"")</f>
+        <v/>
+      </c>
+      <c r="E81" s="23" t="str">
+        <f>IF($B81&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B93, """"),""),
+IF('Test Definitions'!$C93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C93, """"), ""),
+IF('Test Definitions'!$D93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D93, """"), ""),
+IF('Test Definitions'!$E93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E93, """"), ""),
+IF('Test Definitions'!$F93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F93, """"), ""),
+IF('Test Definitions'!$G93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G93, """"), ""),
+IF('Test Definitions'!$H93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H93, """"), ""),
+IF('Test Definitions'!$I93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I93, """"), ""),
+IF('Test Definitions'!$J93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J93, """"), ""),
+IF('Test Definitions'!$K93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K93, """"), ""),
+IF('Test Definitions'!$L93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L93, """"), ""),
+IF('Test Definitions'!$M93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M93, """"), ""),
+IF('Test Definitions'!$N93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N93, """"), ""),
+IF('Test Definitions'!$O93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O93, """"), ""),
+IF('Test Definitions'!$P93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P93, """"), ""),
+IF('Test Definitions'!$Q93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q93, """"), ""),
+IF('Test Definitions'!$R93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R93, """"), ""),
+IF('Test Definitions'!$S93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S93, """"), ""),
+IF('Test Definitions'!$T93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T93, """"), ""),
+IF('Test Definitions'!$U93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U93, """"), ""),
+IF('Test Definitions'!$V93&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V93, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="str">
+        <f>IF('Test Definitions'!A94&lt;&gt;"",'Test Definitions'!A94,"")</f>
+        <v/>
+      </c>
+      <c r="B82" s="23" t="str">
+        <f>IF('Test Definitions'!B94&lt;&gt;"",'Test Definitions'!B94,"")</f>
+        <v/>
+      </c>
+      <c r="C82" s="23" t="str">
+        <f>IF('Test Definitions'!C94&lt;&gt;"",'Test Definitions'!C94,"")</f>
+        <v/>
+      </c>
+      <c r="D82" s="23" t="str">
+        <f>IF('Test Definitions'!D94&lt;&gt;"",'Test Definitions'!D94,"")</f>
+        <v/>
+      </c>
+      <c r="E82" s="23" t="str">
+        <f>IF($B82&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B94, """"),""),
+IF('Test Definitions'!$C94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C94, """"), ""),
+IF('Test Definitions'!$D94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D94, """"), ""),
+IF('Test Definitions'!$E94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E94, """"), ""),
+IF('Test Definitions'!$F94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F94, """"), ""),
+IF('Test Definitions'!$G94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G94, """"), ""),
+IF('Test Definitions'!$H94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H94, """"), ""),
+IF('Test Definitions'!$I94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I94, """"), ""),
+IF('Test Definitions'!$J94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J94, """"), ""),
+IF('Test Definitions'!$K94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K94, """"), ""),
+IF('Test Definitions'!$L94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L94, """"), ""),
+IF('Test Definitions'!$M94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M94, """"), ""),
+IF('Test Definitions'!$N94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N94, """"), ""),
+IF('Test Definitions'!$O94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O94, """"), ""),
+IF('Test Definitions'!$P94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P94, """"), ""),
+IF('Test Definitions'!$Q94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q94, """"), ""),
+IF('Test Definitions'!$R94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R94, """"), ""),
+IF('Test Definitions'!$S94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S94, """"), ""),
+IF('Test Definitions'!$T94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T94, """"), ""),
+IF('Test Definitions'!$U94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U94, """"), ""),
+IF('Test Definitions'!$V94&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V94, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="str">
+        <f>IF('Test Definitions'!A95&lt;&gt;"",'Test Definitions'!A95,"")</f>
+        <v/>
+      </c>
+      <c r="B83" s="23" t="str">
+        <f>IF('Test Definitions'!B95&lt;&gt;"",'Test Definitions'!B95,"")</f>
+        <v/>
+      </c>
+      <c r="C83" s="23" t="str">
+        <f>IF('Test Definitions'!C95&lt;&gt;"",'Test Definitions'!C95,"")</f>
+        <v/>
+      </c>
+      <c r="D83" s="23" t="str">
+        <f>IF('Test Definitions'!D95&lt;&gt;"",'Test Definitions'!D95,"")</f>
+        <v/>
+      </c>
+      <c r="E83" s="23" t="str">
+        <f>IF($B83&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B95, """"),""),
+IF('Test Definitions'!$C95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C95, """"), ""),
+IF('Test Definitions'!$D95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D95, """"), ""),
+IF('Test Definitions'!$E95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E95, """"), ""),
+IF('Test Definitions'!$F95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F95, """"), ""),
+IF('Test Definitions'!$G95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G95, """"), ""),
+IF('Test Definitions'!$H95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H95, """"), ""),
+IF('Test Definitions'!$I95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I95, """"), ""),
+IF('Test Definitions'!$J95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J95, """"), ""),
+IF('Test Definitions'!$K95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K95, """"), ""),
+IF('Test Definitions'!$L95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L95, """"), ""),
+IF('Test Definitions'!$M95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M95, """"), ""),
+IF('Test Definitions'!$N95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N95, """"), ""),
+IF('Test Definitions'!$O95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O95, """"), ""),
+IF('Test Definitions'!$P95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P95, """"), ""),
+IF('Test Definitions'!$Q95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q95, """"), ""),
+IF('Test Definitions'!$R95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R95, """"), ""),
+IF('Test Definitions'!$S95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S95, """"), ""),
+IF('Test Definitions'!$T95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T95, """"), ""),
+IF('Test Definitions'!$U95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U95, """"), ""),
+IF('Test Definitions'!$V95&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V95, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="str">
+        <f>IF('Test Definitions'!A96&lt;&gt;"",'Test Definitions'!A96,"")</f>
+        <v/>
+      </c>
+      <c r="B84" s="23" t="str">
+        <f>IF('Test Definitions'!B96&lt;&gt;"",'Test Definitions'!B96,"")</f>
+        <v/>
+      </c>
+      <c r="C84" s="23" t="str">
+        <f>IF('Test Definitions'!C96&lt;&gt;"",'Test Definitions'!C96,"")</f>
+        <v/>
+      </c>
+      <c r="D84" s="23" t="str">
+        <f>IF('Test Definitions'!D96&lt;&gt;"",'Test Definitions'!D96,"")</f>
+        <v/>
+      </c>
+      <c r="E84" s="23" t="str">
+        <f>IF($B84&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B96, """"),""),
+IF('Test Definitions'!$C96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C96, """"), ""),
+IF('Test Definitions'!$D96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D96, """"), ""),
+IF('Test Definitions'!$E96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E96, """"), ""),
+IF('Test Definitions'!$F96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F96, """"), ""),
+IF('Test Definitions'!$G96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G96, """"), ""),
+IF('Test Definitions'!$H96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H96, """"), ""),
+IF('Test Definitions'!$I96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I96, """"), ""),
+IF('Test Definitions'!$J96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J96, """"), ""),
+IF('Test Definitions'!$K96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K96, """"), ""),
+IF('Test Definitions'!$L96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L96, """"), ""),
+IF('Test Definitions'!$M96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M96, """"), ""),
+IF('Test Definitions'!$N96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N96, """"), ""),
+IF('Test Definitions'!$O96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O96, """"), ""),
+IF('Test Definitions'!$P96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P96, """"), ""),
+IF('Test Definitions'!$Q96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q96, """"), ""),
+IF('Test Definitions'!$R96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R96, """"), ""),
+IF('Test Definitions'!$S96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S96, """"), ""),
+IF('Test Definitions'!$T96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T96, """"), ""),
+IF('Test Definitions'!$U96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U96, """"), ""),
+IF('Test Definitions'!$V96&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V96, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="23" t="str">
+        <f>IF('Test Definitions'!A97&lt;&gt;"",'Test Definitions'!A97,"")</f>
+        <v/>
+      </c>
+      <c r="B85" s="23" t="str">
+        <f>IF('Test Definitions'!B97&lt;&gt;"",'Test Definitions'!B97,"")</f>
+        <v/>
+      </c>
+      <c r="C85" s="23" t="str">
+        <f>IF('Test Definitions'!C97&lt;&gt;"",'Test Definitions'!C97,"")</f>
+        <v/>
+      </c>
+      <c r="D85" s="23" t="str">
+        <f>IF('Test Definitions'!D97&lt;&gt;"",'Test Definitions'!D97,"")</f>
+        <v/>
+      </c>
+      <c r="E85" s="23" t="str">
+        <f>IF($B85&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B97, """"),""),
+IF('Test Definitions'!$C97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C97, """"), ""),
+IF('Test Definitions'!$D97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D97, """"), ""),
+IF('Test Definitions'!$E97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E97, """"), ""),
+IF('Test Definitions'!$F97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F97, """"), ""),
+IF('Test Definitions'!$G97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G97, """"), ""),
+IF('Test Definitions'!$H97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H97, """"), ""),
+IF('Test Definitions'!$I97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I97, """"), ""),
+IF('Test Definitions'!$J97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J97, """"), ""),
+IF('Test Definitions'!$K97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K97, """"), ""),
+IF('Test Definitions'!$L97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L97, """"), ""),
+IF('Test Definitions'!$M97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M97, """"), ""),
+IF('Test Definitions'!$N97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N97, """"), ""),
+IF('Test Definitions'!$O97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O97, """"), ""),
+IF('Test Definitions'!$P97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P97, """"), ""),
+IF('Test Definitions'!$Q97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q97, """"), ""),
+IF('Test Definitions'!$R97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R97, """"), ""),
+IF('Test Definitions'!$S97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S97, """"), ""),
+IF('Test Definitions'!$T97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T97, """"), ""),
+IF('Test Definitions'!$U97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U97, """"), ""),
+IF('Test Definitions'!$V97&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V97, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="str">
+        <f>IF('Test Definitions'!A98&lt;&gt;"",'Test Definitions'!A98,"")</f>
+        <v/>
+      </c>
+      <c r="B86" s="23" t="str">
+        <f>IF('Test Definitions'!B98&lt;&gt;"",'Test Definitions'!B98,"")</f>
+        <v/>
+      </c>
+      <c r="C86" s="23" t="str">
+        <f>IF('Test Definitions'!C98&lt;&gt;"",'Test Definitions'!C98,"")</f>
+        <v/>
+      </c>
+      <c r="D86" s="23" t="str">
+        <f>IF('Test Definitions'!D98&lt;&gt;"",'Test Definitions'!D98,"")</f>
+        <v/>
+      </c>
+      <c r="E86" s="23" t="str">
+        <f>IF($B86&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B98, """"),""),
+IF('Test Definitions'!$C98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C98, """"), ""),
+IF('Test Definitions'!$D98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D98, """"), ""),
+IF('Test Definitions'!$E98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E98, """"), ""),
+IF('Test Definitions'!$F98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F98, """"), ""),
+IF('Test Definitions'!$G98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G98, """"), ""),
+IF('Test Definitions'!$H98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H98, """"), ""),
+IF('Test Definitions'!$I98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I98, """"), ""),
+IF('Test Definitions'!$J98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J98, """"), ""),
+IF('Test Definitions'!$K98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K98, """"), ""),
+IF('Test Definitions'!$L98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L98, """"), ""),
+IF('Test Definitions'!$M98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M98, """"), ""),
+IF('Test Definitions'!$N98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N98, """"), ""),
+IF('Test Definitions'!$O98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O98, """"), ""),
+IF('Test Definitions'!$P98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P98, """"), ""),
+IF('Test Definitions'!$Q98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q98, """"), ""),
+IF('Test Definitions'!$R98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R98, """"), ""),
+IF('Test Definitions'!$S98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S98, """"), ""),
+IF('Test Definitions'!$T98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T98, """"), ""),
+IF('Test Definitions'!$U98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U98, """"), ""),
+IF('Test Definitions'!$V98&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V98, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="23" t="str">
+        <f>IF('Test Definitions'!A99&lt;&gt;"",'Test Definitions'!A99,"")</f>
+        <v/>
+      </c>
+      <c r="B87" s="23" t="str">
+        <f>IF('Test Definitions'!B99&lt;&gt;"",'Test Definitions'!B99,"")</f>
+        <v/>
+      </c>
+      <c r="C87" s="23" t="str">
+        <f>IF('Test Definitions'!C99&lt;&gt;"",'Test Definitions'!C99,"")</f>
+        <v/>
+      </c>
+      <c r="D87" s="23" t="str">
+        <f>IF('Test Definitions'!D99&lt;&gt;"",'Test Definitions'!D99,"")</f>
+        <v/>
+      </c>
+      <c r="E87" s="23" t="str">
+        <f>IF($B87&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B99, """"),""),
+IF('Test Definitions'!$C99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C99, """"), ""),
+IF('Test Definitions'!$D99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D99, """"), ""),
+IF('Test Definitions'!$E99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E99, """"), ""),
+IF('Test Definitions'!$F99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F99, """"), ""),
+IF('Test Definitions'!$G99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G99, """"), ""),
+IF('Test Definitions'!$H99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H99, """"), ""),
+IF('Test Definitions'!$I99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I99, """"), ""),
+IF('Test Definitions'!$J99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J99, """"), ""),
+IF('Test Definitions'!$K99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K99, """"), ""),
+IF('Test Definitions'!$L99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L99, """"), ""),
+IF('Test Definitions'!$M99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M99, """"), ""),
+IF('Test Definitions'!$N99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N99, """"), ""),
+IF('Test Definitions'!$O99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O99, """"), ""),
+IF('Test Definitions'!$P99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P99, """"), ""),
+IF('Test Definitions'!$Q99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q99, """"), ""),
+IF('Test Definitions'!$R99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R99, """"), ""),
+IF('Test Definitions'!$S99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S99, """"), ""),
+IF('Test Definitions'!$T99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T99, """"), ""),
+IF('Test Definitions'!$U99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U99, """"), ""),
+IF('Test Definitions'!$V99&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V99, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="23" t="str">
+        <f>IF('Test Definitions'!A100&lt;&gt;"",'Test Definitions'!A100,"")</f>
+        <v/>
+      </c>
+      <c r="B88" s="23" t="str">
+        <f>IF('Test Definitions'!B100&lt;&gt;"",'Test Definitions'!B100,"")</f>
+        <v/>
+      </c>
+      <c r="C88" s="23" t="str">
+        <f>IF('Test Definitions'!C100&lt;&gt;"",'Test Definitions'!C100,"")</f>
+        <v/>
+      </c>
+      <c r="D88" s="23" t="str">
+        <f>IF('Test Definitions'!D100&lt;&gt;"",'Test Definitions'!D100,"")</f>
+        <v/>
+      </c>
+      <c r="E88" s="23" t="str">
+        <f>IF($B88&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B100, """"),""),
+IF('Test Definitions'!$C100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C100, """"), ""),
+IF('Test Definitions'!$D100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D100, """"), ""),
+IF('Test Definitions'!$E100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E100, """"), ""),
+IF('Test Definitions'!$F100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F100, """"), ""),
+IF('Test Definitions'!$G100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G100, """"), ""),
+IF('Test Definitions'!$H100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H100, """"), ""),
+IF('Test Definitions'!$I100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I100, """"), ""),
+IF('Test Definitions'!$J100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J100, """"), ""),
+IF('Test Definitions'!$K100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K100, """"), ""),
+IF('Test Definitions'!$L100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L100, """"), ""),
+IF('Test Definitions'!$M100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M100, """"), ""),
+IF('Test Definitions'!$N100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N100, """"), ""),
+IF('Test Definitions'!$O100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O100, """"), ""),
+IF('Test Definitions'!$P100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P100, """"), ""),
+IF('Test Definitions'!$Q100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q100, """"), ""),
+IF('Test Definitions'!$R100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R100, """"), ""),
+IF('Test Definitions'!$S100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S100, """"), ""),
+IF('Test Definitions'!$T100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T100, """"), ""),
+IF('Test Definitions'!$U100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U100, """"), ""),
+IF('Test Definitions'!$V100&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V100, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="23" t="str">
+        <f>IF('Test Definitions'!A101&lt;&gt;"",'Test Definitions'!A101,"")</f>
+        <v/>
+      </c>
+      <c r="B89" s="23" t="str">
+        <f>IF('Test Definitions'!B101&lt;&gt;"",'Test Definitions'!B101,"")</f>
+        <v/>
+      </c>
+      <c r="C89" s="23" t="str">
+        <f>IF('Test Definitions'!C101&lt;&gt;"",'Test Definitions'!C101,"")</f>
+        <v/>
+      </c>
+      <c r="D89" s="23" t="str">
+        <f>IF('Test Definitions'!D101&lt;&gt;"",'Test Definitions'!D101,"")</f>
+        <v/>
+      </c>
+      <c r="E89" s="23" t="str">
+        <f>IF($B89&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B101, """"),""),
+IF('Test Definitions'!$C101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C101, """"), ""),
+IF('Test Definitions'!$D101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D101, """"), ""),
+IF('Test Definitions'!$E101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E101, """"), ""),
+IF('Test Definitions'!$F101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F101, """"), ""),
+IF('Test Definitions'!$G101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G101, """"), ""),
+IF('Test Definitions'!$H101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H101, """"), ""),
+IF('Test Definitions'!$I101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I101, """"), ""),
+IF('Test Definitions'!$J101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J101, """"), ""),
+IF('Test Definitions'!$K101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K101, """"), ""),
+IF('Test Definitions'!$L101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L101, """"), ""),
+IF('Test Definitions'!$M101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M101, """"), ""),
+IF('Test Definitions'!$N101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N101, """"), ""),
+IF('Test Definitions'!$O101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O101, """"), ""),
+IF('Test Definitions'!$P101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P101, """"), ""),
+IF('Test Definitions'!$Q101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q101, """"), ""),
+IF('Test Definitions'!$R101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R101, """"), ""),
+IF('Test Definitions'!$S101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S101, """"), ""),
+IF('Test Definitions'!$T101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T101, """"), ""),
+IF('Test Definitions'!$U101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U101, """"), ""),
+IF('Test Definitions'!$V101&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V101, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="23" t="str">
+        <f>IF('Test Definitions'!A102&lt;&gt;"",'Test Definitions'!A102,"")</f>
+        <v/>
+      </c>
+      <c r="B90" s="23" t="str">
+        <f>IF('Test Definitions'!B102&lt;&gt;"",'Test Definitions'!B102,"")</f>
+        <v/>
+      </c>
+      <c r="C90" s="23" t="str">
+        <f>IF('Test Definitions'!C102&lt;&gt;"",'Test Definitions'!C102,"")</f>
+        <v/>
+      </c>
+      <c r="D90" s="23" t="str">
+        <f>IF('Test Definitions'!D102&lt;&gt;"",'Test Definitions'!D102,"")</f>
+        <v/>
+      </c>
+      <c r="E90" s="23" t="str">
+        <f>IF($B90&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B102, """"),""),
+IF('Test Definitions'!$C102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C102, """"), ""),
+IF('Test Definitions'!$D102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D102, """"), ""),
+IF('Test Definitions'!$E102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E102, """"), ""),
+IF('Test Definitions'!$F102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F102, """"), ""),
+IF('Test Definitions'!$G102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G102, """"), ""),
+IF('Test Definitions'!$H102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H102, """"), ""),
+IF('Test Definitions'!$I102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I102, """"), ""),
+IF('Test Definitions'!$J102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J102, """"), ""),
+IF('Test Definitions'!$K102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K102, """"), ""),
+IF('Test Definitions'!$L102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L102, """"), ""),
+IF('Test Definitions'!$M102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M102, """"), ""),
+IF('Test Definitions'!$N102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N102, """"), ""),
+IF('Test Definitions'!$O102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O102, """"), ""),
+IF('Test Definitions'!$P102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P102, """"), ""),
+IF('Test Definitions'!$Q102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q102, """"), ""),
+IF('Test Definitions'!$R102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R102, """"), ""),
+IF('Test Definitions'!$S102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S102, """"), ""),
+IF('Test Definitions'!$T102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T102, """"), ""),
+IF('Test Definitions'!$U102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U102, """"), ""),
+IF('Test Definitions'!$V102&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V102, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="23" t="str">
+        <f>IF('Test Definitions'!A103&lt;&gt;"",'Test Definitions'!A103,"")</f>
+        <v/>
+      </c>
+      <c r="B91" s="23" t="str">
+        <f>IF('Test Definitions'!B103&lt;&gt;"",'Test Definitions'!B103,"")</f>
+        <v/>
+      </c>
+      <c r="C91" s="23" t="str">
+        <f>IF('Test Definitions'!C103&lt;&gt;"",'Test Definitions'!C103,"")</f>
+        <v/>
+      </c>
+      <c r="D91" s="23" t="str">
+        <f>IF('Test Definitions'!D103&lt;&gt;"",'Test Definitions'!D103,"")</f>
+        <v/>
+      </c>
+      <c r="E91" s="23" t="str">
+        <f>IF($B91&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B103, """"),""),
+IF('Test Definitions'!$C103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C103, """"), ""),
+IF('Test Definitions'!$D103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D103, """"), ""),
+IF('Test Definitions'!$E103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E103, """"), ""),
+IF('Test Definitions'!$F103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F103, """"), ""),
+IF('Test Definitions'!$G103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G103, """"), ""),
+IF('Test Definitions'!$H103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H103, """"), ""),
+IF('Test Definitions'!$I103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I103, """"), ""),
+IF('Test Definitions'!$J103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J103, """"), ""),
+IF('Test Definitions'!$K103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K103, """"), ""),
+IF('Test Definitions'!$L103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L103, """"), ""),
+IF('Test Definitions'!$M103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M103, """"), ""),
+IF('Test Definitions'!$N103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N103, """"), ""),
+IF('Test Definitions'!$O103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O103, """"), ""),
+IF('Test Definitions'!$P103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P103, """"), ""),
+IF('Test Definitions'!$Q103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q103, """"), ""),
+IF('Test Definitions'!$R103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R103, """"), ""),
+IF('Test Definitions'!$S103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S103, """"), ""),
+IF('Test Definitions'!$T103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T103, """"), ""),
+IF('Test Definitions'!$U103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U103, """"), ""),
+IF('Test Definitions'!$V103&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V103, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="23" t="str">
+        <f>IF('Test Definitions'!A104&lt;&gt;"",'Test Definitions'!A104,"")</f>
+        <v/>
+      </c>
+      <c r="B92" s="23" t="str">
+        <f>IF('Test Definitions'!B104&lt;&gt;"",'Test Definitions'!B104,"")</f>
+        <v/>
+      </c>
+      <c r="C92" s="23" t="str">
+        <f>IF('Test Definitions'!C104&lt;&gt;"",'Test Definitions'!C104,"")</f>
+        <v/>
+      </c>
+      <c r="D92" s="23" t="str">
+        <f>IF('Test Definitions'!D104&lt;&gt;"",'Test Definitions'!D104,"")</f>
+        <v/>
+      </c>
+      <c r="E92" s="23" t="str">
+        <f>IF($B92&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B104, """"),""),
+IF('Test Definitions'!$C104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C104, """"), ""),
+IF('Test Definitions'!$D104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D104, """"), ""),
+IF('Test Definitions'!$E104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E104, """"), ""),
+IF('Test Definitions'!$F104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F104, """"), ""),
+IF('Test Definitions'!$G104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G104, """"), ""),
+IF('Test Definitions'!$H104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H104, """"), ""),
+IF('Test Definitions'!$I104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I104, """"), ""),
+IF('Test Definitions'!$J104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J104, """"), ""),
+IF('Test Definitions'!$K104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K104, """"), ""),
+IF('Test Definitions'!$L104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L104, """"), ""),
+IF('Test Definitions'!$M104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M104, """"), ""),
+IF('Test Definitions'!$N104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N104, """"), ""),
+IF('Test Definitions'!$O104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O104, """"), ""),
+IF('Test Definitions'!$P104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P104, """"), ""),
+IF('Test Definitions'!$Q104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q104, """"), ""),
+IF('Test Definitions'!$R104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R104, """"), ""),
+IF('Test Definitions'!$S104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S104, """"), ""),
+IF('Test Definitions'!$T104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T104, """"), ""),
+IF('Test Definitions'!$U104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U104, """"), ""),
+IF('Test Definitions'!$V104&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V104, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="23" t="str">
+        <f>IF('Test Definitions'!A105&lt;&gt;"",'Test Definitions'!A105,"")</f>
+        <v/>
+      </c>
+      <c r="B93" s="23" t="str">
+        <f>IF('Test Definitions'!B105&lt;&gt;"",'Test Definitions'!B105,"")</f>
+        <v/>
+      </c>
+      <c r="C93" s="23" t="str">
+        <f>IF('Test Definitions'!C105&lt;&gt;"",'Test Definitions'!C105,"")</f>
+        <v/>
+      </c>
+      <c r="D93" s="23" t="str">
+        <f>IF('Test Definitions'!D105&lt;&gt;"",'Test Definitions'!D105,"")</f>
+        <v/>
+      </c>
+      <c r="E93" s="23" t="str">
+        <f>IF($B93&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B105, """"),""),
+IF('Test Definitions'!$C105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C105, """"), ""),
+IF('Test Definitions'!$D105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D105, """"), ""),
+IF('Test Definitions'!$E105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E105, """"), ""),
+IF('Test Definitions'!$F105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F105, """"), ""),
+IF('Test Definitions'!$G105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G105, """"), ""),
+IF('Test Definitions'!$H105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H105, """"), ""),
+IF('Test Definitions'!$I105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I105, """"), ""),
+IF('Test Definitions'!$J105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J105, """"), ""),
+IF('Test Definitions'!$K105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K105, """"), ""),
+IF('Test Definitions'!$L105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L105, """"), ""),
+IF('Test Definitions'!$M105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M105, """"), ""),
+IF('Test Definitions'!$N105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N105, """"), ""),
+IF('Test Definitions'!$O105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O105, """"), ""),
+IF('Test Definitions'!$P105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P105, """"), ""),
+IF('Test Definitions'!$Q105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q105, """"), ""),
+IF('Test Definitions'!$R105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R105, """"), ""),
+IF('Test Definitions'!$S105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S105, """"), ""),
+IF('Test Definitions'!$T105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T105, """"), ""),
+IF('Test Definitions'!$U105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U105, """"), ""),
+IF('Test Definitions'!$V105&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V105, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="23" t="str">
+        <f>IF('Test Definitions'!A106&lt;&gt;"",'Test Definitions'!A106,"")</f>
+        <v/>
+      </c>
+      <c r="B94" s="23" t="str">
+        <f>IF('Test Definitions'!B106&lt;&gt;"",'Test Definitions'!B106,"")</f>
+        <v/>
+      </c>
+      <c r="C94" s="23" t="str">
+        <f>IF('Test Definitions'!C106&lt;&gt;"",'Test Definitions'!C106,"")</f>
+        <v/>
+      </c>
+      <c r="D94" s="23" t="str">
+        <f>IF('Test Definitions'!D106&lt;&gt;"",'Test Definitions'!D106,"")</f>
+        <v/>
+      </c>
+      <c r="E94" s="23" t="str">
+        <f>IF($B94&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B106, """"),""),
+IF('Test Definitions'!$C106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C106, """"), ""),
+IF('Test Definitions'!$D106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D106, """"), ""),
+IF('Test Definitions'!$E106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E106, """"), ""),
+IF('Test Definitions'!$F106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F106, """"), ""),
+IF('Test Definitions'!$G106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G106, """"), ""),
+IF('Test Definitions'!$H106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H106, """"), ""),
+IF('Test Definitions'!$I106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I106, """"), ""),
+IF('Test Definitions'!$J106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J106, """"), ""),
+IF('Test Definitions'!$K106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K106, """"), ""),
+IF('Test Definitions'!$L106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L106, """"), ""),
+IF('Test Definitions'!$M106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M106, """"), ""),
+IF('Test Definitions'!$N106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N106, """"), ""),
+IF('Test Definitions'!$O106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O106, """"), ""),
+IF('Test Definitions'!$P106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P106, """"), ""),
+IF('Test Definitions'!$Q106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q106, """"), ""),
+IF('Test Definitions'!$R106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R106, """"), ""),
+IF('Test Definitions'!$S106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S106, """"), ""),
+IF('Test Definitions'!$T106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T106, """"), ""),
+IF('Test Definitions'!$U106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U106, """"), ""),
+IF('Test Definitions'!$V106&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V106, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="23" t="str">
+        <f>IF('Test Definitions'!A107&lt;&gt;"",'Test Definitions'!A107,"")</f>
+        <v/>
+      </c>
+      <c r="B95" s="23" t="str">
+        <f>IF('Test Definitions'!B107&lt;&gt;"",'Test Definitions'!B107,"")</f>
+        <v/>
+      </c>
+      <c r="C95" s="23" t="str">
+        <f>IF('Test Definitions'!C107&lt;&gt;"",'Test Definitions'!C107,"")</f>
+        <v/>
+      </c>
+      <c r="D95" s="23" t="str">
+        <f>IF('Test Definitions'!D107&lt;&gt;"",'Test Definitions'!D107,"")</f>
+        <v/>
+      </c>
+      <c r="E95" s="23" t="str">
+        <f>IF($B95&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B107, """"),""),
+IF('Test Definitions'!$C107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C107, """"), ""),
+IF('Test Definitions'!$D107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D107, """"), ""),
+IF('Test Definitions'!$E107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E107, """"), ""),
+IF('Test Definitions'!$F107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F107, """"), ""),
+IF('Test Definitions'!$G107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G107, """"), ""),
+IF('Test Definitions'!$H107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H107, """"), ""),
+IF('Test Definitions'!$I107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I107, """"), ""),
+IF('Test Definitions'!$J107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J107, """"), ""),
+IF('Test Definitions'!$K107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K107, """"), ""),
+IF('Test Definitions'!$L107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L107, """"), ""),
+IF('Test Definitions'!$M107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M107, """"), ""),
+IF('Test Definitions'!$N107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N107, """"), ""),
+IF('Test Definitions'!$O107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O107, """"), ""),
+IF('Test Definitions'!$P107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P107, """"), ""),
+IF('Test Definitions'!$Q107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q107, """"), ""),
+IF('Test Definitions'!$R107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R107, """"), ""),
+IF('Test Definitions'!$S107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S107, """"), ""),
+IF('Test Definitions'!$T107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T107, """"), ""),
+IF('Test Definitions'!$U107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U107, """"), ""),
+IF('Test Definitions'!$V107&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V107, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="23" t="str">
+        <f>IF('Test Definitions'!A108&lt;&gt;"",'Test Definitions'!A108,"")</f>
+        <v/>
+      </c>
+      <c r="B96" s="23" t="str">
+        <f>IF('Test Definitions'!B108&lt;&gt;"",'Test Definitions'!B108,"")</f>
+        <v/>
+      </c>
+      <c r="C96" s="23" t="str">
+        <f>IF('Test Definitions'!C108&lt;&gt;"",'Test Definitions'!C108,"")</f>
+        <v/>
+      </c>
+      <c r="D96" s="23" t="str">
+        <f>IF('Test Definitions'!D108&lt;&gt;"",'Test Definitions'!D108,"")</f>
+        <v/>
+      </c>
+      <c r="E96" s="23" t="str">
+        <f>IF($B96&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B108, """"),""),
+IF('Test Definitions'!$C108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C108, """"), ""),
+IF('Test Definitions'!$D108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D108, """"), ""),
+IF('Test Definitions'!$E108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E108, """"), ""),
+IF('Test Definitions'!$F108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F108, """"), ""),
+IF('Test Definitions'!$G108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G108, """"), ""),
+IF('Test Definitions'!$H108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H108, """"), ""),
+IF('Test Definitions'!$I108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I108, """"), ""),
+IF('Test Definitions'!$J108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J108, """"), ""),
+IF('Test Definitions'!$K108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K108, """"), ""),
+IF('Test Definitions'!$L108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L108, """"), ""),
+IF('Test Definitions'!$M108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M108, """"), ""),
+IF('Test Definitions'!$N108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N108, """"), ""),
+IF('Test Definitions'!$O108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O108, """"), ""),
+IF('Test Definitions'!$P108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P108, """"), ""),
+IF('Test Definitions'!$Q108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q108, """"), ""),
+IF('Test Definitions'!$R108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R108, """"), ""),
+IF('Test Definitions'!$S108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S108, """"), ""),
+IF('Test Definitions'!$T108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T108, """"), ""),
+IF('Test Definitions'!$U108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U108, """"), ""),
+IF('Test Definitions'!$V108&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V108, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="23" t="str">
+        <f>IF('Test Definitions'!A109&lt;&gt;"",'Test Definitions'!A109,"")</f>
+        <v/>
+      </c>
+      <c r="B97" s="23" t="str">
+        <f>IF('Test Definitions'!B109&lt;&gt;"",'Test Definitions'!B109,"")</f>
+        <v/>
+      </c>
+      <c r="C97" s="23" t="str">
+        <f>IF('Test Definitions'!C109&lt;&gt;"",'Test Definitions'!C109,"")</f>
+        <v/>
+      </c>
+      <c r="D97" s="23" t="str">
+        <f>IF('Test Definitions'!D109&lt;&gt;"",'Test Definitions'!D109,"")</f>
+        <v/>
+      </c>
+      <c r="E97" s="23" t="str">
+        <f>IF($B97&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B109, """"),""),
+IF('Test Definitions'!$C109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C109, """"), ""),
+IF('Test Definitions'!$D109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D109, """"), ""),
+IF('Test Definitions'!$E109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E109, """"), ""),
+IF('Test Definitions'!$F109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F109, """"), ""),
+IF('Test Definitions'!$G109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G109, """"), ""),
+IF('Test Definitions'!$H109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H109, """"), ""),
+IF('Test Definitions'!$I109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I109, """"), ""),
+IF('Test Definitions'!$J109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J109, """"), ""),
+IF('Test Definitions'!$K109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K109, """"), ""),
+IF('Test Definitions'!$L109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L109, """"), ""),
+IF('Test Definitions'!$M109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M109, """"), ""),
+IF('Test Definitions'!$N109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N109, """"), ""),
+IF('Test Definitions'!$O109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O109, """"), ""),
+IF('Test Definitions'!$P109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P109, """"), ""),
+IF('Test Definitions'!$Q109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q109, """"), ""),
+IF('Test Definitions'!$R109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R109, """"), ""),
+IF('Test Definitions'!$S109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S109, """"), ""),
+IF('Test Definitions'!$T109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T109, """"), ""),
+IF('Test Definitions'!$U109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U109, """"), ""),
+IF('Test Definitions'!$V109&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V109, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="23" t="str">
+        <f>IF('Test Definitions'!A110&lt;&gt;"",'Test Definitions'!A110,"")</f>
+        <v/>
+      </c>
+      <c r="B98" s="23" t="str">
+        <f>IF('Test Definitions'!B110&lt;&gt;"",'Test Definitions'!B110,"")</f>
+        <v/>
+      </c>
+      <c r="C98" s="23" t="str">
+        <f>IF('Test Definitions'!C110&lt;&gt;"",'Test Definitions'!C110,"")</f>
+        <v/>
+      </c>
+      <c r="D98" s="23" t="str">
+        <f>IF('Test Definitions'!D110&lt;&gt;"",'Test Definitions'!D110,"")</f>
+        <v/>
+      </c>
+      <c r="E98" s="23" t="str">
+        <f>IF($B98&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B110, """"),""),
+IF('Test Definitions'!$C110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C110, """"), ""),
+IF('Test Definitions'!$D110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D110, """"), ""),
+IF('Test Definitions'!$E110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E110, """"), ""),
+IF('Test Definitions'!$F110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F110, """"), ""),
+IF('Test Definitions'!$G110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G110, """"), ""),
+IF('Test Definitions'!$H110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H110, """"), ""),
+IF('Test Definitions'!$I110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I110, """"), ""),
+IF('Test Definitions'!$J110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J110, """"), ""),
+IF('Test Definitions'!$K110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K110, """"), ""),
+IF('Test Definitions'!$L110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L110, """"), ""),
+IF('Test Definitions'!$M110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M110, """"), ""),
+IF('Test Definitions'!$N110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N110, """"), ""),
+IF('Test Definitions'!$O110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O110, """"), ""),
+IF('Test Definitions'!$P110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P110, """"), ""),
+IF('Test Definitions'!$Q110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q110, """"), ""),
+IF('Test Definitions'!$R110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R110, """"), ""),
+IF('Test Definitions'!$S110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S110, """"), ""),
+IF('Test Definitions'!$T110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T110, """"), ""),
+IF('Test Definitions'!$U110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U110, """"), ""),
+IF('Test Definitions'!$V110&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V110, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="23" t="str">
+        <f>IF('Test Definitions'!A111&lt;&gt;"",'Test Definitions'!A111,"")</f>
+        <v/>
+      </c>
+      <c r="B99" s="23" t="str">
+        <f>IF('Test Definitions'!B111&lt;&gt;"",'Test Definitions'!B111,"")</f>
+        <v/>
+      </c>
+      <c r="C99" s="23" t="str">
+        <f>IF('Test Definitions'!C111&lt;&gt;"",'Test Definitions'!C111,"")</f>
+        <v/>
+      </c>
+      <c r="D99" s="23" t="str">
+        <f>IF('Test Definitions'!D111&lt;&gt;"",'Test Definitions'!D111,"")</f>
+        <v/>
+      </c>
+      <c r="E99" s="23" t="str">
+        <f>IF($B99&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B111, """"),""),
+IF('Test Definitions'!$C111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C111, """"), ""),
+IF('Test Definitions'!$D111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D111, """"), ""),
+IF('Test Definitions'!$E111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E111, """"), ""),
+IF('Test Definitions'!$F111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F111, """"), ""),
+IF('Test Definitions'!$G111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G111, """"), ""),
+IF('Test Definitions'!$H111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H111, """"), ""),
+IF('Test Definitions'!$I111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I111, """"), ""),
+IF('Test Definitions'!$J111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J111, """"), ""),
+IF('Test Definitions'!$K111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K111, """"), ""),
+IF('Test Definitions'!$L111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L111, """"), ""),
+IF('Test Definitions'!$M111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M111, """"), ""),
+IF('Test Definitions'!$N111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N111, """"), ""),
+IF('Test Definitions'!$O111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O111, """"), ""),
+IF('Test Definitions'!$P111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P111, """"), ""),
+IF('Test Definitions'!$Q111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q111, """"), ""),
+IF('Test Definitions'!$R111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R111, """"), ""),
+IF('Test Definitions'!$S111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S111, """"), ""),
+IF('Test Definitions'!$T111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T111, """"), ""),
+IF('Test Definitions'!$U111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U111, """"), ""),
+IF('Test Definitions'!$V111&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V111, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="23" t="str">
+        <f>IF('Test Definitions'!A112&lt;&gt;"",'Test Definitions'!A112,"")</f>
+        <v/>
+      </c>
+      <c r="B100" s="23" t="str">
+        <f>IF('Test Definitions'!B112&lt;&gt;"",'Test Definitions'!B112,"")</f>
+        <v/>
+      </c>
+      <c r="C100" s="23" t="str">
+        <f>IF('Test Definitions'!C112&lt;&gt;"",'Test Definitions'!C112,"")</f>
+        <v/>
+      </c>
+      <c r="D100" s="23" t="str">
+        <f>IF('Test Definitions'!D112&lt;&gt;"",'Test Definitions'!D112,"")</f>
+        <v/>
+      </c>
+      <c r="E100" s="23" t="str">
+        <f>IF($B100&lt;&gt;"",SUBSTITUTE(CONCATENATE(
+IF($C$9&lt;&gt;"",$C$9,""), "Rscript ",
+IF($C$10&lt;&gt;"",$C$10,""),"testdatas.r", " -r",
+IF($C$11=1,"v",""),
+IF('Global Arguments'!$C$11&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$11, "=""", 'Global Arguments'!$C$11, """"),""),
+IF('Global Arguments'!$C$12&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$12, "=""", 'Global Arguments'!$C$12, """"),""),
+IF('Global Arguments'!$C$13&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$13, "=""", 'Global Arguments'!$C$13, """"),""),
+IF('Global Arguments'!$C$15&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$15, "=""", 'Global Arguments'!$C$15, """"),""),
+IF('Global Arguments'!$C$16&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$16, "=""", 'Global Arguments'!$C$16, """"),""),
+IF('Global Arguments'!$C$17&lt;&gt;"", CONCATENATE(" ", 'Global Arguments'!$A$17, "=""", 'Global Arguments'!$C$17, """"),""),
+IF('Test Definitions'!$B112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$B$28, "=""", 'Test Definitions'!$B112, """"),""),
+IF('Test Definitions'!$C112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$C$28, "=""", 'Test Definitions'!$C112, """"), ""),
+IF('Test Definitions'!$D112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$D$28, "=""", 'Test Definitions'!$D112, """"), ""),
+IF('Test Definitions'!$E112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$E$28, "=""", 'Test Definitions'!$E112, """"), ""),
+IF('Test Definitions'!$F112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$F$28, "=""", 'Test Definitions'!$F112, """"), ""),
+IF('Test Definitions'!$G112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$G$28, "=""", 'Test Definitions'!$G112, """"), ""),
+IF('Test Definitions'!$H112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$H$28, "=""", 'Test Definitions'!$H112, """"), ""),
+IF('Test Definitions'!$I112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$I$28, "=""", 'Test Definitions'!$I112, """"), ""),
+IF('Test Definitions'!$J112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$J$28, "=""", 'Test Definitions'!$J112, """"), ""),
+IF('Test Definitions'!$K112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$K$28, "=""", 'Test Definitions'!$K112, """"), ""),
+IF('Test Definitions'!$L112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$L$28, "=""", 'Test Definitions'!$L112, """"), ""),
+IF('Test Definitions'!$M112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$M$28, "=""", 'Test Definitions'!$M112, """"), ""),
+IF('Test Definitions'!$N112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$N$28, "=""", 'Test Definitions'!$N112, """"), ""),
+IF('Test Definitions'!$O112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$O$28, "=""", 'Test Definitions'!$O112, """"), ""),
+IF('Test Definitions'!$P112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$P$28, "=""", 'Test Definitions'!$P112, """"), ""),
+IF('Test Definitions'!$Q112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$Q$28, "=""", 'Test Definitions'!$Q112, """"), ""),
+IF('Test Definitions'!$R112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$R$28, "=""", 'Test Definitions'!$R112, """"), ""),
+IF('Test Definitions'!$S112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$S$28, "=""", 'Test Definitions'!$S112, """"), ""),
+IF('Test Definitions'!$T112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$T$28, "=""", 'Test Definitions'!$T112, """"), ""),
+IF('Test Definitions'!$U112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$U$28, "=""", 'Test Definitions'!$U112, """"), ""),
+IF('Test Definitions'!$V112&lt;&gt;"", CONCATENATE(" ", 'Test Definitions'!$V$28, "=""", 'Test Definitions'!$V112, """"), ""),
+),"\","/"),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SourceVHubDataTests_template.xlsx
+++ b/SourceVHubDataTests_template.xlsx
@@ -100,9 +100,6 @@
     <t>Disabled</t>
   </si>
   <si>
-    <t>Value must be "Enabled" in order for the test to be run</t>
-  </si>
-  <si>
     <t>IgnoredValues</t>
   </si>
   <si>
@@ -521,6 +518,19 @@
   </si>
   <si>
     <t>%d-%m-%Y %H:%M,%Y%m%d</t>
+  </si>
+  <si>
+    <t>Value must be "Enabled" or "SCHEDULE(* * *)"
+SCHEDULE(* * *) This will only run the test if it meets certain criteria.
+You can set a pattern to control the days the test should run.
+                      day of the month (1-31)
+                    |   month (1-12 or JAN-DEC
+                    |  |  day of the week (0-6 where Sunday is 0 or SUN-SAT)
+                    |  |  |
+SCHEDULE(* * *)
+e.g SCHEDULE(1-7 * MON)   Will cause the test to run on the first Monday of every month. 
+SCHEDULE(* DEC *) Will cause the test to run every day in December
+SCHEDULE(* * TUE,THU,FRI-SUN) Will mean the test only runs on Tuesdays, thursdays and friday through to sunday.</t>
   </si>
 </sst>
 </file>
@@ -729,17 +739,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -754,33 +777,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1098,7 +1108,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1124,7 +1134,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1175,17 +1185,17 @@
       <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="A4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -1228,7 +1238,7 @@
     </row>
     <row r="6" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1253,23 +1263,23 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -1285,17 +1295,17 @@
       <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="33"/>
+      <c r="A8" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="38"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -1310,24 +1320,24 @@
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:22" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="E9" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -1343,23 +1353,23 @@
       <c r="V9" s="10"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -1375,23 +1385,23 @@
       <c r="V10" s="10"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -1407,23 +1417,23 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -1439,23 +1449,23 @@
       <c r="V12" s="10"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -1471,23 +1481,23 @@
       <c r="V13" s="10"/>
     </row>
     <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="E14" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -1503,23 +1513,23 @@
       <c r="V14" s="10"/>
     </row>
     <row r="15" spans="1:22" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="38"/>
+      <c r="A15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="29"/>
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -1535,17 +1545,17 @@
       <c r="V15" s="10"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="33"/>
+      <c r="A16" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="38"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -1561,23 +1571,23 @@
       <c r="V16" s="10"/>
     </row>
     <row r="17" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="35"/>
+      <c r="A17" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="30"/>
       <c r="C17" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="E17" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -1593,23 +1603,23 @@
       <c r="V17" s="10"/>
     </row>
     <row r="18" spans="1:22" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="29"/>
+      <c r="A18" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="31"/>
       <c r="C18" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="E18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -1625,23 +1635,23 @@
       <c r="V18" s="10"/>
     </row>
     <row r="19" spans="1:22" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="29"/>
+      <c r="A19" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="31"/>
       <c r="C19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="E19" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -1658,7 +1668,7 @@
     </row>
     <row r="20" spans="1:22" s="23" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="16" t="s">
@@ -1667,13 +1677,13 @@
       <c r="D20" s="16">
         <v>1</v>
       </c>
-      <c r="E20" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
+      <c r="E20" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -1689,23 +1699,23 @@
       <c r="V20" s="10"/>
     </row>
     <row r="21" spans="1:22" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="16">
         <v>1</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
+      <c r="E21" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -1721,23 +1731,23 @@
       <c r="V21" s="10"/>
     </row>
     <row r="22" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="E22" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -1753,23 +1763,23 @@
       <c r="V22" s="10"/>
     </row>
     <row r="23" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
+      <c r="E23" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1786,7 +1796,7 @@
     </row>
     <row r="24" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="14" t="s">
@@ -1795,13 +1805,13 @@
       <c r="D24" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="E24" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="E24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1844,7 +1854,7 @@
     </row>
     <row r="26" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1869,17 +1879,17 @@
       <c r="V26" s="10"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="A27" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1914,132 +1924,132 @@
         <v>4</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="U28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U28" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="K29" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="O29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="V29" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
@@ -2048,54 +2058,54 @@
         <v>1000</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="3"/>
       <c r="U30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V30" s="21"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2">
         <v>5</v>
@@ -2104,14 +2114,14 @@
         <v>1203</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2">
@@ -2121,10 +2131,10 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2">
@@ -2136,16 +2146,16 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
@@ -2154,16 +2164,16 @@
         <v>10000</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -2171,14 +2181,14 @@
         <v>456</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -2186,22 +2196,22 @@
         <v>500</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V32" s="21"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2">
         <v>30</v>
@@ -2210,54 +2220,46 @@
         <v>30000</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q33" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U33" s="2"/>
       <c r="V33" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="E17:I17"/>
@@ -2274,12 +2276,20 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2291,7 +2301,7 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:XFD30"/>
+  <dimension ref="A1:XFC30"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -2307,7 +2317,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -2318,7 +2328,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2343,17 +2353,17 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="A4" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -2370,7 +2380,7 @@
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2382,179 +2392,179 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+    </row>
+    <row r="9" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="15">
         <v>1</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+    </row>
+    <row r="11" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="15" t="s">
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-    </row>
-    <row r="12" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="D12" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="15" t="s">
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-    </row>
-    <row r="13" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="D13" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="15" t="s">
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="1:9" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="D15" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="15" t="s">
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-    </row>
-    <row r="16" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="D16" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="43" t="s">
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+    </row>
+    <row r="17" spans="1:9" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="1:9" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
     </row>
     <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
@@ -2571,6 +2581,19 @@
     <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:I12"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="A17:B17"/>
@@ -2581,19 +2604,6 @@
     <mergeCell ref="D14:I14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="D15:I15"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2615,24 +2625,24 @@
     <col min="5" max="7" width="18.5703125" style="23" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="23" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="23" customWidth="1"/>
-    <col min="10" max="13" width="0" style="23" hidden="1"/>
+    <col min="10" max="13" width="0" style="23" hidden="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="23" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2642,10 +2652,10 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -2659,27 +2669,27 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
+      <c r="A4" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -2693,14 +2703,14 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -2710,107 +2720,107 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-    </row>
-    <row r="9" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="43" t="s">
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-    </row>
-    <row r="10" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="29"/>
+      <c r="A11" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="31"/>
       <c r="C11" s="16">
         <v>1</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" s="45"/>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
@@ -2822,14 +2832,14 @@
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -2839,10 +2849,10 @@
       <c r="G13" s="46"/>
       <c r="H13" s="46"/>
       <c r="I13" s="46"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
@@ -2854,14 +2864,14 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2871,17 +2881,17 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -2890,7 +2900,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -7309,11 +7319,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A7:B7"/>
@@ -7322,6 +7327,11 @@
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:I9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
